--- a/data/raw_data/tree_survey/tree_survey_data2019.xlsx
+++ b/data/raw_data/tree_survey/tree_survey_data2019.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aarchmil\Documents\R_projects\LL_carbon_census\data\raw_data\tree_survey\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marleylund/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19350" windowHeight="11475"/>
+    <workbookView xWindow="4600" yWindow="460" windowWidth="19360" windowHeight="11480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="65">
   <si>
     <t>Date Surveyed</t>
   </si>
@@ -56,9 +62,6 @@
     <t>Direction (°)</t>
   </si>
   <si>
-    <t>Height (m)</t>
-  </si>
-  <si>
     <t>Stems</t>
   </si>
   <si>
@@ -66,12 +69,168 @@
   </si>
   <si>
     <t>Tag Number</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>Black Ash</t>
+  </si>
+  <si>
+    <t>Prunus</t>
+  </si>
+  <si>
+    <t>nigra</t>
+  </si>
+  <si>
+    <t>Aspen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Populus </t>
+  </si>
+  <si>
+    <t>tremuloides</t>
+  </si>
+  <si>
+    <t>shrub</t>
+  </si>
+  <si>
+    <t>Canada plum</t>
+  </si>
+  <si>
+    <t>Choke Cherry</t>
+  </si>
+  <si>
+    <t>Black Cherry</t>
+  </si>
+  <si>
+    <t>Basswood</t>
+  </si>
+  <si>
+    <t>Tilia</t>
+  </si>
+  <si>
+    <t>americana</t>
+  </si>
+  <si>
+    <t>Ironwood</t>
+  </si>
+  <si>
+    <t>Ostrya</t>
+  </si>
+  <si>
+    <t>virginiana</t>
+  </si>
+  <si>
+    <t>Fraxinus</t>
+  </si>
+  <si>
+    <t>Hawthorne</t>
+  </si>
+  <si>
+    <t>Craetagus</t>
+  </si>
+  <si>
+    <t>sp.</t>
+  </si>
+  <si>
+    <t>Twin Flower</t>
+  </si>
+  <si>
+    <t>Linnaea</t>
+  </si>
+  <si>
+    <t>Viburnum</t>
+  </si>
+  <si>
+    <t>Red Ash</t>
+  </si>
+  <si>
+    <t>Slippery Elm</t>
+  </si>
+  <si>
+    <t>Burr Oak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viburnum </t>
+  </si>
+  <si>
+    <t>lentago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIburnum </t>
+  </si>
+  <si>
+    <t>Balsam poplar</t>
+  </si>
+  <si>
+    <t>balsamifera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quercus </t>
+  </si>
+  <si>
+    <t>macrocarpa</t>
+  </si>
+  <si>
+    <t>pennsylvanica</t>
+  </si>
+  <si>
+    <t>Ulmus</t>
+  </si>
+  <si>
+    <t>rubra</t>
+  </si>
+  <si>
+    <t>Buckthorn</t>
+  </si>
+  <si>
+    <t>Rhamnus</t>
+  </si>
+  <si>
+    <t>cathartica</t>
+  </si>
+  <si>
+    <t>Plum</t>
+  </si>
+  <si>
+    <t>Paper birch</t>
+  </si>
+  <si>
+    <t>Betula</t>
+  </si>
+  <si>
+    <t>papyrifera</t>
+  </si>
+  <si>
+    <t>European Buckthorn</t>
+  </si>
+  <si>
+    <t>European buckthorn</t>
+  </si>
+  <si>
+    <t>betula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">populus </t>
+  </si>
+  <si>
+    <t>Red Oak</t>
+  </si>
+  <si>
+    <t>Red ash</t>
+  </si>
+  <si>
+    <t>ostrya</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -81,12 +240,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -101,8 +266,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,15 +550,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:M158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:N1"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="F155" sqref="F155"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -431,7 +603,5686 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>43622</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>278747</v>
+      </c>
+      <c r="D2">
+        <v>5189511</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>43622</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>278860</v>
+      </c>
+      <c r="D3">
+        <v>5189508</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>43622</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>278950</v>
+      </c>
+      <c r="D4">
+        <v>5189515</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4">
+        <v>3.32</v>
+      </c>
+      <c r="J4">
+        <v>290</v>
+      </c>
+      <c r="K4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4">
+        <v>12.1</v>
+      </c>
+      <c r="M4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>43622</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>278950</v>
+      </c>
+      <c r="D5">
+        <v>5189515</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5">
+        <v>4.01</v>
+      </c>
+      <c r="J5">
+        <v>311</v>
+      </c>
+      <c r="K5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5">
+        <v>9.1</v>
+      </c>
+      <c r="M5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>43622</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>278950</v>
+      </c>
+      <c r="D6">
+        <v>5189515</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6">
+        <v>3.49</v>
+      </c>
+      <c r="J6">
+        <v>322</v>
+      </c>
+      <c r="K6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6">
+        <v>7.4</v>
+      </c>
+      <c r="M6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>278950</v>
+      </c>
+      <c r="D7">
+        <v>5189515</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7">
+        <v>4.05</v>
+      </c>
+      <c r="J7">
+        <v>343</v>
+      </c>
+      <c r="K7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7">
+        <v>7.2</v>
+      </c>
+      <c r="M7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>278950</v>
+      </c>
+      <c r="D8">
+        <v>5189515</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8">
+        <v>4.55</v>
+      </c>
+      <c r="J8">
+        <v>32</v>
+      </c>
+      <c r="K8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8">
+        <v>11.2</v>
+      </c>
+      <c r="M8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>278950</v>
+      </c>
+      <c r="D9">
+        <v>5189515</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="J9">
+        <v>63</v>
+      </c>
+      <c r="K9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9">
+        <v>16.3</v>
+      </c>
+      <c r="M9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>278950</v>
+      </c>
+      <c r="D10">
+        <v>5189515</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10">
+        <v>3.2</v>
+      </c>
+      <c r="J10">
+        <v>101</v>
+      </c>
+      <c r="K10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10">
+        <v>7.1</v>
+      </c>
+      <c r="M10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>278950</v>
+      </c>
+      <c r="D11">
+        <v>5189515</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11">
+        <v>2.48</v>
+      </c>
+      <c r="J11">
+        <v>183</v>
+      </c>
+      <c r="K11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="M11">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>278950</v>
+      </c>
+      <c r="D12">
+        <v>5189515</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12">
+        <v>2.44</v>
+      </c>
+      <c r="J12">
+        <v>190</v>
+      </c>
+      <c r="K12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12">
+        <v>9.9</v>
+      </c>
+      <c r="M12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>278950</v>
+      </c>
+      <c r="D13">
+        <v>5189515</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13">
+        <v>2.1</v>
+      </c>
+      <c r="J13">
+        <v>203</v>
+      </c>
+      <c r="K13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="M13">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>278950</v>
+      </c>
+      <c r="D14">
+        <v>5189515</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14">
+        <v>2.7</v>
+      </c>
+      <c r="J14">
+        <v>217</v>
+      </c>
+      <c r="K14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>278950</v>
+      </c>
+      <c r="D15">
+        <v>5189515</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15">
+        <v>4.59</v>
+      </c>
+      <c r="J15">
+        <v>221</v>
+      </c>
+      <c r="K15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15">
+        <v>2.1</v>
+      </c>
+      <c r="M15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>278950</v>
+      </c>
+      <c r="D16">
+        <v>5189515</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16">
+        <v>4.8</v>
+      </c>
+      <c r="J16">
+        <v>223</v>
+      </c>
+      <c r="K16" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+      <c r="M16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>278950</v>
+      </c>
+      <c r="D17">
+        <v>5189515</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17">
+        <v>4.47</v>
+      </c>
+      <c r="J17">
+        <v>258</v>
+      </c>
+      <c r="K17" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>278950</v>
+      </c>
+      <c r="D18">
+        <v>5189515</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18">
+        <v>1.39</v>
+      </c>
+      <c r="J18">
+        <v>318</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>278950</v>
+      </c>
+      <c r="D19">
+        <v>5189515</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19">
+        <v>4.21</v>
+      </c>
+      <c r="J19">
+        <v>350</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>278950</v>
+      </c>
+      <c r="D20">
+        <v>5189515</v>
+      </c>
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20">
+        <v>4.75</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20" t="s">
+        <v>13</v>
+      </c>
+      <c r="M20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>278950</v>
+      </c>
+      <c r="D21">
+        <v>5189515</v>
+      </c>
+      <c r="E21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21">
+        <v>4.93</v>
+      </c>
+      <c r="J21">
+        <v>21</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>278950</v>
+      </c>
+      <c r="D22">
+        <v>5189515</v>
+      </c>
+      <c r="E22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22">
+        <v>2.69</v>
+      </c>
+      <c r="J22">
+        <v>78</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
+        <v>13</v>
+      </c>
+      <c r="M22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>278950</v>
+      </c>
+      <c r="D23">
+        <v>5189515</v>
+      </c>
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J23">
+        <v>49</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23" t="s">
+        <v>13</v>
+      </c>
+      <c r="M23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>278950</v>
+      </c>
+      <c r="D24">
+        <v>5189515</v>
+      </c>
+      <c r="E24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24">
+        <v>0.7</v>
+      </c>
+      <c r="J24">
+        <v>110</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>43629</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>278800</v>
+      </c>
+      <c r="D25">
+        <v>5189427</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25">
+        <v>3.6</v>
+      </c>
+      <c r="J25">
+        <v>118</v>
+      </c>
+      <c r="L25">
+        <v>4</v>
+      </c>
+      <c r="M25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>278800</v>
+      </c>
+      <c r="D26">
+        <v>5189427</v>
+      </c>
+      <c r="E26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26">
+        <v>3.4</v>
+      </c>
+      <c r="J26">
+        <v>134</v>
+      </c>
+      <c r="K26">
+        <v>14</v>
+      </c>
+      <c r="L26" t="s">
+        <v>13</v>
+      </c>
+      <c r="M26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>43622</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>278880</v>
+      </c>
+      <c r="D27">
+        <v>5189387</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>43629</v>
+      </c>
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>278970.5</v>
+      </c>
+      <c r="D28">
+        <v>5189409</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" t="s">
+        <v>30</v>
+      </c>
+      <c r="I28">
+        <v>2.79</v>
+      </c>
+      <c r="J28">
+        <v>20</v>
+      </c>
+      <c r="K28" t="s">
+        <v>13</v>
+      </c>
+      <c r="L28">
+        <v>8.6</v>
+      </c>
+      <c r="M28">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>278970.5</v>
+      </c>
+      <c r="D29">
+        <v>5189409</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" t="s">
+        <v>42</v>
+      </c>
+      <c r="I29">
+        <v>1.91</v>
+      </c>
+      <c r="J29">
+        <v>46</v>
+      </c>
+      <c r="K29" t="s">
+        <v>13</v>
+      </c>
+      <c r="L29">
+        <v>4.5</v>
+      </c>
+      <c r="M29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>278970.5</v>
+      </c>
+      <c r="D30">
+        <v>5189409</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" t="s">
+        <v>42</v>
+      </c>
+      <c r="I30">
+        <v>3.85</v>
+      </c>
+      <c r="J30">
+        <v>42</v>
+      </c>
+      <c r="K30" t="s">
+        <v>13</v>
+      </c>
+      <c r="L30">
+        <v>3.3</v>
+      </c>
+      <c r="M30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>278970.5</v>
+      </c>
+      <c r="D31">
+        <v>5189409</v>
+      </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" t="s">
+        <v>41</v>
+      </c>
+      <c r="H31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I31">
+        <v>3.65</v>
+      </c>
+      <c r="J31">
+        <v>46</v>
+      </c>
+      <c r="K31" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <v>278970.5</v>
+      </c>
+      <c r="D32">
+        <v>5189409</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" t="s">
+        <v>48</v>
+      </c>
+      <c r="I32">
+        <v>2.04</v>
+      </c>
+      <c r="J32">
+        <v>60</v>
+      </c>
+      <c r="K32" t="s">
+        <v>13</v>
+      </c>
+      <c r="L32">
+        <v>8.4</v>
+      </c>
+      <c r="M32">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <v>278970.5</v>
+      </c>
+      <c r="D33">
+        <v>5189409</v>
+      </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" t="s">
+        <v>41</v>
+      </c>
+      <c r="H33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I33">
+        <v>2.9</v>
+      </c>
+      <c r="J33">
+        <v>70</v>
+      </c>
+      <c r="K33" t="s">
+        <v>13</v>
+      </c>
+      <c r="L33">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>6</v>
+      </c>
+      <c r="C34">
+        <v>278970.5</v>
+      </c>
+      <c r="D34">
+        <v>5189409</v>
+      </c>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34" t="s">
+        <v>41</v>
+      </c>
+      <c r="H34" t="s">
+        <v>42</v>
+      </c>
+      <c r="I34">
+        <v>3.23</v>
+      </c>
+      <c r="J34">
+        <v>124</v>
+      </c>
+      <c r="K34" t="s">
+        <v>13</v>
+      </c>
+      <c r="L34">
+        <v>2.1</v>
+      </c>
+      <c r="M34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>6</v>
+      </c>
+      <c r="C35">
+        <v>278970.5</v>
+      </c>
+      <c r="D35">
+        <v>5189409</v>
+      </c>
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" t="s">
+        <v>49</v>
+      </c>
+      <c r="H35" t="s">
+        <v>50</v>
+      </c>
+      <c r="I35">
+        <v>3.47</v>
+      </c>
+      <c r="J35">
+        <v>126</v>
+      </c>
+      <c r="K35" t="s">
+        <v>13</v>
+      </c>
+      <c r="L35">
+        <v>2</v>
+      </c>
+      <c r="M35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>6</v>
+      </c>
+      <c r="C36">
+        <v>278970.5</v>
+      </c>
+      <c r="D36">
+        <v>5189409</v>
+      </c>
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" t="s">
+        <v>37</v>
+      </c>
+      <c r="G36" t="s">
+        <v>41</v>
+      </c>
+      <c r="H36" t="s">
+        <v>34</v>
+      </c>
+      <c r="I36">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="J36">
+        <v>232</v>
+      </c>
+      <c r="K36" t="s">
+        <v>13</v>
+      </c>
+      <c r="L36">
+        <v>3.6</v>
+      </c>
+      <c r="M36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <v>278970.5</v>
+      </c>
+      <c r="D37">
+        <v>5189409</v>
+      </c>
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" t="s">
+        <v>30</v>
+      </c>
+      <c r="I37">
+        <v>3.59</v>
+      </c>
+      <c r="J37">
+        <v>256</v>
+      </c>
+      <c r="K37" t="s">
+        <v>13</v>
+      </c>
+      <c r="L37">
+        <v>2.1</v>
+      </c>
+      <c r="M37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>6</v>
+      </c>
+      <c r="C38">
+        <v>278970.5</v>
+      </c>
+      <c r="D38">
+        <v>5189409</v>
+      </c>
+      <c r="E38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" t="s">
+        <v>30</v>
+      </c>
+      <c r="I38">
+        <v>4.7</v>
+      </c>
+      <c r="J38">
+        <v>266</v>
+      </c>
+      <c r="K38" t="s">
+        <v>13</v>
+      </c>
+      <c r="L38">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>6</v>
+      </c>
+      <c r="C39">
+        <v>278970.5</v>
+      </c>
+      <c r="D39">
+        <v>5189409</v>
+      </c>
+      <c r="E39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" t="s">
+        <v>37</v>
+      </c>
+      <c r="G39" t="s">
+        <v>41</v>
+      </c>
+      <c r="H39" t="s">
+        <v>42</v>
+      </c>
+      <c r="I39">
+        <v>3.85</v>
+      </c>
+      <c r="J39">
+        <v>272</v>
+      </c>
+      <c r="K39" t="s">
+        <v>13</v>
+      </c>
+      <c r="L39">
+        <v>2.4</v>
+      </c>
+      <c r="M39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <v>278970.5</v>
+      </c>
+      <c r="D40">
+        <v>5189409</v>
+      </c>
+      <c r="E40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" t="s">
+        <v>40</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40">
+        <v>4.92</v>
+      </c>
+      <c r="J40">
+        <v>296</v>
+      </c>
+      <c r="K40" t="s">
+        <v>13</v>
+      </c>
+      <c r="L40">
+        <v>13.6</v>
+      </c>
+      <c r="M40">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>6</v>
+      </c>
+      <c r="C41">
+        <v>278970.5</v>
+      </c>
+      <c r="D41">
+        <v>5189409</v>
+      </c>
+      <c r="E41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" t="s">
+        <v>28</v>
+      </c>
+      <c r="G41" t="s">
+        <v>29</v>
+      </c>
+      <c r="H41" t="s">
+        <v>30</v>
+      </c>
+      <c r="I41">
+        <v>3.29</v>
+      </c>
+      <c r="J41">
+        <v>354</v>
+      </c>
+      <c r="K41" t="s">
+        <v>13</v>
+      </c>
+      <c r="L41">
+        <v>5.7</v>
+      </c>
+      <c r="M41">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>6</v>
+      </c>
+      <c r="C42">
+        <v>278970.5</v>
+      </c>
+      <c r="D42">
+        <v>5189409</v>
+      </c>
+      <c r="E42" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" t="s">
+        <v>37</v>
+      </c>
+      <c r="G42" t="s">
+        <v>41</v>
+      </c>
+      <c r="H42" t="s">
+        <v>42</v>
+      </c>
+      <c r="I42">
+        <v>2.63</v>
+      </c>
+      <c r="J42">
+        <v>4</v>
+      </c>
+      <c r="K42" t="s">
+        <v>13</v>
+      </c>
+      <c r="L42">
+        <v>2.1</v>
+      </c>
+      <c r="M42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>6</v>
+      </c>
+      <c r="C43">
+        <v>278970.5</v>
+      </c>
+      <c r="D43">
+        <v>5189409</v>
+      </c>
+      <c r="E43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" t="s">
+        <v>37</v>
+      </c>
+      <c r="G43" t="s">
+        <v>41</v>
+      </c>
+      <c r="H43" t="s">
+        <v>42</v>
+      </c>
+      <c r="I43">
+        <v>2.96</v>
+      </c>
+      <c r="J43">
+        <v>8</v>
+      </c>
+      <c r="K43" t="s">
+        <v>13</v>
+      </c>
+      <c r="L43">
+        <v>2.5</v>
+      </c>
+      <c r="M43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>6</v>
+      </c>
+      <c r="C44">
+        <v>278970.5</v>
+      </c>
+      <c r="D44">
+        <v>5189409</v>
+      </c>
+      <c r="E44" t="s">
+        <v>21</v>
+      </c>
+      <c r="F44" t="s">
+        <v>37</v>
+      </c>
+      <c r="G44" t="s">
+        <v>41</v>
+      </c>
+      <c r="H44" t="s">
+        <v>42</v>
+      </c>
+      <c r="I44">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44" t="s">
+        <v>13</v>
+      </c>
+      <c r="M44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>6</v>
+      </c>
+      <c r="C45">
+        <v>278970.5</v>
+      </c>
+      <c r="D45">
+        <v>5189409</v>
+      </c>
+      <c r="E45" t="s">
+        <v>21</v>
+      </c>
+      <c r="F45" t="s">
+        <v>37</v>
+      </c>
+      <c r="G45" t="s">
+        <v>41</v>
+      </c>
+      <c r="H45" t="s">
+        <v>42</v>
+      </c>
+      <c r="I45">
+        <v>1.7</v>
+      </c>
+      <c r="J45">
+        <v>34</v>
+      </c>
+      <c r="K45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>6</v>
+      </c>
+      <c r="C46">
+        <v>278970.5</v>
+      </c>
+      <c r="D46">
+        <v>5189409</v>
+      </c>
+      <c r="E46" t="s">
+        <v>21</v>
+      </c>
+      <c r="F46" t="s">
+        <v>37</v>
+      </c>
+      <c r="G46" t="s">
+        <v>41</v>
+      </c>
+      <c r="H46" t="s">
+        <v>42</v>
+      </c>
+      <c r="I46">
+        <v>3.06</v>
+      </c>
+      <c r="J46">
+        <v>70</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>6</v>
+      </c>
+      <c r="C47">
+        <v>278970.5</v>
+      </c>
+      <c r="D47">
+        <v>5189409</v>
+      </c>
+      <c r="E47" t="s">
+        <v>21</v>
+      </c>
+      <c r="F47" t="s">
+        <v>37</v>
+      </c>
+      <c r="G47" t="s">
+        <v>41</v>
+      </c>
+      <c r="H47" t="s">
+        <v>42</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="J47">
+        <v>82</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>6</v>
+      </c>
+      <c r="C48">
+        <v>278970.5</v>
+      </c>
+      <c r="D48">
+        <v>5189409</v>
+      </c>
+      <c r="E48" t="s">
+        <v>21</v>
+      </c>
+      <c r="F48" t="s">
+        <v>37</v>
+      </c>
+      <c r="G48" t="s">
+        <v>41</v>
+      </c>
+      <c r="H48" t="s">
+        <v>42</v>
+      </c>
+      <c r="I48">
+        <v>2.21</v>
+      </c>
+      <c r="J48">
+        <v>102</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <v>6</v>
+      </c>
+      <c r="C49">
+        <v>278970.5</v>
+      </c>
+      <c r="D49">
+        <v>5189409</v>
+      </c>
+      <c r="E49" t="s">
+        <v>21</v>
+      </c>
+      <c r="F49" t="s">
+        <v>37</v>
+      </c>
+      <c r="G49" t="s">
+        <v>41</v>
+      </c>
+      <c r="H49" t="s">
+        <v>42</v>
+      </c>
+      <c r="I49">
+        <v>3.31</v>
+      </c>
+      <c r="J49">
+        <v>126</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <v>6</v>
+      </c>
+      <c r="C50">
+        <v>278970.5</v>
+      </c>
+      <c r="D50">
+        <v>5189409</v>
+      </c>
+      <c r="E50" t="s">
+        <v>21</v>
+      </c>
+      <c r="F50" t="s">
+        <v>28</v>
+      </c>
+      <c r="G50" t="s">
+        <v>29</v>
+      </c>
+      <c r="H50" t="s">
+        <v>30</v>
+      </c>
+      <c r="I50">
+        <v>3.65</v>
+      </c>
+      <c r="J50">
+        <v>164</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B51">
+        <v>6</v>
+      </c>
+      <c r="C51">
+        <v>278970.5</v>
+      </c>
+      <c r="D51">
+        <v>5189409</v>
+      </c>
+      <c r="E51" t="s">
+        <v>21</v>
+      </c>
+      <c r="F51" t="s">
+        <v>23</v>
+      </c>
+      <c r="G51" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" t="s">
+        <v>30</v>
+      </c>
+      <c r="I51">
+        <v>1.97</v>
+      </c>
+      <c r="J51">
+        <v>194</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <v>6</v>
+      </c>
+      <c r="C52">
+        <v>278970.5</v>
+      </c>
+      <c r="D52">
+        <v>5189409</v>
+      </c>
+      <c r="E52" t="s">
+        <v>21</v>
+      </c>
+      <c r="F52" t="s">
+        <v>44</v>
+      </c>
+      <c r="G52" t="s">
+        <v>19</v>
+      </c>
+      <c r="H52" t="s">
+        <v>45</v>
+      </c>
+      <c r="I52">
+        <v>2.68</v>
+      </c>
+      <c r="J52">
+        <v>194</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <v>6</v>
+      </c>
+      <c r="C53">
+        <v>278970.5</v>
+      </c>
+      <c r="D53">
+        <v>5189409</v>
+      </c>
+      <c r="E53" t="s">
+        <v>21</v>
+      </c>
+      <c r="F53" t="s">
+        <v>37</v>
+      </c>
+      <c r="G53" t="s">
+        <v>41</v>
+      </c>
+      <c r="H53" t="s">
+        <v>42</v>
+      </c>
+      <c r="I53">
+        <v>3.95</v>
+      </c>
+      <c r="J53">
+        <v>206</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B54">
+        <v>6</v>
+      </c>
+      <c r="C54">
+        <v>278970.5</v>
+      </c>
+      <c r="D54">
+        <v>5189409</v>
+      </c>
+      <c r="E54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F54" t="s">
+        <v>23</v>
+      </c>
+      <c r="G54" t="s">
+        <v>16</v>
+      </c>
+      <c r="H54" t="s">
+        <v>30</v>
+      </c>
+      <c r="I54">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J54">
+        <v>224</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B55">
+        <v>6</v>
+      </c>
+      <c r="C55">
+        <v>278970.5</v>
+      </c>
+      <c r="D55">
+        <v>5189409</v>
+      </c>
+      <c r="E55" t="s">
+        <v>21</v>
+      </c>
+      <c r="F55" t="s">
+        <v>23</v>
+      </c>
+      <c r="G55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H55" t="s">
+        <v>30</v>
+      </c>
+      <c r="I55">
+        <v>2.69</v>
+      </c>
+      <c r="J55">
+        <v>230</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B56">
+        <v>6</v>
+      </c>
+      <c r="C56">
+        <v>278970.5</v>
+      </c>
+      <c r="D56">
+        <v>5189409</v>
+      </c>
+      <c r="E56" t="s">
+        <v>21</v>
+      </c>
+      <c r="F56" t="s">
+        <v>23</v>
+      </c>
+      <c r="G56" t="s">
+        <v>16</v>
+      </c>
+      <c r="H56" t="s">
+        <v>30</v>
+      </c>
+      <c r="I56">
+        <v>1.84</v>
+      </c>
+      <c r="J56">
+        <v>244</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B57">
+        <v>6</v>
+      </c>
+      <c r="C57">
+        <v>278970.5</v>
+      </c>
+      <c r="D57">
+        <v>5189409</v>
+      </c>
+      <c r="E57" t="s">
+        <v>21</v>
+      </c>
+      <c r="F57" t="s">
+        <v>37</v>
+      </c>
+      <c r="G57" t="s">
+        <v>41</v>
+      </c>
+      <c r="H57" t="s">
+        <v>34</v>
+      </c>
+      <c r="I57">
+        <v>3</v>
+      </c>
+      <c r="J57">
+        <v>244</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B58">
+        <v>6</v>
+      </c>
+      <c r="C58">
+        <v>278970.5</v>
+      </c>
+      <c r="D58">
+        <v>5189409</v>
+      </c>
+      <c r="E58" t="s">
+        <v>21</v>
+      </c>
+      <c r="F58" t="s">
+        <v>23</v>
+      </c>
+      <c r="G58" t="s">
+        <v>16</v>
+      </c>
+      <c r="H58" t="s">
+        <v>30</v>
+      </c>
+      <c r="I58">
+        <v>3.57</v>
+      </c>
+      <c r="J58">
+        <v>244</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B59">
+        <v>6</v>
+      </c>
+      <c r="C59">
+        <v>278970.5</v>
+      </c>
+      <c r="D59">
+        <v>5189409</v>
+      </c>
+      <c r="E59" t="s">
+        <v>21</v>
+      </c>
+      <c r="F59" t="s">
+        <v>23</v>
+      </c>
+      <c r="G59" t="s">
+        <v>16</v>
+      </c>
+      <c r="H59" t="s">
+        <v>30</v>
+      </c>
+      <c r="I59">
+        <v>3.98</v>
+      </c>
+      <c r="J59">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B60">
+        <v>6</v>
+      </c>
+      <c r="C60">
+        <v>278970.5</v>
+      </c>
+      <c r="D60">
+        <v>5189409</v>
+      </c>
+      <c r="E60" t="s">
+        <v>21</v>
+      </c>
+      <c r="F60" t="s">
+        <v>23</v>
+      </c>
+      <c r="G60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H60" t="s">
+        <v>30</v>
+      </c>
+      <c r="I60">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="J60">
+        <v>248</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B61">
+        <v>6</v>
+      </c>
+      <c r="C61">
+        <v>278970.5</v>
+      </c>
+      <c r="D61">
+        <v>5189409</v>
+      </c>
+      <c r="E61" t="s">
+        <v>21</v>
+      </c>
+      <c r="F61" t="s">
+        <v>23</v>
+      </c>
+      <c r="G61" t="s">
+        <v>16</v>
+      </c>
+      <c r="H61" t="s">
+        <v>30</v>
+      </c>
+      <c r="I61">
+        <v>4.7</v>
+      </c>
+      <c r="J61">
+        <v>250</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B62">
+        <v>6</v>
+      </c>
+      <c r="C62">
+        <v>278970.5</v>
+      </c>
+      <c r="D62">
+        <v>5189409</v>
+      </c>
+      <c r="E62" t="s">
+        <v>21</v>
+      </c>
+      <c r="F62" t="s">
+        <v>22</v>
+      </c>
+      <c r="G62" t="s">
+        <v>16</v>
+      </c>
+      <c r="H62" t="s">
+        <v>17</v>
+      </c>
+      <c r="I62">
+        <v>4.25</v>
+      </c>
+      <c r="J62">
+        <v>260</v>
+      </c>
+      <c r="K62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B63">
+        <v>6</v>
+      </c>
+      <c r="C63">
+        <v>278970.5</v>
+      </c>
+      <c r="D63">
+        <v>5189409</v>
+      </c>
+      <c r="E63" t="s">
+        <v>21</v>
+      </c>
+      <c r="F63" t="s">
+        <v>23</v>
+      </c>
+      <c r="G63" t="s">
+        <v>16</v>
+      </c>
+      <c r="H63" t="s">
+        <v>30</v>
+      </c>
+      <c r="I63">
+        <v>1.73</v>
+      </c>
+      <c r="J63">
+        <v>266</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B64">
+        <v>6</v>
+      </c>
+      <c r="C64">
+        <v>278970.5</v>
+      </c>
+      <c r="D64">
+        <v>5189409</v>
+      </c>
+      <c r="E64" t="s">
+        <v>21</v>
+      </c>
+      <c r="F64" t="s">
+        <v>23</v>
+      </c>
+      <c r="G64" t="s">
+        <v>16</v>
+      </c>
+      <c r="H64" t="s">
+        <v>30</v>
+      </c>
+      <c r="I64">
+        <v>4.97</v>
+      </c>
+      <c r="J64">
+        <v>242</v>
+      </c>
+      <c r="K64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B65">
+        <v>6</v>
+      </c>
+      <c r="C65">
+        <v>278970.5</v>
+      </c>
+      <c r="D65">
+        <v>5189409</v>
+      </c>
+      <c r="E65" t="s">
+        <v>21</v>
+      </c>
+      <c r="F65" t="s">
+        <v>23</v>
+      </c>
+      <c r="G65" t="s">
+        <v>16</v>
+      </c>
+      <c r="H65" t="s">
+        <v>30</v>
+      </c>
+      <c r="I65">
+        <v>2.72</v>
+      </c>
+      <c r="J65">
+        <v>272</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B66">
+        <v>6</v>
+      </c>
+      <c r="C66">
+        <v>278970.5</v>
+      </c>
+      <c r="D66">
+        <v>5189409</v>
+      </c>
+      <c r="E66" t="s">
+        <v>21</v>
+      </c>
+      <c r="F66" t="s">
+        <v>37</v>
+      </c>
+      <c r="G66" t="s">
+        <v>41</v>
+      </c>
+      <c r="H66" t="s">
+        <v>42</v>
+      </c>
+      <c r="I66">
+        <v>3.34</v>
+      </c>
+      <c r="J66">
+        <v>282</v>
+      </c>
+      <c r="K66">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B67">
+        <v>6</v>
+      </c>
+      <c r="C67">
+        <v>278970.5</v>
+      </c>
+      <c r="D67">
+        <v>5189409</v>
+      </c>
+      <c r="E67" t="s">
+        <v>21</v>
+      </c>
+      <c r="F67" t="s">
+        <v>37</v>
+      </c>
+      <c r="G67" t="s">
+        <v>43</v>
+      </c>
+      <c r="H67" t="s">
+        <v>42</v>
+      </c>
+      <c r="I67">
+        <v>4.04</v>
+      </c>
+      <c r="J67">
+        <v>298</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B68">
+        <v>6</v>
+      </c>
+      <c r="C68">
+        <v>278970.5</v>
+      </c>
+      <c r="D68">
+        <v>5189409</v>
+      </c>
+      <c r="E68" t="s">
+        <v>21</v>
+      </c>
+      <c r="F68" t="s">
+        <v>23</v>
+      </c>
+      <c r="G68" t="s">
+        <v>16</v>
+      </c>
+      <c r="H68" t="s">
+        <v>30</v>
+      </c>
+      <c r="I68">
+        <v>4.21</v>
+      </c>
+      <c r="J68">
+        <v>300</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B69">
+        <v>6</v>
+      </c>
+      <c r="C69">
+        <v>278970.5</v>
+      </c>
+      <c r="D69">
+        <v>5189409</v>
+      </c>
+      <c r="E69" t="s">
+        <v>21</v>
+      </c>
+      <c r="F69" t="s">
+        <v>23</v>
+      </c>
+      <c r="G69" t="s">
+        <v>16</v>
+      </c>
+      <c r="H69" t="s">
+        <v>30</v>
+      </c>
+      <c r="I69">
+        <v>3.97</v>
+      </c>
+      <c r="J69">
+        <v>312</v>
+      </c>
+      <c r="K69">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B70">
+        <v>6</v>
+      </c>
+      <c r="C70">
+        <v>278970.5</v>
+      </c>
+      <c r="D70">
+        <v>5189409</v>
+      </c>
+      <c r="E70" t="s">
+        <v>21</v>
+      </c>
+      <c r="F70" t="s">
+        <v>37</v>
+      </c>
+      <c r="G70" t="s">
+        <v>41</v>
+      </c>
+      <c r="H70" t="s">
+        <v>42</v>
+      </c>
+      <c r="I70">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="J70">
+        <v>344</v>
+      </c>
+      <c r="K70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B71">
+        <v>6</v>
+      </c>
+      <c r="C71">
+        <v>278970.5</v>
+      </c>
+      <c r="D71">
+        <v>5189409</v>
+      </c>
+      <c r="E71" t="s">
+        <v>21</v>
+      </c>
+      <c r="F71" t="s">
+        <v>22</v>
+      </c>
+      <c r="G71" t="s">
+        <v>16</v>
+      </c>
+      <c r="H71" t="s">
+        <v>17</v>
+      </c>
+      <c r="I71">
+        <v>3.56</v>
+      </c>
+      <c r="J71">
+        <v>346</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>43623</v>
+      </c>
+      <c r="B72">
+        <v>7</v>
+      </c>
+      <c r="C72">
+        <v>278863</v>
+      </c>
+      <c r="D72">
+        <v>5189231</v>
+      </c>
+      <c r="E72" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" t="s">
+        <v>51</v>
+      </c>
+      <c r="G72" t="s">
+        <v>52</v>
+      </c>
+      <c r="H72" t="s">
+        <v>53</v>
+      </c>
+      <c r="I72">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="J72">
+        <v>140</v>
+      </c>
+      <c r="K72" t="s">
+        <v>13</v>
+      </c>
+      <c r="L72">
+        <v>2.4</v>
+      </c>
+      <c r="M72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B73">
+        <v>7</v>
+      </c>
+      <c r="C73">
+        <v>278863</v>
+      </c>
+      <c r="D73">
+        <v>5189231</v>
+      </c>
+      <c r="E73" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" t="s">
+        <v>40</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73">
+        <v>1.92</v>
+      </c>
+      <c r="J73">
+        <v>142</v>
+      </c>
+      <c r="K73" t="s">
+        <v>13</v>
+      </c>
+      <c r="L73">
+        <v>28.9</v>
+      </c>
+      <c r="M73">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B74">
+        <v>7</v>
+      </c>
+      <c r="C74">
+        <v>278863</v>
+      </c>
+      <c r="D74">
+        <v>5189231</v>
+      </c>
+      <c r="E74" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" t="s">
+        <v>23</v>
+      </c>
+      <c r="G74" t="s">
+        <v>16</v>
+      </c>
+      <c r="H74" t="s">
+        <v>30</v>
+      </c>
+      <c r="I74">
+        <v>3.71</v>
+      </c>
+      <c r="J74">
+        <v>212</v>
+      </c>
+      <c r="K74" t="s">
+        <v>13</v>
+      </c>
+      <c r="L74">
+        <v>3.1</v>
+      </c>
+      <c r="M74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B75">
+        <v>7</v>
+      </c>
+      <c r="C75">
+        <v>278863</v>
+      </c>
+      <c r="D75">
+        <v>5189231</v>
+      </c>
+      <c r="E75" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" t="s">
+        <v>23</v>
+      </c>
+      <c r="G75" t="s">
+        <v>16</v>
+      </c>
+      <c r="H75" t="s">
+        <v>30</v>
+      </c>
+      <c r="I75">
+        <v>4.55</v>
+      </c>
+      <c r="J75">
+        <v>218</v>
+      </c>
+      <c r="K75" t="s">
+        <v>13</v>
+      </c>
+      <c r="L75">
+        <v>3.5</v>
+      </c>
+      <c r="M75" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B76">
+        <v>7</v>
+      </c>
+      <c r="C76">
+        <v>278863</v>
+      </c>
+      <c r="D76">
+        <v>5189231</v>
+      </c>
+      <c r="E76" t="s">
+        <v>21</v>
+      </c>
+      <c r="F76" t="s">
+        <v>22</v>
+      </c>
+      <c r="G76" t="s">
+        <v>16</v>
+      </c>
+      <c r="H76" t="s">
+        <v>17</v>
+      </c>
+      <c r="I76">
+        <v>2.27</v>
+      </c>
+      <c r="J76">
+        <v>64</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76" t="s">
+        <v>13</v>
+      </c>
+      <c r="M76" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B77">
+        <v>7</v>
+      </c>
+      <c r="C77">
+        <v>278863</v>
+      </c>
+      <c r="D77">
+        <v>5189231</v>
+      </c>
+      <c r="E77" t="s">
+        <v>21</v>
+      </c>
+      <c r="F77" t="s">
+        <v>35</v>
+      </c>
+      <c r="G77" t="s">
+        <v>36</v>
+      </c>
+      <c r="H77" t="s">
+        <v>34</v>
+      </c>
+      <c r="I77">
+        <v>1.71</v>
+      </c>
+      <c r="J77">
+        <v>74</v>
+      </c>
+      <c r="K77">
+        <v>5</v>
+      </c>
+      <c r="L77" t="s">
+        <v>13</v>
+      </c>
+      <c r="M77" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B78">
+        <v>7</v>
+      </c>
+      <c r="C78">
+        <v>278863</v>
+      </c>
+      <c r="D78">
+        <v>5189231</v>
+      </c>
+      <c r="E78" t="s">
+        <v>21</v>
+      </c>
+      <c r="F78" t="s">
+        <v>35</v>
+      </c>
+      <c r="G78" t="s">
+        <v>36</v>
+      </c>
+      <c r="H78" t="s">
+        <v>34</v>
+      </c>
+      <c r="I78">
+        <v>1.53</v>
+      </c>
+      <c r="J78">
+        <v>110</v>
+      </c>
+      <c r="K78">
+        <v>3</v>
+      </c>
+      <c r="L78" t="s">
+        <v>13</v>
+      </c>
+      <c r="M78" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B79">
+        <v>7</v>
+      </c>
+      <c r="C79">
+        <v>278863</v>
+      </c>
+      <c r="D79">
+        <v>5189231</v>
+      </c>
+      <c r="E79" t="s">
+        <v>21</v>
+      </c>
+      <c r="F79" t="s">
+        <v>35</v>
+      </c>
+      <c r="G79" t="s">
+        <v>36</v>
+      </c>
+      <c r="H79" t="s">
+        <v>34</v>
+      </c>
+      <c r="I79">
+        <v>2</v>
+      </c>
+      <c r="J79">
+        <v>112</v>
+      </c>
+      <c r="K79">
+        <v>3</v>
+      </c>
+      <c r="L79" t="s">
+        <v>13</v>
+      </c>
+      <c r="M79" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B80">
+        <v>7</v>
+      </c>
+      <c r="C80">
+        <v>278863</v>
+      </c>
+      <c r="D80">
+        <v>5189231</v>
+      </c>
+      <c r="E80" t="s">
+        <v>21</v>
+      </c>
+      <c r="F80" t="s">
+        <v>54</v>
+      </c>
+      <c r="G80" t="s">
+        <v>16</v>
+      </c>
+      <c r="H80" t="s">
+        <v>17</v>
+      </c>
+      <c r="I80">
+        <v>2.67</v>
+      </c>
+      <c r="J80">
+        <v>112</v>
+      </c>
+      <c r="K80">
+        <v>2</v>
+      </c>
+      <c r="L80" t="s">
+        <v>13</v>
+      </c>
+      <c r="M80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B81">
+        <v>7</v>
+      </c>
+      <c r="C81">
+        <v>278863</v>
+      </c>
+      <c r="D81">
+        <v>5189231</v>
+      </c>
+      <c r="E81" t="s">
+        <v>21</v>
+      </c>
+      <c r="F81" t="s">
+        <v>23</v>
+      </c>
+      <c r="G81" t="s">
+        <v>16</v>
+      </c>
+      <c r="H81" t="s">
+        <v>30</v>
+      </c>
+      <c r="I81">
+        <v>4.7</v>
+      </c>
+      <c r="J81">
+        <v>148</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81" t="s">
+        <v>13</v>
+      </c>
+      <c r="M81" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B82">
+        <v>7</v>
+      </c>
+      <c r="C82">
+        <v>278863</v>
+      </c>
+      <c r="D82">
+        <v>5189231</v>
+      </c>
+      <c r="E82" t="s">
+        <v>21</v>
+      </c>
+      <c r="F82" t="s">
+        <v>23</v>
+      </c>
+      <c r="G82" t="s">
+        <v>16</v>
+      </c>
+      <c r="H82" t="s">
+        <v>30</v>
+      </c>
+      <c r="I82">
+        <v>2.67</v>
+      </c>
+      <c r="J82">
+        <v>142</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82" t="s">
+        <v>13</v>
+      </c>
+      <c r="M82" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B83">
+        <v>7</v>
+      </c>
+      <c r="C83">
+        <v>278863</v>
+      </c>
+      <c r="D83">
+        <v>5189231</v>
+      </c>
+      <c r="E83" t="s">
+        <v>21</v>
+      </c>
+      <c r="F83" t="s">
+        <v>23</v>
+      </c>
+      <c r="G83" t="s">
+        <v>16</v>
+      </c>
+      <c r="H83" t="s">
+        <v>30</v>
+      </c>
+      <c r="I83">
+        <v>4.71</v>
+      </c>
+      <c r="J83">
+        <v>156</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83" t="s">
+        <v>13</v>
+      </c>
+      <c r="M83" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B84">
+        <v>7</v>
+      </c>
+      <c r="C84">
+        <v>278863</v>
+      </c>
+      <c r="D84">
+        <v>5189231</v>
+      </c>
+      <c r="E84" t="s">
+        <v>21</v>
+      </c>
+      <c r="F84" t="s">
+        <v>23</v>
+      </c>
+      <c r="G84" t="s">
+        <v>16</v>
+      </c>
+      <c r="H84" t="s">
+        <v>30</v>
+      </c>
+      <c r="I84">
+        <v>2.82</v>
+      </c>
+      <c r="J84">
+        <v>186</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84" t="s">
+        <v>13</v>
+      </c>
+      <c r="M84" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B85">
+        <v>7</v>
+      </c>
+      <c r="C85">
+        <v>278863</v>
+      </c>
+      <c r="D85">
+        <v>5189231</v>
+      </c>
+      <c r="E85" t="s">
+        <v>21</v>
+      </c>
+      <c r="F85" t="s">
+        <v>23</v>
+      </c>
+      <c r="G85" t="s">
+        <v>16</v>
+      </c>
+      <c r="H85" t="s">
+        <v>30</v>
+      </c>
+      <c r="I85">
+        <v>4</v>
+      </c>
+      <c r="J85">
+        <v>212</v>
+      </c>
+      <c r="K85">
+        <v>2</v>
+      </c>
+      <c r="L85" t="s">
+        <v>13</v>
+      </c>
+      <c r="M85" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B86">
+        <v>7</v>
+      </c>
+      <c r="C86">
+        <v>278863</v>
+      </c>
+      <c r="D86">
+        <v>5189231</v>
+      </c>
+      <c r="E86" t="s">
+        <v>21</v>
+      </c>
+      <c r="F86" t="s">
+        <v>35</v>
+      </c>
+      <c r="G86" t="s">
+        <v>36</v>
+      </c>
+      <c r="H86" t="s">
+        <v>34</v>
+      </c>
+      <c r="I86">
+        <v>2.41</v>
+      </c>
+      <c r="J86">
+        <v>228</v>
+      </c>
+      <c r="K86">
+        <v>5</v>
+      </c>
+      <c r="L86" t="s">
+        <v>13</v>
+      </c>
+      <c r="M86" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B87">
+        <v>7</v>
+      </c>
+      <c r="C87">
+        <v>278863</v>
+      </c>
+      <c r="D87">
+        <v>5189231</v>
+      </c>
+      <c r="E87" t="s">
+        <v>21</v>
+      </c>
+      <c r="F87" t="s">
+        <v>35</v>
+      </c>
+      <c r="G87" t="s">
+        <v>36</v>
+      </c>
+      <c r="H87" t="s">
+        <v>34</v>
+      </c>
+      <c r="I87">
+        <v>3.35</v>
+      </c>
+      <c r="J87">
+        <v>236</v>
+      </c>
+      <c r="K87">
+        <v>7</v>
+      </c>
+      <c r="L87" t="s">
+        <v>13</v>
+      </c>
+      <c r="M87" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B88">
+        <v>7</v>
+      </c>
+      <c r="C88">
+        <v>278863</v>
+      </c>
+      <c r="D88">
+        <v>5189231</v>
+      </c>
+      <c r="E88" t="s">
+        <v>21</v>
+      </c>
+      <c r="F88" t="s">
+        <v>23</v>
+      </c>
+      <c r="G88" t="s">
+        <v>16</v>
+      </c>
+      <c r="H88" t="s">
+        <v>30</v>
+      </c>
+      <c r="I88">
+        <v>4.55</v>
+      </c>
+      <c r="J88">
+        <v>218</v>
+      </c>
+      <c r="K88">
+        <v>2</v>
+      </c>
+      <c r="L88" t="s">
+        <v>13</v>
+      </c>
+      <c r="M88" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B89">
+        <v>7</v>
+      </c>
+      <c r="C89">
+        <v>278863</v>
+      </c>
+      <c r="D89">
+        <v>5189231</v>
+      </c>
+      <c r="E89" t="s">
+        <v>21</v>
+      </c>
+      <c r="F89" t="s">
+        <v>35</v>
+      </c>
+      <c r="G89" t="s">
+        <v>36</v>
+      </c>
+      <c r="H89" t="s">
+        <v>34</v>
+      </c>
+      <c r="I89">
+        <v>3.29</v>
+      </c>
+      <c r="J89">
+        <v>242</v>
+      </c>
+      <c r="K89">
+        <v>13</v>
+      </c>
+      <c r="L89" t="s">
+        <v>13</v>
+      </c>
+      <c r="M89" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B90">
+        <v>7</v>
+      </c>
+      <c r="C90">
+        <v>278863</v>
+      </c>
+      <c r="D90">
+        <v>5189231</v>
+      </c>
+      <c r="E90" t="s">
+        <v>21</v>
+      </c>
+      <c r="F90" t="s">
+        <v>35</v>
+      </c>
+      <c r="G90" t="s">
+        <v>36</v>
+      </c>
+      <c r="H90" t="s">
+        <v>34</v>
+      </c>
+      <c r="I90">
+        <v>4.7</v>
+      </c>
+      <c r="J90">
+        <v>254</v>
+      </c>
+      <c r="K90">
+        <v>2</v>
+      </c>
+      <c r="L90" t="s">
+        <v>13</v>
+      </c>
+      <c r="M90" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B91">
+        <v>7</v>
+      </c>
+      <c r="C91">
+        <v>278863</v>
+      </c>
+      <c r="D91">
+        <v>5189231</v>
+      </c>
+      <c r="E91" t="s">
+        <v>21</v>
+      </c>
+      <c r="F91" t="s">
+        <v>35</v>
+      </c>
+      <c r="G91" t="s">
+        <v>36</v>
+      </c>
+      <c r="H91" t="s">
+        <v>34</v>
+      </c>
+      <c r="I91">
+        <v>2.85</v>
+      </c>
+      <c r="J91">
+        <v>276</v>
+      </c>
+      <c r="K91">
+        <v>3</v>
+      </c>
+      <c r="L91" t="s">
+        <v>13</v>
+      </c>
+      <c r="M91" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B92">
+        <v>7</v>
+      </c>
+      <c r="C92">
+        <v>278863</v>
+      </c>
+      <c r="D92">
+        <v>5189231</v>
+      </c>
+      <c r="E92" t="s">
+        <v>21</v>
+      </c>
+      <c r="F92" t="s">
+        <v>35</v>
+      </c>
+      <c r="G92" t="s">
+        <v>36</v>
+      </c>
+      <c r="H92" t="s">
+        <v>34</v>
+      </c>
+      <c r="I92">
+        <v>3.6</v>
+      </c>
+      <c r="J92">
+        <v>284</v>
+      </c>
+      <c r="K92">
+        <v>3</v>
+      </c>
+      <c r="L92" t="s">
+        <v>13</v>
+      </c>
+      <c r="M92" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B93">
+        <v>7</v>
+      </c>
+      <c r="C93">
+        <v>278863</v>
+      </c>
+      <c r="D93">
+        <v>5189231</v>
+      </c>
+      <c r="E93" t="s">
+        <v>21</v>
+      </c>
+      <c r="F93" t="s">
+        <v>35</v>
+      </c>
+      <c r="G93" t="s">
+        <v>36</v>
+      </c>
+      <c r="H93" t="s">
+        <v>34</v>
+      </c>
+      <c r="I93">
+        <v>3.32</v>
+      </c>
+      <c r="J93">
+        <v>300</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93" t="s">
+        <v>13</v>
+      </c>
+      <c r="M93" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B94">
+        <v>7</v>
+      </c>
+      <c r="C94">
+        <v>278863</v>
+      </c>
+      <c r="D94">
+        <v>5189231</v>
+      </c>
+      <c r="E94" t="s">
+        <v>21</v>
+      </c>
+      <c r="F94" t="s">
+        <v>35</v>
+      </c>
+      <c r="G94" t="s">
+        <v>36</v>
+      </c>
+      <c r="H94" t="s">
+        <v>34</v>
+      </c>
+      <c r="I94">
+        <v>5</v>
+      </c>
+      <c r="J94">
+        <v>300</v>
+      </c>
+      <c r="K94">
+        <v>2</v>
+      </c>
+      <c r="L94" t="s">
+        <v>13</v>
+      </c>
+      <c r="M94" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B95">
+        <v>7</v>
+      </c>
+      <c r="C95">
+        <v>278863</v>
+      </c>
+      <c r="D95">
+        <v>5189231</v>
+      </c>
+      <c r="E95" t="s">
+        <v>21</v>
+      </c>
+      <c r="F95" t="s">
+        <v>35</v>
+      </c>
+      <c r="G95" t="s">
+        <v>36</v>
+      </c>
+      <c r="H95" t="s">
+        <v>34</v>
+      </c>
+      <c r="I95">
+        <v>3</v>
+      </c>
+      <c r="J95">
+        <v>324</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95" t="s">
+        <v>13</v>
+      </c>
+      <c r="M95" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B96">
+        <v>9</v>
+      </c>
+      <c r="C96">
+        <v>279012.59999999998</v>
+      </c>
+      <c r="D96">
+        <v>5189254</v>
+      </c>
+      <c r="E96" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" t="s">
+        <v>55</v>
+      </c>
+      <c r="G96" t="s">
+        <v>56</v>
+      </c>
+      <c r="H96" t="s">
+        <v>57</v>
+      </c>
+      <c r="I96">
+        <v>3.81</v>
+      </c>
+      <c r="J96">
+        <v>36</v>
+      </c>
+      <c r="K96" t="s">
+        <v>13</v>
+      </c>
+      <c r="L96">
+        <v>6.3</v>
+      </c>
+      <c r="M96">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B97">
+        <v>9</v>
+      </c>
+      <c r="C97">
+        <v>279012.59999999998</v>
+      </c>
+      <c r="D97">
+        <v>5189254</v>
+      </c>
+      <c r="E97" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" t="s">
+        <v>38</v>
+      </c>
+      <c r="G97" t="s">
+        <v>31</v>
+      </c>
+      <c r="H97" t="s">
+        <v>48</v>
+      </c>
+      <c r="I97">
+        <v>1.47</v>
+      </c>
+      <c r="J97">
+        <v>70</v>
+      </c>
+      <c r="K97" t="s">
+        <v>13</v>
+      </c>
+      <c r="L97">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="M97" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B98">
+        <v>9</v>
+      </c>
+      <c r="C98">
+        <v>279012.59999999998</v>
+      </c>
+      <c r="D98">
+        <v>5189254</v>
+      </c>
+      <c r="E98" t="s">
+        <v>14</v>
+      </c>
+      <c r="F98" t="s">
+        <v>58</v>
+      </c>
+      <c r="G98" t="s">
+        <v>52</v>
+      </c>
+      <c r="H98" t="s">
+        <v>53</v>
+      </c>
+      <c r="I98">
+        <v>1.9</v>
+      </c>
+      <c r="J98">
+        <v>76</v>
+      </c>
+      <c r="K98" t="s">
+        <v>13</v>
+      </c>
+      <c r="L98">
+        <v>2.8</v>
+      </c>
+      <c r="M98" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B99">
+        <v>9</v>
+      </c>
+      <c r="C99">
+        <v>279012.59999999998</v>
+      </c>
+      <c r="D99">
+        <v>5189254</v>
+      </c>
+      <c r="E99" t="s">
+        <v>14</v>
+      </c>
+      <c r="F99" t="s">
+        <v>55</v>
+      </c>
+      <c r="G99" t="s">
+        <v>56</v>
+      </c>
+      <c r="H99" t="s">
+        <v>57</v>
+      </c>
+      <c r="I99">
+        <v>2.71</v>
+      </c>
+      <c r="J99">
+        <v>76</v>
+      </c>
+      <c r="K99" t="s">
+        <v>13</v>
+      </c>
+      <c r="L99">
+        <v>15.3</v>
+      </c>
+      <c r="M99">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B100">
+        <v>9</v>
+      </c>
+      <c r="C100">
+        <v>279012.59999999998</v>
+      </c>
+      <c r="D100">
+        <v>5189254</v>
+      </c>
+      <c r="E100" t="s">
+        <v>14</v>
+      </c>
+      <c r="F100" t="s">
+        <v>23</v>
+      </c>
+      <c r="G100" t="s">
+        <v>16</v>
+      </c>
+      <c r="H100" t="s">
+        <v>30</v>
+      </c>
+      <c r="I100">
+        <v>3</v>
+      </c>
+      <c r="J100">
+        <v>80</v>
+      </c>
+      <c r="K100" t="s">
+        <v>13</v>
+      </c>
+      <c r="L100">
+        <v>4.7</v>
+      </c>
+      <c r="M100" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B101">
+        <v>9</v>
+      </c>
+      <c r="C101">
+        <v>279012.59999999998</v>
+      </c>
+      <c r="D101">
+        <v>5189254</v>
+      </c>
+      <c r="E101" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101" t="s">
+        <v>55</v>
+      </c>
+      <c r="G101" t="s">
+        <v>56</v>
+      </c>
+      <c r="H101" t="s">
+        <v>57</v>
+      </c>
+      <c r="I101">
+        <v>3.41</v>
+      </c>
+      <c r="J101">
+        <v>86</v>
+      </c>
+      <c r="K101" t="s">
+        <v>13</v>
+      </c>
+      <c r="L101">
+        <v>13</v>
+      </c>
+      <c r="M101">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B102">
+        <v>9</v>
+      </c>
+      <c r="C102">
+        <v>279012.59999999998</v>
+      </c>
+      <c r="D102">
+        <v>5189254</v>
+      </c>
+      <c r="E102" t="s">
+        <v>14</v>
+      </c>
+      <c r="F102" t="s">
+        <v>55</v>
+      </c>
+      <c r="G102" t="s">
+        <v>56</v>
+      </c>
+      <c r="H102" t="s">
+        <v>57</v>
+      </c>
+      <c r="I102">
+        <v>4.93</v>
+      </c>
+      <c r="J102">
+        <v>104</v>
+      </c>
+      <c r="K102" t="s">
+        <v>13</v>
+      </c>
+      <c r="L102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B103">
+        <v>9</v>
+      </c>
+      <c r="C103">
+        <v>279012.59999999998</v>
+      </c>
+      <c r="D103">
+        <v>5189254</v>
+      </c>
+      <c r="E103" t="s">
+        <v>14</v>
+      </c>
+      <c r="F103" t="s">
+        <v>38</v>
+      </c>
+      <c r="G103" t="s">
+        <v>31</v>
+      </c>
+      <c r="H103" t="s">
+        <v>48</v>
+      </c>
+      <c r="I103">
+        <v>4.71</v>
+      </c>
+      <c r="J103">
+        <v>120</v>
+      </c>
+      <c r="K103" t="s">
+        <v>13</v>
+      </c>
+      <c r="L103">
+        <v>7.2</v>
+      </c>
+      <c r="M103" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B104">
+        <v>9</v>
+      </c>
+      <c r="C104">
+        <v>279012.59999999998</v>
+      </c>
+      <c r="D104">
+        <v>5189254</v>
+      </c>
+      <c r="E104" t="s">
+        <v>14</v>
+      </c>
+      <c r="F104" t="s">
+        <v>18</v>
+      </c>
+      <c r="G104" t="s">
+        <v>61</v>
+      </c>
+      <c r="H104" t="s">
+        <v>20</v>
+      </c>
+      <c r="I104">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="J104">
+        <v>142</v>
+      </c>
+      <c r="K104" t="s">
+        <v>13</v>
+      </c>
+      <c r="L104">
+        <v>2.5</v>
+      </c>
+      <c r="M104" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B105">
+        <v>9</v>
+      </c>
+      <c r="C105">
+        <v>279012.59999999998</v>
+      </c>
+      <c r="D105">
+        <v>5189254</v>
+      </c>
+      <c r="E105" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105" t="s">
+        <v>55</v>
+      </c>
+      <c r="G105" t="s">
+        <v>56</v>
+      </c>
+      <c r="H105" t="s">
+        <v>57</v>
+      </c>
+      <c r="I105">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="J105">
+        <v>162</v>
+      </c>
+      <c r="K105" t="s">
+        <v>13</v>
+      </c>
+      <c r="L105">
+        <v>10.4</v>
+      </c>
+      <c r="M105">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B106">
+        <v>9</v>
+      </c>
+      <c r="C106">
+        <v>279012.59999999998</v>
+      </c>
+      <c r="D106">
+        <v>5189254</v>
+      </c>
+      <c r="E106" t="s">
+        <v>14</v>
+      </c>
+      <c r="F106" t="s">
+        <v>18</v>
+      </c>
+      <c r="G106" t="s">
+        <v>19</v>
+      </c>
+      <c r="H106" t="s">
+        <v>20</v>
+      </c>
+      <c r="I106">
+        <v>2.79</v>
+      </c>
+      <c r="J106">
+        <v>156</v>
+      </c>
+      <c r="K106" t="s">
+        <v>13</v>
+      </c>
+      <c r="L106">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="M106" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B107">
+        <v>9</v>
+      </c>
+      <c r="C107">
+        <v>279012.59999999998</v>
+      </c>
+      <c r="D107">
+        <v>5189254</v>
+      </c>
+      <c r="E107" t="s">
+        <v>14</v>
+      </c>
+      <c r="F107" t="s">
+        <v>55</v>
+      </c>
+      <c r="G107" t="s">
+        <v>60</v>
+      </c>
+      <c r="H107" t="s">
+        <v>57</v>
+      </c>
+      <c r="I107">
+        <v>2.97</v>
+      </c>
+      <c r="J107">
+        <v>252</v>
+      </c>
+      <c r="K107" t="s">
+        <v>13</v>
+      </c>
+      <c r="L107">
+        <v>15</v>
+      </c>
+      <c r="M107">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B108">
+        <v>9</v>
+      </c>
+      <c r="C108">
+        <v>279012.59999999998</v>
+      </c>
+      <c r="D108">
+        <v>5189254</v>
+      </c>
+      <c r="E108" t="s">
+        <v>14</v>
+      </c>
+      <c r="F108" t="s">
+        <v>39</v>
+      </c>
+      <c r="G108" t="s">
+        <v>49</v>
+      </c>
+      <c r="H108" t="s">
+        <v>50</v>
+      </c>
+      <c r="I108">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="J108">
+        <v>280</v>
+      </c>
+      <c r="K108" t="s">
+        <v>13</v>
+      </c>
+      <c r="L108">
+        <v>12.3</v>
+      </c>
+      <c r="M108">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B109">
+        <v>9</v>
+      </c>
+      <c r="C109">
+        <v>279012.59999999998</v>
+      </c>
+      <c r="D109">
+        <v>5189254</v>
+      </c>
+      <c r="E109" t="s">
+        <v>14</v>
+      </c>
+      <c r="F109" t="s">
+        <v>18</v>
+      </c>
+      <c r="G109" t="s">
+        <v>19</v>
+      </c>
+      <c r="H109" t="s">
+        <v>20</v>
+      </c>
+      <c r="I109">
+        <v>4.37</v>
+      </c>
+      <c r="J109">
+        <v>326</v>
+      </c>
+      <c r="K109" t="s">
+        <v>13</v>
+      </c>
+      <c r="L109">
+        <v>20.9</v>
+      </c>
+      <c r="M109">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B110">
+        <v>9</v>
+      </c>
+      <c r="C110">
+        <v>279012.59999999998</v>
+      </c>
+      <c r="D110">
+        <v>5189254</v>
+      </c>
+      <c r="E110" t="s">
+        <v>14</v>
+      </c>
+      <c r="F110" t="s">
+        <v>59</v>
+      </c>
+      <c r="G110" t="s">
+        <v>52</v>
+      </c>
+      <c r="H110" t="s">
+        <v>53</v>
+      </c>
+      <c r="I110">
+        <v>3.32</v>
+      </c>
+      <c r="J110">
+        <v>346</v>
+      </c>
+      <c r="K110" t="s">
+        <v>13</v>
+      </c>
+      <c r="L110">
+        <v>2</v>
+      </c>
+      <c r="M110" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B111">
+        <v>9</v>
+      </c>
+      <c r="C111">
+        <v>279012.59999999998</v>
+      </c>
+      <c r="D111">
+        <v>5189254</v>
+      </c>
+      <c r="E111" t="s">
+        <v>21</v>
+      </c>
+      <c r="F111" t="s">
+        <v>58</v>
+      </c>
+      <c r="G111" t="s">
+        <v>52</v>
+      </c>
+      <c r="H111" t="s">
+        <v>53</v>
+      </c>
+      <c r="I111">
+        <v>3.89</v>
+      </c>
+      <c r="J111">
+        <v>10</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111" t="s">
+        <v>13</v>
+      </c>
+      <c r="M111" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B112">
+        <v>8</v>
+      </c>
+      <c r="C112">
+        <v>278944.3</v>
+      </c>
+      <c r="D112">
+        <v>5189267</v>
+      </c>
+      <c r="E112" t="s">
+        <v>14</v>
+      </c>
+      <c r="F112" t="s">
+        <v>38</v>
+      </c>
+      <c r="G112" t="s">
+        <v>31</v>
+      </c>
+      <c r="H112" t="s">
+        <v>48</v>
+      </c>
+      <c r="I112">
+        <v>3.8</v>
+      </c>
+      <c r="J112">
+        <v>44</v>
+      </c>
+      <c r="K112" t="s">
+        <v>13</v>
+      </c>
+      <c r="L112">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M112" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B113">
+        <v>8</v>
+      </c>
+      <c r="C113">
+        <v>278944.3</v>
+      </c>
+      <c r="D113">
+        <v>5189267</v>
+      </c>
+      <c r="E113" t="s">
+        <v>14</v>
+      </c>
+      <c r="F113" t="s">
+        <v>38</v>
+      </c>
+      <c r="G113" t="s">
+        <v>31</v>
+      </c>
+      <c r="H113" t="s">
+        <v>48</v>
+      </c>
+      <c r="I113">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="J113">
+        <v>100</v>
+      </c>
+      <c r="K113" t="s">
+        <v>13</v>
+      </c>
+      <c r="L113">
+        <v>8.5</v>
+      </c>
+      <c r="M113" s="2"/>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B114">
+        <v>8</v>
+      </c>
+      <c r="C114">
+        <v>278944.3</v>
+      </c>
+      <c r="D114">
+        <v>5189267</v>
+      </c>
+      <c r="E114" t="s">
+        <v>14</v>
+      </c>
+      <c r="F114" t="s">
+        <v>38</v>
+      </c>
+      <c r="G114" t="s">
+        <v>31</v>
+      </c>
+      <c r="H114" t="s">
+        <v>48</v>
+      </c>
+      <c r="I114">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J114">
+        <v>152</v>
+      </c>
+      <c r="K114" t="s">
+        <v>13</v>
+      </c>
+      <c r="L114">
+        <v>3</v>
+      </c>
+      <c r="M114" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B115">
+        <v>8</v>
+      </c>
+      <c r="C115">
+        <v>278944.3</v>
+      </c>
+      <c r="D115">
+        <v>5189267</v>
+      </c>
+      <c r="E115" t="s">
+        <v>14</v>
+      </c>
+      <c r="F115" t="s">
+        <v>38</v>
+      </c>
+      <c r="G115" t="s">
+        <v>31</v>
+      </c>
+      <c r="H115" t="s">
+        <v>48</v>
+      </c>
+      <c r="I115">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J115">
+        <v>170</v>
+      </c>
+      <c r="K115" t="s">
+        <v>13</v>
+      </c>
+      <c r="L115">
+        <v>6.6</v>
+      </c>
+      <c r="M115">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B116">
+        <v>8</v>
+      </c>
+      <c r="C116">
+        <v>278944.3</v>
+      </c>
+      <c r="D116">
+        <v>5189267</v>
+      </c>
+      <c r="E116" t="s">
+        <v>14</v>
+      </c>
+      <c r="F116" t="s">
+        <v>38</v>
+      </c>
+      <c r="G116" t="s">
+        <v>31</v>
+      </c>
+      <c r="H116" t="s">
+        <v>48</v>
+      </c>
+      <c r="I116">
+        <v>2.82</v>
+      </c>
+      <c r="J116">
+        <v>184</v>
+      </c>
+      <c r="K116" t="s">
+        <v>13</v>
+      </c>
+      <c r="L116">
+        <v>27.8</v>
+      </c>
+      <c r="M116">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B117">
+        <v>8</v>
+      </c>
+      <c r="C117">
+        <v>278944.3</v>
+      </c>
+      <c r="D117">
+        <v>5189267</v>
+      </c>
+      <c r="E117" t="s">
+        <v>14</v>
+      </c>
+      <c r="F117" t="s">
+        <v>38</v>
+      </c>
+      <c r="G117" t="s">
+        <v>31</v>
+      </c>
+      <c r="H117" t="s">
+        <v>48</v>
+      </c>
+      <c r="I117">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="J117">
+        <v>214</v>
+      </c>
+      <c r="K117" t="s">
+        <v>13</v>
+      </c>
+      <c r="L117">
+        <v>3.2</v>
+      </c>
+      <c r="M117" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B118">
+        <v>8</v>
+      </c>
+      <c r="C118">
+        <v>278944.3</v>
+      </c>
+      <c r="D118">
+        <v>5189267</v>
+      </c>
+      <c r="E118" t="s">
+        <v>14</v>
+      </c>
+      <c r="F118" t="s">
+        <v>38</v>
+      </c>
+      <c r="G118" t="s">
+        <v>31</v>
+      </c>
+      <c r="H118" t="s">
+        <v>48</v>
+      </c>
+      <c r="I118">
+        <v>4.87</v>
+      </c>
+      <c r="J118">
+        <v>236</v>
+      </c>
+      <c r="K118" t="s">
+        <v>13</v>
+      </c>
+      <c r="L118">
+        <v>3.9</v>
+      </c>
+      <c r="M118" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B119">
+        <v>8</v>
+      </c>
+      <c r="C119">
+        <v>278944.3</v>
+      </c>
+      <c r="D119">
+        <v>5189267</v>
+      </c>
+      <c r="E119" t="s">
+        <v>14</v>
+      </c>
+      <c r="F119" t="s">
+        <v>38</v>
+      </c>
+      <c r="G119" t="s">
+        <v>31</v>
+      </c>
+      <c r="H119" t="s">
+        <v>48</v>
+      </c>
+      <c r="I119">
+        <v>3.29</v>
+      </c>
+      <c r="J119">
+        <v>338</v>
+      </c>
+      <c r="K119" t="s">
+        <v>13</v>
+      </c>
+      <c r="L119">
+        <v>9.5</v>
+      </c>
+      <c r="M119">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>43621</v>
+      </c>
+      <c r="B120">
+        <v>10</v>
+      </c>
+      <c r="C120">
+        <v>279046</v>
+      </c>
+      <c r="D120">
+        <v>5189192</v>
+      </c>
+      <c r="E120" t="s">
+        <v>14</v>
+      </c>
+      <c r="F120" t="s">
+        <v>28</v>
+      </c>
+      <c r="G120" t="s">
+        <v>29</v>
+      </c>
+      <c r="H120" t="s">
+        <v>30</v>
+      </c>
+      <c r="I120">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J120">
+        <v>44</v>
+      </c>
+      <c r="K120" t="s">
+        <v>13</v>
+      </c>
+      <c r="L120">
+        <v>2.5</v>
+      </c>
+      <c r="M120" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B121">
+        <v>10</v>
+      </c>
+      <c r="C121">
+        <v>279046</v>
+      </c>
+      <c r="D121">
+        <v>5189192</v>
+      </c>
+      <c r="E121" t="s">
+        <v>14</v>
+      </c>
+      <c r="F121" t="s">
+        <v>63</v>
+      </c>
+      <c r="G121" t="s">
+        <v>31</v>
+      </c>
+      <c r="H121" t="s">
+        <v>48</v>
+      </c>
+      <c r="I121">
+        <v>3.7</v>
+      </c>
+      <c r="J121">
+        <v>99</v>
+      </c>
+      <c r="K121" t="s">
+        <v>13</v>
+      </c>
+      <c r="L121">
+        <v>4</v>
+      </c>
+      <c r="M121" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B122">
+        <v>10</v>
+      </c>
+      <c r="C122">
+        <v>279046</v>
+      </c>
+      <c r="D122">
+        <v>5189192</v>
+      </c>
+      <c r="E122" t="s">
+        <v>14</v>
+      </c>
+      <c r="F122" t="s">
+        <v>62</v>
+      </c>
+      <c r="G122" t="s">
+        <v>46</v>
+      </c>
+      <c r="H122" t="s">
+        <v>50</v>
+      </c>
+      <c r="I122">
+        <v>3.4</v>
+      </c>
+      <c r="J122">
+        <v>138</v>
+      </c>
+      <c r="K122" t="s">
+        <v>13</v>
+      </c>
+      <c r="L122">
+        <v>45.8</v>
+      </c>
+      <c r="M122">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B123">
+        <v>10</v>
+      </c>
+      <c r="C123">
+        <v>279046</v>
+      </c>
+      <c r="D123">
+        <v>5189192</v>
+      </c>
+      <c r="E123" t="s">
+        <v>14</v>
+      </c>
+      <c r="F123" t="s">
+        <v>28</v>
+      </c>
+      <c r="G123" t="s">
+        <v>29</v>
+      </c>
+      <c r="H123" t="s">
+        <v>30</v>
+      </c>
+      <c r="I123">
+        <v>2.6</v>
+      </c>
+      <c r="J123">
+        <v>152</v>
+      </c>
+      <c r="L123">
+        <v>4</v>
+      </c>
+      <c r="M123" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B124">
+        <v>10</v>
+      </c>
+      <c r="C124">
+        <v>279046</v>
+      </c>
+      <c r="D124">
+        <v>5189192</v>
+      </c>
+      <c r="E124" t="s">
+        <v>14</v>
+      </c>
+      <c r="F124" t="s">
+        <v>62</v>
+      </c>
+      <c r="G124" t="s">
+        <v>46</v>
+      </c>
+      <c r="H124" t="s">
+        <v>50</v>
+      </c>
+      <c r="I124">
+        <v>5</v>
+      </c>
+      <c r="J124">
+        <v>162</v>
+      </c>
+      <c r="K124" t="s">
+        <v>13</v>
+      </c>
+      <c r="L124">
+        <v>35.5</v>
+      </c>
+      <c r="M124">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B125">
+        <v>10</v>
+      </c>
+      <c r="C125">
+        <v>279046</v>
+      </c>
+      <c r="D125">
+        <v>5189192</v>
+      </c>
+      <c r="E125" t="s">
+        <v>14</v>
+      </c>
+      <c r="F125" t="s">
+        <v>28</v>
+      </c>
+      <c r="G125" t="s">
+        <v>64</v>
+      </c>
+      <c r="H125" t="s">
+        <v>30</v>
+      </c>
+      <c r="I125">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="J125">
+        <v>219</v>
+      </c>
+      <c r="K125" t="s">
+        <v>13</v>
+      </c>
+      <c r="L125">
+        <v>4</v>
+      </c>
+      <c r="M125" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B126">
+        <v>10</v>
+      </c>
+      <c r="C126">
+        <v>279046</v>
+      </c>
+      <c r="D126">
+        <v>5189192</v>
+      </c>
+      <c r="E126" t="s">
+        <v>14</v>
+      </c>
+      <c r="F126" t="s">
+        <v>28</v>
+      </c>
+      <c r="G126" t="s">
+        <v>29</v>
+      </c>
+      <c r="H126" t="s">
+        <v>30</v>
+      </c>
+      <c r="I126">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J126">
+        <v>219</v>
+      </c>
+      <c r="K126" t="s">
+        <v>13</v>
+      </c>
+      <c r="L126">
+        <v>3.1</v>
+      </c>
+      <c r="M126" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B127">
+        <v>10</v>
+      </c>
+      <c r="C127">
+        <v>279046</v>
+      </c>
+      <c r="D127">
+        <v>5189192</v>
+      </c>
+      <c r="E127" t="s">
+        <v>14</v>
+      </c>
+      <c r="F127" t="s">
+        <v>38</v>
+      </c>
+      <c r="G127" t="s">
+        <v>31</v>
+      </c>
+      <c r="H127" t="s">
+        <v>48</v>
+      </c>
+      <c r="I127">
+        <v>1.76</v>
+      </c>
+      <c r="J127">
+        <v>224</v>
+      </c>
+      <c r="K127" t="s">
+        <v>13</v>
+      </c>
+      <c r="L127">
+        <v>12.3</v>
+      </c>
+      <c r="M127">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B128">
+        <v>10</v>
+      </c>
+      <c r="C128">
+        <v>279046</v>
+      </c>
+      <c r="D128">
+        <v>5189192</v>
+      </c>
+      <c r="E128" t="s">
+        <v>14</v>
+      </c>
+      <c r="F128" t="s">
+        <v>38</v>
+      </c>
+      <c r="G128" t="s">
+        <v>31</v>
+      </c>
+      <c r="H128" t="s">
+        <v>48</v>
+      </c>
+      <c r="I128">
+        <v>3.12</v>
+      </c>
+      <c r="J128">
+        <v>224</v>
+      </c>
+      <c r="K128" t="s">
+        <v>13</v>
+      </c>
+      <c r="L128">
+        <v>8.1</v>
+      </c>
+      <c r="M128">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B129">
+        <v>10</v>
+      </c>
+      <c r="C129">
+        <v>279046</v>
+      </c>
+      <c r="D129">
+        <v>5189192</v>
+      </c>
+      <c r="E129" t="s">
+        <v>14</v>
+      </c>
+      <c r="F129" t="s">
+        <v>28</v>
+      </c>
+      <c r="G129" t="s">
+        <v>29</v>
+      </c>
+      <c r="H129" t="s">
+        <v>30</v>
+      </c>
+      <c r="I129">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="J129">
+        <v>243</v>
+      </c>
+      <c r="K129" t="s">
+        <v>13</v>
+      </c>
+      <c r="L129">
+        <v>4</v>
+      </c>
+      <c r="M129" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B130">
+        <v>10</v>
+      </c>
+      <c r="C130">
+        <v>279046</v>
+      </c>
+      <c r="D130">
+        <v>5189192</v>
+      </c>
+      <c r="E130" t="s">
+        <v>14</v>
+      </c>
+      <c r="F130" t="s">
+        <v>28</v>
+      </c>
+      <c r="G130" t="s">
+        <v>29</v>
+      </c>
+      <c r="H130" t="s">
+        <v>30</v>
+      </c>
+      <c r="I130">
+        <v>1.4</v>
+      </c>
+      <c r="J130">
+        <v>261</v>
+      </c>
+      <c r="K130" t="s">
+        <v>13</v>
+      </c>
+      <c r="L130">
+        <v>4.2</v>
+      </c>
+      <c r="M130" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B131">
+        <v>10</v>
+      </c>
+      <c r="C131">
+        <v>279046</v>
+      </c>
+      <c r="D131">
+        <v>5189192</v>
+      </c>
+      <c r="E131" t="s">
+        <v>14</v>
+      </c>
+      <c r="F131" t="s">
+        <v>28</v>
+      </c>
+      <c r="G131" t="s">
+        <v>29</v>
+      </c>
+      <c r="H131" t="s">
+        <v>30</v>
+      </c>
+      <c r="I131">
+        <v>3.35</v>
+      </c>
+      <c r="J131">
+        <v>321</v>
+      </c>
+      <c r="K131" t="s">
+        <v>13</v>
+      </c>
+      <c r="L131">
+        <v>4.7</v>
+      </c>
+      <c r="M131" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B132">
+        <v>10</v>
+      </c>
+      <c r="C132">
+        <v>279046</v>
+      </c>
+      <c r="D132">
+        <v>5189192</v>
+      </c>
+      <c r="E132" t="s">
+        <v>14</v>
+      </c>
+      <c r="F132" t="s">
+        <v>28</v>
+      </c>
+      <c r="G132" t="s">
+        <v>29</v>
+      </c>
+      <c r="H132" t="s">
+        <v>30</v>
+      </c>
+      <c r="I132">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J132">
+        <v>321</v>
+      </c>
+      <c r="K132" t="s">
+        <v>13</v>
+      </c>
+      <c r="L132">
+        <v>8.5</v>
+      </c>
+      <c r="M132">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B133">
+        <v>10</v>
+      </c>
+      <c r="C133">
+        <v>279046</v>
+      </c>
+      <c r="D133">
+        <v>5189192</v>
+      </c>
+      <c r="E133" t="s">
+        <v>14</v>
+      </c>
+      <c r="F133" t="s">
+        <v>28</v>
+      </c>
+      <c r="G133" t="s">
+        <v>29</v>
+      </c>
+      <c r="H133" t="s">
+        <v>30</v>
+      </c>
+      <c r="I133">
+        <v>2.1</v>
+      </c>
+      <c r="J133">
+        <v>345</v>
+      </c>
+      <c r="K133" t="s">
+        <v>13</v>
+      </c>
+      <c r="L133">
+        <v>5.8</v>
+      </c>
+      <c r="M133">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B134">
+        <v>10</v>
+      </c>
+      <c r="C134">
+        <v>279046</v>
+      </c>
+      <c r="D134">
+        <v>5189192</v>
+      </c>
+      <c r="E134" t="s">
+        <v>21</v>
+      </c>
+      <c r="F134" t="s">
+        <v>35</v>
+      </c>
+      <c r="G134" t="s">
+        <v>36</v>
+      </c>
+      <c r="H134" t="s">
+        <v>34</v>
+      </c>
+      <c r="I134">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="J134">
+        <v>352</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+      <c r="L134" t="s">
+        <v>13</v>
+      </c>
+      <c r="M134" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B135">
+        <v>10</v>
+      </c>
+      <c r="C135">
+        <v>279046</v>
+      </c>
+      <c r="D135">
+        <v>5189192</v>
+      </c>
+      <c r="E135" t="s">
+        <v>21</v>
+      </c>
+      <c r="F135" t="s">
+        <v>38</v>
+      </c>
+      <c r="G135" t="s">
+        <v>31</v>
+      </c>
+      <c r="H135" t="s">
+        <v>48</v>
+      </c>
+      <c r="I135">
+        <v>2.16</v>
+      </c>
+      <c r="J135">
+        <v>32</v>
+      </c>
+      <c r="K135">
+        <v>1</v>
+      </c>
+      <c r="L135" t="s">
+        <v>13</v>
+      </c>
+      <c r="M135" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B136">
+        <v>10</v>
+      </c>
+      <c r="C136">
+        <v>279046</v>
+      </c>
+      <c r="D136">
+        <v>5189192</v>
+      </c>
+      <c r="E136" t="s">
+        <v>21</v>
+      </c>
+      <c r="F136" t="s">
+        <v>51</v>
+      </c>
+      <c r="G136" t="s">
+        <v>52</v>
+      </c>
+      <c r="H136" t="s">
+        <v>34</v>
+      </c>
+      <c r="I136">
+        <v>1.3</v>
+      </c>
+      <c r="J136">
+        <v>41</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
+      <c r="L136" t="s">
+        <v>13</v>
+      </c>
+      <c r="M136" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B137">
+        <v>10</v>
+      </c>
+      <c r="C137">
+        <v>279046</v>
+      </c>
+      <c r="D137">
+        <v>5189192</v>
+      </c>
+      <c r="E137" t="s">
+        <v>21</v>
+      </c>
+      <c r="F137" t="s">
+        <v>51</v>
+      </c>
+      <c r="G137" t="s">
+        <v>52</v>
+      </c>
+      <c r="H137" t="s">
+        <v>34</v>
+      </c>
+      <c r="I137">
+        <v>2.48</v>
+      </c>
+      <c r="J137">
+        <v>103</v>
+      </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
+      <c r="L137" t="s">
+        <v>13</v>
+      </c>
+      <c r="M137" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="138" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B138">
+        <v>10</v>
+      </c>
+      <c r="C138">
+        <v>279046</v>
+      </c>
+      <c r="D138">
+        <v>5189192</v>
+      </c>
+      <c r="E138" t="s">
+        <v>21</v>
+      </c>
+      <c r="F138" t="s">
+        <v>51</v>
+      </c>
+      <c r="G138" t="s">
+        <v>52</v>
+      </c>
+      <c r="H138" t="s">
+        <v>34</v>
+      </c>
+      <c r="I138">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="J138">
+        <v>106</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138" t="s">
+        <v>13</v>
+      </c>
+      <c r="M138" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="139" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B139">
+        <v>10</v>
+      </c>
+      <c r="C139">
+        <v>279046</v>
+      </c>
+      <c r="D139">
+        <v>5189192</v>
+      </c>
+      <c r="E139" t="s">
+        <v>21</v>
+      </c>
+      <c r="F139" t="s">
+        <v>51</v>
+      </c>
+      <c r="G139" t="s">
+        <v>52</v>
+      </c>
+      <c r="H139" t="s">
+        <v>34</v>
+      </c>
+      <c r="I139">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="J139">
+        <v>119</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="L139" t="s">
+        <v>13</v>
+      </c>
+      <c r="M139" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B140">
+        <v>10</v>
+      </c>
+      <c r="C140">
+        <v>279046</v>
+      </c>
+      <c r="D140">
+        <v>5189192</v>
+      </c>
+      <c r="E140" t="s">
+        <v>21</v>
+      </c>
+      <c r="F140" t="s">
+        <v>51</v>
+      </c>
+      <c r="G140" t="s">
+        <v>52</v>
+      </c>
+      <c r="H140" t="s">
+        <v>34</v>
+      </c>
+      <c r="I140">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="J140">
+        <v>138</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+      <c r="L140" t="s">
+        <v>13</v>
+      </c>
+      <c r="M140" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="141" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B141">
+        <v>10</v>
+      </c>
+      <c r="C141">
+        <v>279046</v>
+      </c>
+      <c r="D141">
+        <v>5189192</v>
+      </c>
+      <c r="E141" t="s">
+        <v>21</v>
+      </c>
+      <c r="F141" t="s">
+        <v>51</v>
+      </c>
+      <c r="G141" t="s">
+        <v>52</v>
+      </c>
+      <c r="H141" t="s">
+        <v>34</v>
+      </c>
+      <c r="I141">
+        <v>1.74</v>
+      </c>
+      <c r="J141">
+        <v>141</v>
+      </c>
+      <c r="K141">
+        <v>1</v>
+      </c>
+      <c r="L141" t="s">
+        <v>13</v>
+      </c>
+      <c r="M141" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="142" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B142">
+        <v>10</v>
+      </c>
+      <c r="C142">
+        <v>279046</v>
+      </c>
+      <c r="D142">
+        <v>5189192</v>
+      </c>
+      <c r="E142" t="s">
+        <v>21</v>
+      </c>
+      <c r="F142" t="s">
+        <v>51</v>
+      </c>
+      <c r="G142" t="s">
+        <v>52</v>
+      </c>
+      <c r="H142" t="s">
+        <v>34</v>
+      </c>
+      <c r="I142">
+        <v>1.06</v>
+      </c>
+      <c r="J142">
+        <v>150</v>
+      </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
+      <c r="L142" t="s">
+        <v>13</v>
+      </c>
+      <c r="M142" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="143" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B143">
+        <v>10</v>
+      </c>
+      <c r="C143">
+        <v>279046</v>
+      </c>
+      <c r="D143">
+        <v>5189192</v>
+      </c>
+      <c r="E143" t="s">
+        <v>21</v>
+      </c>
+      <c r="F143" t="s">
+        <v>51</v>
+      </c>
+      <c r="G143" t="s">
+        <v>52</v>
+      </c>
+      <c r="H143" t="s">
+        <v>34</v>
+      </c>
+      <c r="I143">
+        <v>2.57</v>
+      </c>
+      <c r="J143">
+        <v>151</v>
+      </c>
+      <c r="K143">
+        <v>1</v>
+      </c>
+      <c r="L143" t="s">
+        <v>13</v>
+      </c>
+      <c r="M143" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B144">
+        <v>10</v>
+      </c>
+      <c r="C144">
+        <v>279046</v>
+      </c>
+      <c r="D144">
+        <v>5189192</v>
+      </c>
+      <c r="E144" t="s">
+        <v>21</v>
+      </c>
+      <c r="F144" t="s">
+        <v>51</v>
+      </c>
+      <c r="G144" t="s">
+        <v>52</v>
+      </c>
+      <c r="H144" t="s">
+        <v>34</v>
+      </c>
+      <c r="I144">
+        <v>2.75</v>
+      </c>
+      <c r="J144">
+        <v>152</v>
+      </c>
+      <c r="K144">
+        <v>1</v>
+      </c>
+      <c r="L144" t="s">
+        <v>13</v>
+      </c>
+      <c r="M144" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B145">
+        <v>10</v>
+      </c>
+      <c r="C145">
+        <v>279046</v>
+      </c>
+      <c r="D145">
+        <v>5189192</v>
+      </c>
+      <c r="E145" t="s">
+        <v>21</v>
+      </c>
+      <c r="F145" t="s">
+        <v>51</v>
+      </c>
+      <c r="G145" t="s">
+        <v>52</v>
+      </c>
+      <c r="H145" t="s">
+        <v>34</v>
+      </c>
+      <c r="I145">
+        <v>4.3</v>
+      </c>
+      <c r="J145">
+        <v>152</v>
+      </c>
+      <c r="K145">
+        <v>2</v>
+      </c>
+      <c r="L145" t="s">
+        <v>13</v>
+      </c>
+      <c r="M145" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B146">
+        <v>10</v>
+      </c>
+      <c r="C146">
+        <v>279046</v>
+      </c>
+      <c r="D146">
+        <v>5189192</v>
+      </c>
+      <c r="E146" t="s">
+        <v>21</v>
+      </c>
+      <c r="F146" t="s">
+        <v>51</v>
+      </c>
+      <c r="G146" t="s">
+        <v>52</v>
+      </c>
+      <c r="H146" t="s">
+        <v>34</v>
+      </c>
+      <c r="I146">
+        <v>2.4</v>
+      </c>
+      <c r="J146">
+        <v>152</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146" t="s">
+        <v>13</v>
+      </c>
+      <c r="M146" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B147">
+        <v>10</v>
+      </c>
+      <c r="C147">
+        <v>279046</v>
+      </c>
+      <c r="D147">
+        <v>5189192</v>
+      </c>
+      <c r="E147" t="s">
+        <v>21</v>
+      </c>
+      <c r="F147" t="s">
+        <v>51</v>
+      </c>
+      <c r="G147" t="s">
+        <v>52</v>
+      </c>
+      <c r="H147" t="s">
+        <v>34</v>
+      </c>
+      <c r="I147">
+        <v>1.5</v>
+      </c>
+      <c r="J147">
+        <v>171</v>
+      </c>
+      <c r="K147">
+        <v>1</v>
+      </c>
+      <c r="L147" t="s">
+        <v>13</v>
+      </c>
+      <c r="M147" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B148">
+        <v>10</v>
+      </c>
+      <c r="C148">
+        <v>279046</v>
+      </c>
+      <c r="D148">
+        <v>5189192</v>
+      </c>
+      <c r="E148" t="s">
+        <v>21</v>
+      </c>
+      <c r="F148" t="s">
+        <v>51</v>
+      </c>
+      <c r="G148" t="s">
+        <v>52</v>
+      </c>
+      <c r="H148" t="s">
+        <v>34</v>
+      </c>
+      <c r="I148">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="J148">
+        <v>162</v>
+      </c>
+      <c r="K148">
+        <v>2</v>
+      </c>
+      <c r="L148" t="s">
+        <v>13</v>
+      </c>
+      <c r="M148" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B149">
+        <v>10</v>
+      </c>
+      <c r="C149">
+        <v>279046</v>
+      </c>
+      <c r="D149">
+        <v>5189192</v>
+      </c>
+      <c r="E149" t="s">
+        <v>21</v>
+      </c>
+      <c r="F149" t="s">
+        <v>51</v>
+      </c>
+      <c r="G149" t="s">
+        <v>52</v>
+      </c>
+      <c r="H149" t="s">
+        <v>34</v>
+      </c>
+      <c r="I149">
+        <v>3.63</v>
+      </c>
+      <c r="J149">
+        <v>219</v>
+      </c>
+      <c r="K149">
+        <v>1</v>
+      </c>
+      <c r="L149" t="s">
+        <v>13</v>
+      </c>
+      <c r="M149" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B150">
+        <v>10</v>
+      </c>
+      <c r="C150">
+        <v>279046</v>
+      </c>
+      <c r="D150">
+        <v>5189192</v>
+      </c>
+      <c r="E150" t="s">
+        <v>21</v>
+      </c>
+      <c r="F150" t="s">
+        <v>51</v>
+      </c>
+      <c r="G150" t="s">
+        <v>52</v>
+      </c>
+      <c r="H150" t="s">
+        <v>34</v>
+      </c>
+      <c r="I150">
+        <v>4.62</v>
+      </c>
+      <c r="J150">
+        <v>219</v>
+      </c>
+      <c r="K150">
+        <v>1</v>
+      </c>
+      <c r="L150" t="s">
+        <v>13</v>
+      </c>
+      <c r="M150" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B151">
+        <v>10</v>
+      </c>
+      <c r="C151">
+        <v>279046</v>
+      </c>
+      <c r="D151">
+        <v>5189192</v>
+      </c>
+      <c r="E151" t="s">
+        <v>21</v>
+      </c>
+      <c r="F151" t="s">
+        <v>51</v>
+      </c>
+      <c r="G151" t="s">
+        <v>52</v>
+      </c>
+      <c r="H151" t="s">
+        <v>34</v>
+      </c>
+      <c r="I151">
+        <v>4.95</v>
+      </c>
+      <c r="J151">
+        <v>220</v>
+      </c>
+      <c r="K151">
+        <v>1</v>
+      </c>
+      <c r="L151" t="s">
+        <v>13</v>
+      </c>
+      <c r="M151" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B152">
+        <v>10</v>
+      </c>
+      <c r="C152">
+        <v>279046</v>
+      </c>
+      <c r="D152">
+        <v>5189192</v>
+      </c>
+      <c r="E152" t="s">
+        <v>21</v>
+      </c>
+      <c r="F152" t="s">
+        <v>51</v>
+      </c>
+      <c r="G152" t="s">
+        <v>52</v>
+      </c>
+      <c r="H152" t="s">
+        <v>34</v>
+      </c>
+      <c r="I152">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="J152">
+        <v>226</v>
+      </c>
+      <c r="K152">
+        <v>1</v>
+      </c>
+      <c r="L152" t="s">
+        <v>13</v>
+      </c>
+      <c r="M152" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B153">
+        <v>10</v>
+      </c>
+      <c r="C153">
+        <v>279046</v>
+      </c>
+      <c r="D153">
+        <v>5189192</v>
+      </c>
+      <c r="E153" t="s">
+        <v>21</v>
+      </c>
+      <c r="F153" t="s">
+        <v>28</v>
+      </c>
+      <c r="G153" t="s">
+        <v>29</v>
+      </c>
+      <c r="H153" t="s">
+        <v>30</v>
+      </c>
+      <c r="I153">
+        <v>3.67</v>
+      </c>
+      <c r="J153">
+        <v>243</v>
+      </c>
+      <c r="K153">
+        <v>1</v>
+      </c>
+      <c r="L153" t="s">
+        <v>13</v>
+      </c>
+      <c r="M153" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <v>43623</v>
+      </c>
+      <c r="B154">
+        <v>11</v>
+      </c>
+      <c r="C154">
+        <v>278791</v>
+      </c>
+      <c r="D154">
+        <v>5189124</v>
+      </c>
+      <c r="E154" t="s">
+        <v>13</v>
+      </c>
+      <c r="F154" t="s">
+        <v>13</v>
+      </c>
+      <c r="G154" t="s">
+        <v>13</v>
+      </c>
+      <c r="H154" t="s">
+        <v>13</v>
+      </c>
+      <c r="I154" t="s">
+        <v>13</v>
+      </c>
+      <c r="J154" t="s">
+        <v>13</v>
+      </c>
+      <c r="K154" t="s">
+        <v>13</v>
+      </c>
+      <c r="L154" t="s">
+        <v>13</v>
+      </c>
+      <c r="M154" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
+        <v>43615</v>
+      </c>
+      <c r="B155">
+        <v>12</v>
+      </c>
+      <c r="C155">
+        <v>278927</v>
+      </c>
+      <c r="D155">
+        <v>5189165</v>
+      </c>
+      <c r="E155" t="s">
+        <v>14</v>
+      </c>
+      <c r="K155" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K156" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K157" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K158" t="s">
         <v>13</v>
       </c>
     </row>

--- a/data/raw_data/tree_survey/tree_survey_data2019.xlsx
+++ b/data/raw_data/tree_survey/tree_survey_data2019.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4600" yWindow="460" windowWidth="19360" windowHeight="11480"/>
+    <workbookView xWindow="700" yWindow="5840" windowWidth="23940" windowHeight="11480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1886" uniqueCount="87">
   <si>
     <t>Date Surveyed</t>
   </si>
@@ -225,6 +225,72 @@
   </si>
   <si>
     <t>ostrya</t>
+  </si>
+  <si>
+    <t>serotina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prunus </t>
+  </si>
+  <si>
+    <t>Common Apple</t>
+  </si>
+  <si>
+    <t>Malus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sp. </t>
+  </si>
+  <si>
+    <t>Box Elder</t>
+  </si>
+  <si>
+    <t>Acer</t>
+  </si>
+  <si>
+    <t>negundo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slippery Elm </t>
+  </si>
+  <si>
+    <t>Smooth Sumac</t>
+  </si>
+  <si>
+    <t>Siberian Elm</t>
+  </si>
+  <si>
+    <t>Diamond Willow</t>
+  </si>
+  <si>
+    <t>pumila</t>
+  </si>
+  <si>
+    <t>Salix</t>
+  </si>
+  <si>
+    <t>bebbiana</t>
+  </si>
+  <si>
+    <t>Rhus</t>
+  </si>
+  <si>
+    <t>glabra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhus </t>
+  </si>
+  <si>
+    <t>Quaking Aspen</t>
+  </si>
+  <si>
+    <t>marocopa</t>
+  </si>
+  <si>
+    <t>Yellow Birch</t>
+  </si>
+  <si>
+    <t>alleghaniensis</t>
   </si>
 </sst>
 </file>
@@ -550,15 +616,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M158"/>
+  <dimension ref="A1:M316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="F155" sqref="F155"/>
+    <sheetView tabSelected="1" topLeftCell="B311" zoomScale="150" workbookViewId="0">
+      <selection activeCell="K236" sqref="K236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
@@ -810,6 +877,9 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>43622</v>
+      </c>
       <c r="B7">
         <v>3</v>
       </c>
@@ -848,6 +918,9 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>43622</v>
+      </c>
       <c r="B8">
         <v>3</v>
       </c>
@@ -886,6 +959,9 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>43622</v>
+      </c>
       <c r="B9">
         <v>3</v>
       </c>
@@ -924,6 +1000,9 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>43622</v>
+      </c>
       <c r="B10">
         <v>3</v>
       </c>
@@ -962,6 +1041,9 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>43622</v>
+      </c>
       <c r="B11">
         <v>3</v>
       </c>
@@ -1000,6 +1082,9 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>43622</v>
+      </c>
       <c r="B12">
         <v>3</v>
       </c>
@@ -1038,6 +1123,9 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>43622</v>
+      </c>
       <c r="B13">
         <v>3</v>
       </c>
@@ -1076,6 +1164,9 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>43622</v>
+      </c>
       <c r="B14">
         <v>3</v>
       </c>
@@ -1114,6 +1205,9 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>43622</v>
+      </c>
       <c r="B15">
         <v>3</v>
       </c>
@@ -1152,6 +1246,9 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>43622</v>
+      </c>
       <c r="B16">
         <v>3</v>
       </c>
@@ -1190,6 +1287,9 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>43622</v>
+      </c>
       <c r="B17">
         <v>3</v>
       </c>
@@ -1205,6 +1305,12 @@
       <c r="F17" t="s">
         <v>24</v>
       </c>
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" t="s">
+        <v>65</v>
+      </c>
       <c r="I17">
         <v>4.47</v>
       </c>
@@ -1219,6 +1325,9 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>43622</v>
+      </c>
       <c r="B18">
         <v>3</v>
       </c>
@@ -1257,6 +1366,9 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>43622</v>
+      </c>
       <c r="B19">
         <v>3</v>
       </c>
@@ -1272,6 +1384,12 @@
       <c r="F19" t="s">
         <v>23</v>
       </c>
+      <c r="G19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" t="s">
+        <v>30</v>
+      </c>
       <c r="I19">
         <v>4.21</v>
       </c>
@@ -1289,6 +1407,9 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>43622</v>
+      </c>
       <c r="B20">
         <v>3</v>
       </c>
@@ -1304,6 +1425,12 @@
       <c r="F20" t="s">
         <v>23</v>
       </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s">
+        <v>30</v>
+      </c>
       <c r="I20">
         <v>4.75</v>
       </c>
@@ -1321,6 +1448,9 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>43622</v>
+      </c>
       <c r="B21">
         <v>3</v>
       </c>
@@ -1336,6 +1466,12 @@
       <c r="F21" t="s">
         <v>23</v>
       </c>
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" t="s">
+        <v>30</v>
+      </c>
       <c r="I21">
         <v>4.93</v>
       </c>
@@ -1353,6 +1489,9 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>43622</v>
+      </c>
       <c r="B22">
         <v>3</v>
       </c>
@@ -1391,6 +1530,9 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>43622</v>
+      </c>
       <c r="B23">
         <v>3</v>
       </c>
@@ -1429,6 +1571,9 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>43622</v>
+      </c>
       <c r="B24">
         <v>3</v>
       </c>
@@ -1505,6 +1650,9 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>43629</v>
+      </c>
       <c r="B26">
         <v>4</v>
       </c>
@@ -1625,6 +1773,9 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>43629</v>
+      </c>
       <c r="B29">
         <v>6</v>
       </c>
@@ -1663,6 +1814,9 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>43629</v>
+      </c>
       <c r="B30">
         <v>6</v>
       </c>
@@ -1701,6 +1855,9 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>43629</v>
+      </c>
       <c r="B31">
         <v>6</v>
       </c>
@@ -1739,6 +1896,9 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>43629</v>
+      </c>
       <c r="B32">
         <v>6</v>
       </c>
@@ -1776,7 +1936,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>43629</v>
+      </c>
       <c r="B33">
         <v>6</v>
       </c>
@@ -1811,7 +1974,10 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>43629</v>
+      </c>
       <c r="B34">
         <v>6</v>
       </c>
@@ -1849,7 +2015,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>43629</v>
+      </c>
       <c r="B35">
         <v>6</v>
       </c>
@@ -1887,7 +2056,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>43629</v>
+      </c>
       <c r="B36">
         <v>6</v>
       </c>
@@ -1925,7 +2097,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>43629</v>
+      </c>
       <c r="B37">
         <v>6</v>
       </c>
@@ -1963,7 +2138,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>43629</v>
+      </c>
       <c r="B38">
         <v>6</v>
       </c>
@@ -2001,7 +2179,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>43629</v>
+      </c>
       <c r="B39">
         <v>6</v>
       </c>
@@ -2039,7 +2220,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>43629</v>
+      </c>
       <c r="B40">
         <v>6</v>
       </c>
@@ -2077,7 +2261,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>43629</v>
+      </c>
       <c r="B41">
         <v>6</v>
       </c>
@@ -2115,7 +2302,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>43629</v>
+      </c>
       <c r="B42">
         <v>6</v>
       </c>
@@ -2153,7 +2343,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>43629</v>
+      </c>
       <c r="B43">
         <v>6</v>
       </c>
@@ -2191,7 +2384,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>43629</v>
+      </c>
       <c r="B44">
         <v>6</v>
       </c>
@@ -2229,7 +2425,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>43629</v>
+      </c>
       <c r="B45">
         <v>6</v>
       </c>
@@ -2260,8 +2459,17 @@
       <c r="K45">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L45" t="s">
+        <v>13</v>
+      </c>
+      <c r="M45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>43629</v>
+      </c>
       <c r="B46">
         <v>6</v>
       </c>
@@ -2292,8 +2500,17 @@
       <c r="K46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L46" t="s">
+        <v>13</v>
+      </c>
+      <c r="M46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>43629</v>
+      </c>
       <c r="B47">
         <v>6</v>
       </c>
@@ -2324,8 +2541,17 @@
       <c r="K47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L47" t="s">
+        <v>13</v>
+      </c>
+      <c r="M47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>43629</v>
+      </c>
       <c r="B48">
         <v>6</v>
       </c>
@@ -2356,8 +2582,17 @@
       <c r="K48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L48" t="s">
+        <v>13</v>
+      </c>
+      <c r="M48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>43629</v>
+      </c>
       <c r="B49">
         <v>6</v>
       </c>
@@ -2388,8 +2623,17 @@
       <c r="K49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L49" t="s">
+        <v>13</v>
+      </c>
+      <c r="M49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>43629</v>
+      </c>
       <c r="B50">
         <v>6</v>
       </c>
@@ -2420,8 +2664,17 @@
       <c r="K50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L50" t="s">
+        <v>13</v>
+      </c>
+      <c r="M50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>43629</v>
+      </c>
       <c r="B51">
         <v>6</v>
       </c>
@@ -2452,8 +2705,17 @@
       <c r="K51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L51" t="s">
+        <v>13</v>
+      </c>
+      <c r="M51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>43629</v>
+      </c>
       <c r="B52">
         <v>6</v>
       </c>
@@ -2484,8 +2746,17 @@
       <c r="K52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L52" t="s">
+        <v>13</v>
+      </c>
+      <c r="M52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>43629</v>
+      </c>
       <c r="B53">
         <v>6</v>
       </c>
@@ -2516,8 +2787,17 @@
       <c r="K53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L53" t="s">
+        <v>13</v>
+      </c>
+      <c r="M53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>43629</v>
+      </c>
       <c r="B54">
         <v>6</v>
       </c>
@@ -2548,8 +2828,17 @@
       <c r="K54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L54" t="s">
+        <v>13</v>
+      </c>
+      <c r="M54" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>43629</v>
+      </c>
       <c r="B55">
         <v>6</v>
       </c>
@@ -2580,8 +2869,17 @@
       <c r="K55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L55" t="s">
+        <v>13</v>
+      </c>
+      <c r="M55" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>43629</v>
+      </c>
       <c r="B56">
         <v>6</v>
       </c>
@@ -2612,8 +2910,17 @@
       <c r="K56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L56" t="s">
+        <v>13</v>
+      </c>
+      <c r="M56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>43629</v>
+      </c>
       <c r="B57">
         <v>6</v>
       </c>
@@ -2644,8 +2951,17 @@
       <c r="K57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L57" t="s">
+        <v>13</v>
+      </c>
+      <c r="M57" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>43629</v>
+      </c>
       <c r="B58">
         <v>6</v>
       </c>
@@ -2676,8 +2992,17 @@
       <c r="K58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L58" t="s">
+        <v>13</v>
+      </c>
+      <c r="M58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>43629</v>
+      </c>
       <c r="B59">
         <v>6</v>
       </c>
@@ -2705,8 +3030,20 @@
       <c r="J59">
         <v>248</v>
       </c>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59" t="s">
+        <v>13</v>
+      </c>
+      <c r="M59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>43629</v>
+      </c>
       <c r="B60">
         <v>6</v>
       </c>
@@ -2737,8 +3074,17 @@
       <c r="K60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L60" t="s">
+        <v>13</v>
+      </c>
+      <c r="M60" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>43629</v>
+      </c>
       <c r="B61">
         <v>6</v>
       </c>
@@ -2769,8 +3115,17 @@
       <c r="K61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L61" t="s">
+        <v>13</v>
+      </c>
+      <c r="M61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>43629</v>
+      </c>
       <c r="B62">
         <v>6</v>
       </c>
@@ -2801,8 +3156,17 @@
       <c r="K62">
         <v>2</v>
       </c>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L62" t="s">
+        <v>13</v>
+      </c>
+      <c r="M62" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>43629</v>
+      </c>
       <c r="B63">
         <v>6</v>
       </c>
@@ -2833,8 +3197,17 @@
       <c r="K63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L63" t="s">
+        <v>13</v>
+      </c>
+      <c r="M63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>43629</v>
+      </c>
       <c r="B64">
         <v>6</v>
       </c>
@@ -2865,8 +3238,17 @@
       <c r="K64">
         <v>2</v>
       </c>
+      <c r="L64" t="s">
+        <v>13</v>
+      </c>
+      <c r="M64" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>43629</v>
+      </c>
       <c r="B65">
         <v>6</v>
       </c>
@@ -2897,8 +3279,17 @@
       <c r="K65">
         <v>1</v>
       </c>
+      <c r="L65" t="s">
+        <v>13</v>
+      </c>
+      <c r="M65" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>43629</v>
+      </c>
       <c r="B66">
         <v>6</v>
       </c>
@@ -2929,8 +3320,17 @@
       <c r="K66">
         <v>8</v>
       </c>
+      <c r="L66" t="s">
+        <v>13</v>
+      </c>
+      <c r="M66" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>43629</v>
+      </c>
       <c r="B67">
         <v>6</v>
       </c>
@@ -2961,8 +3361,17 @@
       <c r="K67">
         <v>1</v>
       </c>
+      <c r="L67" t="s">
+        <v>13</v>
+      </c>
+      <c r="M67" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>43629</v>
+      </c>
       <c r="B68">
         <v>6</v>
       </c>
@@ -2993,8 +3402,17 @@
       <c r="K68">
         <v>1</v>
       </c>
+      <c r="L68" t="s">
+        <v>13</v>
+      </c>
+      <c r="M68" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>43629</v>
+      </c>
       <c r="B69">
         <v>6</v>
       </c>
@@ -3025,8 +3443,17 @@
       <c r="K69">
         <v>6</v>
       </c>
+      <c r="L69" t="s">
+        <v>13</v>
+      </c>
+      <c r="M69" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>43629</v>
+      </c>
       <c r="B70">
         <v>6</v>
       </c>
@@ -3057,8 +3484,17 @@
       <c r="K70">
         <v>2</v>
       </c>
+      <c r="L70" t="s">
+        <v>13</v>
+      </c>
+      <c r="M70" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>43629</v>
+      </c>
       <c r="B71">
         <v>6</v>
       </c>
@@ -3088,6 +3524,12 @@
       </c>
       <c r="K71">
         <v>1</v>
+      </c>
+      <c r="L71" t="s">
+        <v>13</v>
+      </c>
+      <c r="M71" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
@@ -3132,6 +3574,9 @@
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>43623</v>
+      </c>
       <c r="B73">
         <v>7</v>
       </c>
@@ -3170,6 +3615,9 @@
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>43623</v>
+      </c>
       <c r="B74">
         <v>7</v>
       </c>
@@ -3208,6 +3656,9 @@
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>43623</v>
+      </c>
       <c r="B75">
         <v>7</v>
       </c>
@@ -3246,6 +3697,9 @@
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>43623</v>
+      </c>
       <c r="B76">
         <v>7</v>
       </c>
@@ -3284,6 +3738,9 @@
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>43623</v>
+      </c>
       <c r="B77">
         <v>7</v>
       </c>
@@ -3322,6 +3779,9 @@
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>43623</v>
+      </c>
       <c r="B78">
         <v>7</v>
       </c>
@@ -3360,6 +3820,9 @@
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>43623</v>
+      </c>
       <c r="B79">
         <v>7</v>
       </c>
@@ -3398,6 +3861,9 @@
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>43623</v>
+      </c>
       <c r="B80">
         <v>7</v>
       </c>
@@ -3436,6 +3902,9 @@
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>43623</v>
+      </c>
       <c r="B81">
         <v>7</v>
       </c>
@@ -3474,6 +3943,9 @@
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>43623</v>
+      </c>
       <c r="B82">
         <v>7</v>
       </c>
@@ -3512,6 +3984,9 @@
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>43623</v>
+      </c>
       <c r="B83">
         <v>7</v>
       </c>
@@ -3550,6 +4025,9 @@
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>43623</v>
+      </c>
       <c r="B84">
         <v>7</v>
       </c>
@@ -3588,6 +4066,9 @@
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>43623</v>
+      </c>
       <c r="B85">
         <v>7</v>
       </c>
@@ -3626,6 +4107,9 @@
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>43623</v>
+      </c>
       <c r="B86">
         <v>7</v>
       </c>
@@ -3664,6 +4148,9 @@
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>43623</v>
+      </c>
       <c r="B87">
         <v>7</v>
       </c>
@@ -3702,6 +4189,9 @@
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>43623</v>
+      </c>
       <c r="B88">
         <v>7</v>
       </c>
@@ -3740,6 +4230,9 @@
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>43623</v>
+      </c>
       <c r="B89">
         <v>7</v>
       </c>
@@ -3778,6 +4271,9 @@
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>43623</v>
+      </c>
       <c r="B90">
         <v>7</v>
       </c>
@@ -3816,6 +4312,9 @@
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>43623</v>
+      </c>
       <c r="B91">
         <v>7</v>
       </c>
@@ -3854,6 +4353,9 @@
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>43623</v>
+      </c>
       <c r="B92">
         <v>7</v>
       </c>
@@ -3892,6 +4394,9 @@
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>43623</v>
+      </c>
       <c r="B93">
         <v>7</v>
       </c>
@@ -3930,6 +4435,9 @@
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>43623</v>
+      </c>
       <c r="B94">
         <v>7</v>
       </c>
@@ -3968,6 +4476,9 @@
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>43623</v>
+      </c>
       <c r="B95">
         <v>7</v>
       </c>
@@ -4047,6 +4558,9 @@
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>43630</v>
+      </c>
       <c r="B97">
         <v>9</v>
       </c>
@@ -4085,6 +4599,9 @@
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>43630</v>
+      </c>
       <c r="B98">
         <v>9</v>
       </c>
@@ -4123,6 +4640,9 @@
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>43630</v>
+      </c>
       <c r="B99">
         <v>9</v>
       </c>
@@ -4161,6 +4681,9 @@
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>43630</v>
+      </c>
       <c r="B100">
         <v>9</v>
       </c>
@@ -4199,6 +4722,9 @@
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>43630</v>
+      </c>
       <c r="B101">
         <v>9</v>
       </c>
@@ -4237,6 +4763,9 @@
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>43630</v>
+      </c>
       <c r="B102">
         <v>9</v>
       </c>
@@ -4270,8 +4799,14 @@
       <c r="L102">
         <v>3</v>
       </c>
+      <c r="M102" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>43630</v>
+      </c>
       <c r="B103">
         <v>9</v>
       </c>
@@ -4310,6 +4845,9 @@
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>43630</v>
+      </c>
       <c r="B104">
         <v>9</v>
       </c>
@@ -4348,6 +4886,9 @@
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>43630</v>
+      </c>
       <c r="B105">
         <v>9</v>
       </c>
@@ -4386,6 +4927,9 @@
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>43630</v>
+      </c>
       <c r="B106">
         <v>9</v>
       </c>
@@ -4424,6 +4968,9 @@
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>43630</v>
+      </c>
       <c r="B107">
         <v>9</v>
       </c>
@@ -4462,6 +5009,9 @@
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>43630</v>
+      </c>
       <c r="B108">
         <v>9</v>
       </c>
@@ -4500,6 +5050,9 @@
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>43630</v>
+      </c>
       <c r="B109">
         <v>9</v>
       </c>
@@ -4538,6 +5091,9 @@
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>43630</v>
+      </c>
       <c r="B110">
         <v>9</v>
       </c>
@@ -4576,6 +5132,9 @@
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>43630</v>
+      </c>
       <c r="B111">
         <v>9</v>
       </c>
@@ -4655,6 +5214,9 @@
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>43630</v>
+      </c>
       <c r="B113">
         <v>8</v>
       </c>
@@ -4691,6 +5253,9 @@
       <c r="M113" s="2"/>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>43630</v>
+      </c>
       <c r="B114">
         <v>8</v>
       </c>
@@ -4729,6 +5294,9 @@
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>43630</v>
+      </c>
       <c r="B115">
         <v>8</v>
       </c>
@@ -4767,6 +5335,9 @@
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>43630</v>
+      </c>
       <c r="B116">
         <v>8</v>
       </c>
@@ -4805,6 +5376,9 @@
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>43630</v>
+      </c>
       <c r="B117">
         <v>8</v>
       </c>
@@ -4843,6 +5417,9 @@
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>43630</v>
+      </c>
       <c r="B118">
         <v>8</v>
       </c>
@@ -4881,6 +5458,9 @@
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>43630</v>
+      </c>
       <c r="B119">
         <v>8</v>
       </c>
@@ -4960,6 +5540,9 @@
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>43621</v>
+      </c>
       <c r="B121">
         <v>10</v>
       </c>
@@ -4998,6 +5581,9 @@
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>43621</v>
+      </c>
       <c r="B122">
         <v>10</v>
       </c>
@@ -5036,6 +5622,9 @@
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>43621</v>
+      </c>
       <c r="B123">
         <v>10</v>
       </c>
@@ -5063,6 +5652,9 @@
       <c r="J123">
         <v>152</v>
       </c>
+      <c r="K123" t="s">
+        <v>13</v>
+      </c>
       <c r="L123">
         <v>4</v>
       </c>
@@ -5071,6 +5663,9 @@
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>43621</v>
+      </c>
       <c r="B124">
         <v>10</v>
       </c>
@@ -5109,6 +5704,9 @@
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>43621</v>
+      </c>
       <c r="B125">
         <v>10</v>
       </c>
@@ -5147,6 +5745,9 @@
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>43621</v>
+      </c>
       <c r="B126">
         <v>10</v>
       </c>
@@ -5185,6 +5786,9 @@
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>43621</v>
+      </c>
       <c r="B127">
         <v>10</v>
       </c>
@@ -5223,6 +5827,9 @@
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>43621</v>
+      </c>
       <c r="B128">
         <v>10</v>
       </c>
@@ -5260,7 +5867,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>43621</v>
+      </c>
       <c r="B129">
         <v>10</v>
       </c>
@@ -5298,7 +5908,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>43621</v>
+      </c>
       <c r="B130">
         <v>10</v>
       </c>
@@ -5336,7 +5949,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>43621</v>
+      </c>
       <c r="B131">
         <v>10</v>
       </c>
@@ -5374,7 +5990,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>43621</v>
+      </c>
       <c r="B132">
         <v>10</v>
       </c>
@@ -5412,7 +6031,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>43621</v>
+      </c>
       <c r="B133">
         <v>10</v>
       </c>
@@ -5450,7 +6072,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>43621</v>
+      </c>
       <c r="B134">
         <v>10</v>
       </c>
@@ -5488,7 +6113,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>43621</v>
+      </c>
       <c r="B135">
         <v>10</v>
       </c>
@@ -5526,7 +6154,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>43621</v>
+      </c>
       <c r="B136">
         <v>10</v>
       </c>
@@ -5564,7 +6195,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>43621</v>
+      </c>
       <c r="B137">
         <v>10</v>
       </c>
@@ -5602,7 +6236,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <v>43621</v>
+      </c>
       <c r="B138">
         <v>10</v>
       </c>
@@ -5640,7 +6277,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>43621</v>
+      </c>
       <c r="B139">
         <v>10</v>
       </c>
@@ -5678,7 +6318,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>43621</v>
+      </c>
       <c r="B140">
         <v>10</v>
       </c>
@@ -5716,7 +6359,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>43621</v>
+      </c>
       <c r="B141">
         <v>10</v>
       </c>
@@ -5754,7 +6400,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>43621</v>
+      </c>
       <c r="B142">
         <v>10</v>
       </c>
@@ -5792,7 +6441,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>43621</v>
+      </c>
       <c r="B143">
         <v>10</v>
       </c>
@@ -5830,7 +6482,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>43621</v>
+      </c>
       <c r="B144">
         <v>10</v>
       </c>
@@ -5869,6 +6524,9 @@
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>43621</v>
+      </c>
       <c r="B145">
         <v>10</v>
       </c>
@@ -5907,6 +6565,9 @@
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>43621</v>
+      </c>
       <c r="B146">
         <v>10</v>
       </c>
@@ -5945,6 +6606,9 @@
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>43621</v>
+      </c>
       <c r="B147">
         <v>10</v>
       </c>
@@ -5983,6 +6647,9 @@
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>43621</v>
+      </c>
       <c r="B148">
         <v>10</v>
       </c>
@@ -6021,6 +6688,9 @@
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <v>43621</v>
+      </c>
       <c r="B149">
         <v>10</v>
       </c>
@@ -6059,6 +6729,9 @@
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>43621</v>
+      </c>
       <c r="B150">
         <v>10</v>
       </c>
@@ -6097,6 +6770,9 @@
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>43621</v>
+      </c>
       <c r="B151">
         <v>10</v>
       </c>
@@ -6135,6 +6811,9 @@
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>43621</v>
+      </c>
       <c r="B152">
         <v>10</v>
       </c>
@@ -6173,6 +6852,9 @@
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <v>43621</v>
+      </c>
       <c r="B153">
         <v>10</v>
       </c>
@@ -6267,22 +6949,6620 @@
       <c r="E155" t="s">
         <v>14</v>
       </c>
+      <c r="F155" t="s">
+        <v>38</v>
+      </c>
+      <c r="G155" t="s">
+        <v>31</v>
+      </c>
+      <c r="H155" t="s">
+        <v>48</v>
+      </c>
+      <c r="I155">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="J155">
+        <v>56</v>
+      </c>
       <c r="K155" t="s">
         <v>13</v>
       </c>
+      <c r="L155">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="M155">
+        <v>2</v>
+      </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
+        <v>43615</v>
+      </c>
+      <c r="B156">
+        <v>12</v>
+      </c>
+      <c r="C156">
+        <v>278927</v>
+      </c>
+      <c r="D156">
+        <v>5189165</v>
+      </c>
+      <c r="E156" t="s">
+        <v>14</v>
+      </c>
+      <c r="F156" t="s">
+        <v>15</v>
+      </c>
+      <c r="G156" t="s">
+        <v>31</v>
+      </c>
+      <c r="H156" t="s">
+        <v>17</v>
+      </c>
+      <c r="I156">
+        <v>4.29</v>
+      </c>
+      <c r="J156">
+        <v>76</v>
+      </c>
       <c r="K156" t="s">
         <v>13</v>
       </c>
+      <c r="L156">
+        <v>8</v>
+      </c>
+      <c r="M156">
+        <v>3</v>
+      </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
+        <v>43615</v>
+      </c>
+      <c r="B157">
+        <v>13</v>
+      </c>
+      <c r="C157">
+        <v>279015.8</v>
+      </c>
+      <c r="D157">
+        <v>5189132</v>
+      </c>
+      <c r="E157" t="s">
+        <v>14</v>
+      </c>
+      <c r="F157" t="s">
+        <v>38</v>
+      </c>
+      <c r="G157" t="s">
+        <v>31</v>
+      </c>
+      <c r="H157" t="s">
+        <v>48</v>
+      </c>
+      <c r="I157">
+        <v>1.8</v>
+      </c>
+      <c r="J157">
+        <v>138</v>
+      </c>
       <c r="K157" t="s">
         <v>13</v>
       </c>
+      <c r="L157">
+        <v>22.7</v>
+      </c>
+      <c r="M157">
+        <v>1</v>
+      </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
+        <v>43615</v>
+      </c>
+      <c r="B158">
+        <v>13</v>
+      </c>
+      <c r="C158">
+        <v>279015.8</v>
+      </c>
+      <c r="D158">
+        <v>5189132</v>
+      </c>
+      <c r="E158" t="s">
+        <v>14</v>
+      </c>
+      <c r="F158" t="s">
+        <v>22</v>
+      </c>
+      <c r="G158" t="s">
+        <v>66</v>
+      </c>
+      <c r="H158" t="s">
+        <v>17</v>
+      </c>
+      <c r="I158">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="J158">
+        <v>244</v>
+      </c>
       <c r="K158" t="s">
+        <v>13</v>
+      </c>
+      <c r="L158">
+        <v>2.8</v>
+      </c>
+      <c r="M158" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
+        <v>43615</v>
+      </c>
+      <c r="B159">
+        <v>13</v>
+      </c>
+      <c r="C159">
+        <v>279015.8</v>
+      </c>
+      <c r="D159">
+        <v>5189132</v>
+      </c>
+      <c r="E159" t="s">
+        <v>21</v>
+      </c>
+      <c r="F159" t="s">
+        <v>24</v>
+      </c>
+      <c r="G159" t="s">
+        <v>16</v>
+      </c>
+      <c r="H159" t="s">
+        <v>65</v>
+      </c>
+      <c r="I159">
+        <v>4.71</v>
+      </c>
+      <c r="J159">
+        <v>78</v>
+      </c>
+      <c r="K159">
+        <v>1</v>
+      </c>
+      <c r="L159" t="s">
+        <v>13</v>
+      </c>
+      <c r="M159" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
+        <v>43615</v>
+      </c>
+      <c r="B160">
+        <v>13</v>
+      </c>
+      <c r="C160">
+        <v>279015.8</v>
+      </c>
+      <c r="D160">
+        <v>5189132</v>
+      </c>
+      <c r="E160" t="s">
+        <v>21</v>
+      </c>
+      <c r="F160" t="s">
+        <v>24</v>
+      </c>
+      <c r="G160" t="s">
+        <v>66</v>
+      </c>
+      <c r="H160" t="s">
+        <v>65</v>
+      </c>
+      <c r="I160">
+        <v>3</v>
+      </c>
+      <c r="J160">
+        <v>78</v>
+      </c>
+      <c r="K160">
+        <v>1</v>
+      </c>
+      <c r="L160" t="s">
+        <v>13</v>
+      </c>
+      <c r="M160" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
+        <v>43615</v>
+      </c>
+      <c r="B161">
+        <v>13</v>
+      </c>
+      <c r="C161">
+        <v>279015.8</v>
+      </c>
+      <c r="D161">
+        <v>5189132</v>
+      </c>
+      <c r="E161" t="s">
+        <v>21</v>
+      </c>
+      <c r="F161" t="s">
+        <v>24</v>
+      </c>
+      <c r="G161" t="s">
+        <v>16</v>
+      </c>
+      <c r="H161" t="s">
+        <v>65</v>
+      </c>
+      <c r="I161">
+        <v>4.7</v>
+      </c>
+      <c r="J161">
+        <v>100</v>
+      </c>
+      <c r="K161">
+        <v>1</v>
+      </c>
+      <c r="L161" t="s">
+        <v>13</v>
+      </c>
+      <c r="M161" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A162" s="1">
+        <v>43615</v>
+      </c>
+      <c r="B162">
+        <v>13</v>
+      </c>
+      <c r="C162">
+        <v>279015.8</v>
+      </c>
+      <c r="D162">
+        <v>5189132</v>
+      </c>
+      <c r="E162" t="s">
+        <v>21</v>
+      </c>
+      <c r="F162" t="s">
+        <v>24</v>
+      </c>
+      <c r="G162" t="s">
+        <v>16</v>
+      </c>
+      <c r="H162" t="s">
+        <v>65</v>
+      </c>
+      <c r="I162">
+        <v>3.46</v>
+      </c>
+      <c r="J162">
+        <v>122</v>
+      </c>
+      <c r="K162">
+        <v>1</v>
+      </c>
+      <c r="L162" t="s">
+        <v>13</v>
+      </c>
+      <c r="M162" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A163" s="1">
+        <v>43621</v>
+      </c>
+      <c r="B163">
+        <v>14</v>
+      </c>
+      <c r="C163">
+        <v>279163.7</v>
+      </c>
+      <c r="D163">
+        <v>5189109</v>
+      </c>
+      <c r="E163" t="s">
+        <v>13</v>
+      </c>
+      <c r="F163" t="s">
+        <v>13</v>
+      </c>
+      <c r="G163" t="s">
+        <v>13</v>
+      </c>
+      <c r="H163" t="s">
+        <v>13</v>
+      </c>
+      <c r="I163" t="s">
+        <v>13</v>
+      </c>
+      <c r="J163" t="s">
+        <v>13</v>
+      </c>
+      <c r="K163" t="s">
+        <v>13</v>
+      </c>
+      <c r="L163" t="s">
+        <v>13</v>
+      </c>
+      <c r="M163" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A164" s="1">
+        <v>43623</v>
+      </c>
+      <c r="B164">
+        <v>15</v>
+      </c>
+      <c r="C164">
+        <v>278679</v>
+      </c>
+      <c r="D164">
+        <v>5188995</v>
+      </c>
+      <c r="E164" t="s">
+        <v>13</v>
+      </c>
+      <c r="F164" t="s">
+        <v>13</v>
+      </c>
+      <c r="G164" t="s">
+        <v>13</v>
+      </c>
+      <c r="H164" t="s">
+        <v>13</v>
+      </c>
+      <c r="I164" t="s">
+        <v>13</v>
+      </c>
+      <c r="J164" t="s">
+        <v>13</v>
+      </c>
+      <c r="K164" t="s">
+        <v>13</v>
+      </c>
+      <c r="L164" t="s">
+        <v>13</v>
+      </c>
+      <c r="M164" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A165" s="1">
+        <v>43623</v>
+      </c>
+      <c r="B165">
+        <v>16</v>
+      </c>
+      <c r="C165">
+        <v>278811</v>
+      </c>
+      <c r="D165">
+        <v>5189053</v>
+      </c>
+      <c r="E165" t="s">
+        <v>13</v>
+      </c>
+      <c r="F165" t="s">
+        <v>13</v>
+      </c>
+      <c r="G165" t="s">
+        <v>13</v>
+      </c>
+      <c r="H165" t="s">
+        <v>13</v>
+      </c>
+      <c r="I165" t="s">
+        <v>13</v>
+      </c>
+      <c r="J165" t="s">
+        <v>13</v>
+      </c>
+      <c r="K165" t="s">
+        <v>13</v>
+      </c>
+      <c r="L165" t="s">
+        <v>13</v>
+      </c>
+      <c r="M165" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A166" s="1">
+        <v>43615</v>
+      </c>
+      <c r="B166">
+        <v>17</v>
+      </c>
+      <c r="C166">
+        <v>278876</v>
+      </c>
+      <c r="D166">
+        <v>5188999</v>
+      </c>
+      <c r="E166" t="s">
+        <v>14</v>
+      </c>
+      <c r="F166" t="s">
+        <v>67</v>
+      </c>
+      <c r="G166" t="s">
+        <v>68</v>
+      </c>
+      <c r="H166" t="s">
+        <v>69</v>
+      </c>
+      <c r="I166">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="J166">
+        <v>32</v>
+      </c>
+      <c r="K166" t="s">
+        <v>13</v>
+      </c>
+      <c r="L166">
+        <v>10.7</v>
+      </c>
+      <c r="M166">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A167" s="1">
+        <v>43615</v>
+      </c>
+      <c r="E167" t="s">
+        <v>21</v>
+      </c>
+      <c r="F167" t="s">
+        <v>32</v>
+      </c>
+      <c r="G167" t="s">
+        <v>33</v>
+      </c>
+      <c r="H167" t="s">
+        <v>69</v>
+      </c>
+      <c r="I167">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="J167">
+        <v>242</v>
+      </c>
+      <c r="K167">
+        <v>1</v>
+      </c>
+      <c r="L167" t="s">
+        <v>13</v>
+      </c>
+      <c r="M167" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A168" s="1">
+        <v>43621</v>
+      </c>
+      <c r="B168">
+        <v>18</v>
+      </c>
+      <c r="C168">
+        <v>278980</v>
+      </c>
+      <c r="D168">
+        <v>5188950</v>
+      </c>
+      <c r="E168" t="s">
+        <v>13</v>
+      </c>
+      <c r="F168" t="s">
+        <v>13</v>
+      </c>
+      <c r="G168" t="s">
+        <v>13</v>
+      </c>
+      <c r="H168" t="s">
+        <v>13</v>
+      </c>
+      <c r="I168" t="s">
+        <v>13</v>
+      </c>
+      <c r="J168" t="s">
+        <v>13</v>
+      </c>
+      <c r="K168" t="s">
+        <v>13</v>
+      </c>
+      <c r="L168" t="s">
+        <v>13</v>
+      </c>
+      <c r="M168" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A169" s="1">
+        <v>43621</v>
+      </c>
+      <c r="B169">
+        <v>19</v>
+      </c>
+      <c r="C169">
+        <v>279141</v>
+      </c>
+      <c r="D169">
+        <v>5189034</v>
+      </c>
+      <c r="E169" t="s">
+        <v>13</v>
+      </c>
+      <c r="F169" t="s">
+        <v>13</v>
+      </c>
+      <c r="G169" t="s">
+        <v>13</v>
+      </c>
+      <c r="H169" t="s">
+        <v>13</v>
+      </c>
+      <c r="I169" t="s">
+        <v>13</v>
+      </c>
+      <c r="J169" t="s">
+        <v>13</v>
+      </c>
+      <c r="K169" t="s">
+        <v>13</v>
+      </c>
+      <c r="L169" t="s">
+        <v>13</v>
+      </c>
+      <c r="M169" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A170" s="1">
+        <v>43623</v>
+      </c>
+      <c r="B170">
+        <v>20</v>
+      </c>
+      <c r="C170">
+        <v>278718</v>
+      </c>
+      <c r="D170">
+        <v>5188835</v>
+      </c>
+      <c r="E170" t="s">
+        <v>13</v>
+      </c>
+      <c r="F170" t="s">
+        <v>13</v>
+      </c>
+      <c r="G170" t="s">
+        <v>13</v>
+      </c>
+      <c r="H170" t="s">
+        <v>13</v>
+      </c>
+      <c r="I170" t="s">
+        <v>13</v>
+      </c>
+      <c r="J170" t="s">
+        <v>13</v>
+      </c>
+      <c r="K170" t="s">
+        <v>13</v>
+      </c>
+      <c r="L170" t="s">
+        <v>13</v>
+      </c>
+      <c r="M170" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A171" s="1">
+        <v>43615</v>
+      </c>
+      <c r="B171">
+        <v>21</v>
+      </c>
+      <c r="C171">
+        <v>278848</v>
+      </c>
+      <c r="D171">
+        <v>51888337</v>
+      </c>
+      <c r="E171" t="s">
+        <v>13</v>
+      </c>
+      <c r="F171" t="s">
+        <v>13</v>
+      </c>
+      <c r="G171" t="s">
+        <v>13</v>
+      </c>
+      <c r="H171" t="s">
+        <v>13</v>
+      </c>
+      <c r="I171" t="s">
+        <v>13</v>
+      </c>
+      <c r="J171" t="s">
+        <v>13</v>
+      </c>
+      <c r="K171" t="s">
+        <v>13</v>
+      </c>
+      <c r="L171" t="s">
+        <v>13</v>
+      </c>
+      <c r="M171" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A172" s="1">
+        <v>43615</v>
+      </c>
+      <c r="B172">
+        <v>22</v>
+      </c>
+      <c r="C172">
+        <v>278773</v>
+      </c>
+      <c r="D172">
+        <v>5188769</v>
+      </c>
+      <c r="E172" t="s">
+        <v>14</v>
+      </c>
+      <c r="F172" t="s">
+        <v>70</v>
+      </c>
+      <c r="G172" t="s">
+        <v>71</v>
+      </c>
+      <c r="H172" t="s">
+        <v>72</v>
+      </c>
+      <c r="I172">
+        <v>1.93</v>
+      </c>
+      <c r="J172">
+        <v>20</v>
+      </c>
+      <c r="K172" t="s">
+        <v>13</v>
+      </c>
+      <c r="L172">
+        <v>17.7</v>
+      </c>
+      <c r="M172">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A173" s="1">
+        <v>43615</v>
+      </c>
+      <c r="B173">
+        <v>22</v>
+      </c>
+      <c r="C173">
+        <v>278773</v>
+      </c>
+      <c r="D173">
+        <v>5188769</v>
+      </c>
+      <c r="E173" t="s">
+        <v>14</v>
+      </c>
+      <c r="F173" t="s">
+        <v>70</v>
+      </c>
+      <c r="G173" t="s">
+        <v>71</v>
+      </c>
+      <c r="H173" t="s">
+        <v>72</v>
+      </c>
+      <c r="I173">
+        <v>4.5</v>
+      </c>
+      <c r="J173">
+        <v>22</v>
+      </c>
+      <c r="K173" t="s">
+        <v>13</v>
+      </c>
+      <c r="L173">
+        <v>18.5</v>
+      </c>
+      <c r="M173">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A174" s="1">
+        <v>43615</v>
+      </c>
+      <c r="B174">
+        <v>22</v>
+      </c>
+      <c r="C174">
+        <v>278773</v>
+      </c>
+      <c r="D174">
+        <v>5188769</v>
+      </c>
+      <c r="E174" t="s">
+        <v>14</v>
+      </c>
+      <c r="F174" t="s">
+        <v>70</v>
+      </c>
+      <c r="G174" t="s">
+        <v>71</v>
+      </c>
+      <c r="H174" t="s">
+        <v>72</v>
+      </c>
+      <c r="I174">
+        <v>3.9</v>
+      </c>
+      <c r="J174">
+        <v>148</v>
+      </c>
+      <c r="K174" t="s">
+        <v>13</v>
+      </c>
+      <c r="L174">
+        <v>17.5</v>
+      </c>
+      <c r="M174">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A175" s="1">
+        <v>43615</v>
+      </c>
+      <c r="B175">
+        <v>22</v>
+      </c>
+      <c r="C175">
+        <v>278773</v>
+      </c>
+      <c r="D175">
+        <v>5188769</v>
+      </c>
+      <c r="E175" t="s">
+        <v>14</v>
+      </c>
+      <c r="F175" t="s">
+        <v>70</v>
+      </c>
+      <c r="G175" t="s">
+        <v>71</v>
+      </c>
+      <c r="H175" t="s">
+        <v>72</v>
+      </c>
+      <c r="I175">
+        <v>3.3</v>
+      </c>
+      <c r="J175">
+        <v>156</v>
+      </c>
+      <c r="K175" t="s">
+        <v>13</v>
+      </c>
+      <c r="L175">
+        <v>13.7</v>
+      </c>
+      <c r="M175">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A176" s="1">
+        <v>43615</v>
+      </c>
+      <c r="B176">
+        <v>22</v>
+      </c>
+      <c r="C176">
+        <v>278773</v>
+      </c>
+      <c r="D176">
+        <v>5188769</v>
+      </c>
+      <c r="E176" t="s">
+        <v>14</v>
+      </c>
+      <c r="F176" t="s">
+        <v>70</v>
+      </c>
+      <c r="G176" t="s">
+        <v>71</v>
+      </c>
+      <c r="H176" t="s">
+        <v>72</v>
+      </c>
+      <c r="I176">
+        <v>1.75</v>
+      </c>
+      <c r="J176">
+        <v>170</v>
+      </c>
+      <c r="K176" t="s">
+        <v>13</v>
+      </c>
+      <c r="L176">
+        <v>10.8</v>
+      </c>
+      <c r="M176">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A177" s="1">
+        <v>43615</v>
+      </c>
+      <c r="B177">
+        <v>23</v>
+      </c>
+      <c r="C177">
+        <v>278789</v>
+      </c>
+      <c r="D177">
+        <v>5188736</v>
+      </c>
+      <c r="E177" t="s">
+        <v>13</v>
+      </c>
+      <c r="F177" t="s">
+        <v>13</v>
+      </c>
+      <c r="G177" t="s">
+        <v>13</v>
+      </c>
+      <c r="H177" t="s">
+        <v>13</v>
+      </c>
+      <c r="I177" t="s">
+        <v>13</v>
+      </c>
+      <c r="J177" t="s">
+        <v>13</v>
+      </c>
+      <c r="K177" t="s">
+        <v>13</v>
+      </c>
+      <c r="L177" t="s">
+        <v>13</v>
+      </c>
+      <c r="M177" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A178" s="1">
+        <v>43621</v>
+      </c>
+      <c r="B178">
+        <v>24</v>
+      </c>
+      <c r="C178">
+        <v>279003.09999999998</v>
+      </c>
+      <c r="D178">
+        <v>5188708</v>
+      </c>
+      <c r="E178" t="s">
+        <v>13</v>
+      </c>
+      <c r="F178" t="s">
+        <v>13</v>
+      </c>
+      <c r="G178" t="s">
+        <v>13</v>
+      </c>
+      <c r="H178" t="s">
+        <v>13</v>
+      </c>
+      <c r="I178" t="s">
+        <v>13</v>
+      </c>
+      <c r="J178" t="s">
+        <v>13</v>
+      </c>
+      <c r="K178" t="s">
+        <v>13</v>
+      </c>
+      <c r="L178" t="s">
+        <v>13</v>
+      </c>
+      <c r="M178" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A179" s="1">
+        <v>43621</v>
+      </c>
+      <c r="B179">
+        <v>25</v>
+      </c>
+      <c r="C179">
+        <v>279126</v>
+      </c>
+      <c r="D179">
+        <v>5188787</v>
+      </c>
+      <c r="E179" t="s">
+        <v>13</v>
+      </c>
+      <c r="F179" t="s">
+        <v>13</v>
+      </c>
+      <c r="G179" t="s">
+        <v>13</v>
+      </c>
+      <c r="H179" t="s">
+        <v>13</v>
+      </c>
+      <c r="I179" t="s">
+        <v>13</v>
+      </c>
+      <c r="J179" t="s">
+        <v>13</v>
+      </c>
+      <c r="K179" t="s">
+        <v>13</v>
+      </c>
+      <c r="L179" t="s">
+        <v>13</v>
+      </c>
+      <c r="M179" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A180" s="1">
+        <v>43621</v>
+      </c>
+      <c r="B180">
+        <v>27</v>
+      </c>
+      <c r="C180">
+        <v>278797</v>
+      </c>
+      <c r="D180">
+        <v>5188565</v>
+      </c>
+      <c r="E180" t="s">
+        <v>13</v>
+      </c>
+      <c r="F180" t="s">
+        <v>13</v>
+      </c>
+      <c r="G180" t="s">
+        <v>13</v>
+      </c>
+      <c r="H180" t="s">
+        <v>13</v>
+      </c>
+      <c r="I180" t="s">
+        <v>13</v>
+      </c>
+      <c r="J180" t="s">
+        <v>13</v>
+      </c>
+      <c r="K180" t="s">
+        <v>13</v>
+      </c>
+      <c r="L180" t="s">
+        <v>13</v>
+      </c>
+      <c r="M180" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A181" s="1">
+        <v>43621</v>
+      </c>
+      <c r="B181">
+        <v>28</v>
+      </c>
+      <c r="C181">
+        <v>278903</v>
+      </c>
+      <c r="D181">
+        <v>5188541</v>
+      </c>
+      <c r="E181" t="s">
+        <v>14</v>
+      </c>
+      <c r="F181" t="s">
+        <v>73</v>
+      </c>
+      <c r="G181" t="s">
+        <v>49</v>
+      </c>
+      <c r="H181" t="s">
+        <v>50</v>
+      </c>
+      <c r="I181">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="J181">
+        <v>3</v>
+      </c>
+      <c r="K181" t="s">
+        <v>13</v>
+      </c>
+      <c r="L181">
+        <v>7.3</v>
+      </c>
+      <c r="M181">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A182" s="1">
+        <v>43621</v>
+      </c>
+      <c r="B182">
+        <v>28</v>
+      </c>
+      <c r="C182">
+        <v>278903</v>
+      </c>
+      <c r="D182">
+        <v>5188541</v>
+      </c>
+      <c r="E182" t="s">
+        <v>14</v>
+      </c>
+      <c r="F182" t="s">
+        <v>74</v>
+      </c>
+      <c r="G182" t="s">
+        <v>80</v>
+      </c>
+      <c r="H182" t="s">
+        <v>81</v>
+      </c>
+      <c r="I182">
+        <v>3.05</v>
+      </c>
+      <c r="J182">
+        <v>4</v>
+      </c>
+      <c r="K182" t="s">
+        <v>13</v>
+      </c>
+      <c r="L182">
+        <v>2.4</v>
+      </c>
+      <c r="M182" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A183" s="1">
+        <v>43621</v>
+      </c>
+      <c r="B183">
+        <v>28</v>
+      </c>
+      <c r="C183">
+        <v>278903</v>
+      </c>
+      <c r="D183">
+        <v>5188541</v>
+      </c>
+      <c r="E183" t="s">
+        <v>14</v>
+      </c>
+      <c r="F183" t="s">
+        <v>74</v>
+      </c>
+      <c r="G183" t="s">
+        <v>80</v>
+      </c>
+      <c r="H183" t="s">
+        <v>81</v>
+      </c>
+      <c r="I183">
+        <v>1.52</v>
+      </c>
+      <c r="J183">
+        <v>40</v>
+      </c>
+      <c r="K183" t="s">
+        <v>13</v>
+      </c>
+      <c r="L183">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M183" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A184" s="1">
+        <v>43621</v>
+      </c>
+      <c r="B184">
+        <v>28</v>
+      </c>
+      <c r="C184">
+        <v>278903</v>
+      </c>
+      <c r="D184">
+        <v>5188541</v>
+      </c>
+      <c r="E184" t="s">
+        <v>14</v>
+      </c>
+      <c r="F184" t="s">
+        <v>75</v>
+      </c>
+      <c r="G184" t="s">
+        <v>49</v>
+      </c>
+      <c r="H184" t="s">
+        <v>77</v>
+      </c>
+      <c r="I184">
+        <v>3.6</v>
+      </c>
+      <c r="J184">
+        <v>237</v>
+      </c>
+      <c r="K184" t="s">
+        <v>13</v>
+      </c>
+      <c r="L184">
+        <v>24.2</v>
+      </c>
+      <c r="M184">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A185" s="1">
+        <v>43621</v>
+      </c>
+      <c r="B185">
+        <v>28</v>
+      </c>
+      <c r="C185">
+        <v>278903</v>
+      </c>
+      <c r="D185">
+        <v>5188541</v>
+      </c>
+      <c r="E185" t="s">
+        <v>14</v>
+      </c>
+      <c r="F185" t="s">
+        <v>76</v>
+      </c>
+      <c r="G185" t="s">
+        <v>78</v>
+      </c>
+      <c r="H185" t="s">
+        <v>79</v>
+      </c>
+      <c r="I185">
+        <v>5</v>
+      </c>
+      <c r="J185">
+        <v>252</v>
+      </c>
+      <c r="K185" t="s">
+        <v>13</v>
+      </c>
+      <c r="L185">
+        <v>9</v>
+      </c>
+      <c r="M185">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A186" s="1">
+        <v>43621</v>
+      </c>
+      <c r="B186">
+        <v>28</v>
+      </c>
+      <c r="C186">
+        <v>278903</v>
+      </c>
+      <c r="D186">
+        <v>5188541</v>
+      </c>
+      <c r="E186" t="s">
+        <v>21</v>
+      </c>
+      <c r="F186" t="s">
+        <v>74</v>
+      </c>
+      <c r="G186" t="s">
+        <v>80</v>
+      </c>
+      <c r="H186" t="s">
+        <v>81</v>
+      </c>
+      <c r="I186">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="J186">
+        <v>92</v>
+      </c>
+      <c r="K186">
+        <v>1</v>
+      </c>
+      <c r="L186" t="s">
+        <v>13</v>
+      </c>
+      <c r="M186" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A187" s="1">
+        <v>43621</v>
+      </c>
+      <c r="B187">
+        <v>28</v>
+      </c>
+      <c r="C187">
+        <v>278903</v>
+      </c>
+      <c r="D187">
+        <v>5188541</v>
+      </c>
+      <c r="E187" t="s">
+        <v>21</v>
+      </c>
+      <c r="F187" t="s">
+        <v>74</v>
+      </c>
+      <c r="G187" t="s">
+        <v>82</v>
+      </c>
+      <c r="H187" t="s">
+        <v>81</v>
+      </c>
+      <c r="I187">
+        <v>3.2</v>
+      </c>
+      <c r="J187">
+        <v>132</v>
+      </c>
+      <c r="K187">
+        <v>1</v>
+      </c>
+      <c r="L187" t="s">
+        <v>13</v>
+      </c>
+      <c r="M187" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A188" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B188">
+        <v>26</v>
+      </c>
+      <c r="C188">
+        <v>278670.7</v>
+      </c>
+      <c r="D188">
+        <v>5188677</v>
+      </c>
+      <c r="E188" t="s">
+        <v>14</v>
+      </c>
+      <c r="F188" t="s">
+        <v>83</v>
+      </c>
+      <c r="G188" t="s">
+        <v>19</v>
+      </c>
+      <c r="H188" t="s">
+        <v>20</v>
+      </c>
+      <c r="I188">
+        <v>1</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188" t="s">
+        <v>13</v>
+      </c>
+      <c r="L188">
+        <v>2.9</v>
+      </c>
+      <c r="M188" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A189" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B189">
+        <v>26</v>
+      </c>
+      <c r="C189">
+        <v>278670.7</v>
+      </c>
+      <c r="D189">
+        <v>5188677</v>
+      </c>
+      <c r="E189" t="s">
+        <v>14</v>
+      </c>
+      <c r="F189" t="s">
+        <v>38</v>
+      </c>
+      <c r="G189" t="s">
+        <v>31</v>
+      </c>
+      <c r="H189" t="s">
+        <v>48</v>
+      </c>
+      <c r="I189">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189" t="s">
+        <v>13</v>
+      </c>
+      <c r="L189">
+        <v>32.6</v>
+      </c>
+      <c r="M189">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A190" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B190">
+        <v>26</v>
+      </c>
+      <c r="C190">
+        <v>278670.7</v>
+      </c>
+      <c r="D190">
+        <v>5188677</v>
+      </c>
+      <c r="E190" t="s">
+        <v>14</v>
+      </c>
+      <c r="F190" t="s">
+        <v>32</v>
+      </c>
+      <c r="G190" t="s">
+        <v>33</v>
+      </c>
+      <c r="H190" t="s">
+        <v>34</v>
+      </c>
+      <c r="I190">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="J190">
+        <v>38</v>
+      </c>
+      <c r="K190" t="s">
+        <v>13</v>
+      </c>
+      <c r="L190">
+        <v>2.7</v>
+      </c>
+      <c r="M190" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A191" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B191">
+        <v>26</v>
+      </c>
+      <c r="C191">
+        <v>278670.7</v>
+      </c>
+      <c r="D191">
+        <v>5188677</v>
+      </c>
+      <c r="E191" t="s">
+        <v>14</v>
+      </c>
+      <c r="F191" t="s">
+        <v>40</v>
+      </c>
+      <c r="G191" t="s">
+        <v>46</v>
+      </c>
+      <c r="H191" t="s">
+        <v>84</v>
+      </c>
+      <c r="I191">
+        <v>4.99</v>
+      </c>
+      <c r="J191">
+        <v>40</v>
+      </c>
+      <c r="K191" t="s">
+        <v>13</v>
+      </c>
+      <c r="L191">
+        <v>16</v>
+      </c>
+      <c r="M191">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A192" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B192">
+        <v>26</v>
+      </c>
+      <c r="C192">
+        <v>278670.7</v>
+      </c>
+      <c r="D192">
+        <v>5188677</v>
+      </c>
+      <c r="E192" t="s">
+        <v>14</v>
+      </c>
+      <c r="F192" t="s">
+        <v>58</v>
+      </c>
+      <c r="G192" t="s">
+        <v>52</v>
+      </c>
+      <c r="H192" t="s">
+        <v>53</v>
+      </c>
+      <c r="I192">
+        <v>4.83</v>
+      </c>
+      <c r="J192">
+        <v>56</v>
+      </c>
+      <c r="K192" t="s">
+        <v>13</v>
+      </c>
+      <c r="L192">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M192" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A193" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B193">
+        <v>26</v>
+      </c>
+      <c r="C193">
+        <v>278670.7</v>
+      </c>
+      <c r="D193">
+        <v>5188677</v>
+      </c>
+      <c r="E193" t="s">
+        <v>14</v>
+      </c>
+      <c r="F193" t="s">
+        <v>35</v>
+      </c>
+      <c r="G193" t="s">
+        <v>36</v>
+      </c>
+      <c r="H193" t="s">
+        <v>34</v>
+      </c>
+      <c r="I193">
+        <v>2.74</v>
+      </c>
+      <c r="J193">
+        <v>112</v>
+      </c>
+      <c r="K193" t="s">
+        <v>13</v>
+      </c>
+      <c r="L193">
+        <v>5.8</v>
+      </c>
+      <c r="M193">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A194" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B194">
+        <v>26</v>
+      </c>
+      <c r="C194">
+        <v>278670.7</v>
+      </c>
+      <c r="D194">
+        <v>5188677</v>
+      </c>
+      <c r="E194" t="s">
+        <v>14</v>
+      </c>
+      <c r="F194" t="s">
+        <v>37</v>
+      </c>
+      <c r="G194" t="s">
+        <v>41</v>
+      </c>
+      <c r="H194" t="s">
+        <v>42</v>
+      </c>
+      <c r="I194">
+        <v>1.5</v>
+      </c>
+      <c r="J194">
+        <v>120</v>
+      </c>
+      <c r="K194" t="s">
+        <v>13</v>
+      </c>
+      <c r="L194">
+        <v>12.4</v>
+      </c>
+      <c r="M194">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A195" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B195">
+        <v>26</v>
+      </c>
+      <c r="C195">
+        <v>278670.7</v>
+      </c>
+      <c r="D195">
+        <v>5188677</v>
+      </c>
+      <c r="E195" t="s">
+        <v>14</v>
+      </c>
+      <c r="F195" t="s">
+        <v>38</v>
+      </c>
+      <c r="G195" t="s">
+        <v>31</v>
+      </c>
+      <c r="H195" t="s">
+        <v>48</v>
+      </c>
+      <c r="I195">
+        <v>2.52</v>
+      </c>
+      <c r="J195">
+        <v>140</v>
+      </c>
+      <c r="K195" t="s">
+        <v>13</v>
+      </c>
+      <c r="L195">
+        <v>2.8</v>
+      </c>
+      <c r="M195" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A196" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B196">
+        <v>26</v>
+      </c>
+      <c r="C196">
+        <v>278670.7</v>
+      </c>
+      <c r="D196">
+        <v>5188677</v>
+      </c>
+      <c r="E196" t="s">
+        <v>14</v>
+      </c>
+      <c r="F196" t="s">
+        <v>58</v>
+      </c>
+      <c r="G196" t="s">
+        <v>52</v>
+      </c>
+      <c r="H196" t="s">
+        <v>53</v>
+      </c>
+      <c r="I196">
+        <v>2.9</v>
+      </c>
+      <c r="J196">
+        <v>158</v>
+      </c>
+      <c r="K196" t="s">
+        <v>13</v>
+      </c>
+      <c r="L196">
+        <v>2.8</v>
+      </c>
+      <c r="M196" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A197" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B197">
+        <v>26</v>
+      </c>
+      <c r="C197">
+        <v>278670.7</v>
+      </c>
+      <c r="D197">
+        <v>5188677</v>
+      </c>
+      <c r="E197" t="s">
+        <v>14</v>
+      </c>
+      <c r="F197" t="s">
+        <v>58</v>
+      </c>
+      <c r="G197" t="s">
+        <v>52</v>
+      </c>
+      <c r="H197" t="s">
+        <v>53</v>
+      </c>
+      <c r="I197">
+        <v>4.3</v>
+      </c>
+      <c r="J197">
+        <v>158</v>
+      </c>
+      <c r="K197" t="s">
+        <v>13</v>
+      </c>
+      <c r="L197">
+        <v>3.2</v>
+      </c>
+      <c r="M197" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A198" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B198">
+        <v>26</v>
+      </c>
+      <c r="C198">
+        <v>278670.7</v>
+      </c>
+      <c r="D198">
+        <v>5188677</v>
+      </c>
+      <c r="E198" t="s">
+        <v>14</v>
+      </c>
+      <c r="F198" t="s">
+        <v>58</v>
+      </c>
+      <c r="G198" t="s">
+        <v>52</v>
+      </c>
+      <c r="H198" t="s">
+        <v>53</v>
+      </c>
+      <c r="I198">
+        <v>3.15</v>
+      </c>
+      <c r="J198">
+        <v>158</v>
+      </c>
+      <c r="K198" t="s">
+        <v>13</v>
+      </c>
+      <c r="L198">
+        <v>3.8</v>
+      </c>
+      <c r="M198" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A199" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B199">
+        <v>26</v>
+      </c>
+      <c r="C199">
+        <v>278670.7</v>
+      </c>
+      <c r="D199">
+        <v>5188677</v>
+      </c>
+      <c r="E199" t="s">
+        <v>14</v>
+      </c>
+      <c r="F199" t="s">
+        <v>38</v>
+      </c>
+      <c r="G199" t="s">
+        <v>31</v>
+      </c>
+      <c r="H199" t="s">
+        <v>48</v>
+      </c>
+      <c r="I199">
+        <v>3.1</v>
+      </c>
+      <c r="J199">
+        <v>164</v>
+      </c>
+      <c r="K199" t="s">
+        <v>13</v>
+      </c>
+      <c r="L199">
+        <v>2.6</v>
+      </c>
+      <c r="M199" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A200" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B200">
+        <v>26</v>
+      </c>
+      <c r="C200">
+        <v>278670.7</v>
+      </c>
+      <c r="D200">
+        <v>5188677</v>
+      </c>
+      <c r="E200" t="s">
+        <v>14</v>
+      </c>
+      <c r="F200" t="s">
+        <v>37</v>
+      </c>
+      <c r="G200" t="s">
+        <v>41</v>
+      </c>
+      <c r="H200" t="s">
+        <v>42</v>
+      </c>
+      <c r="I200">
+        <v>4.43</v>
+      </c>
+      <c r="J200">
+        <v>170</v>
+      </c>
+      <c r="K200" t="s">
+        <v>13</v>
+      </c>
+      <c r="L200">
+        <v>3.8</v>
+      </c>
+      <c r="M200" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A201" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B201">
+        <v>26</v>
+      </c>
+      <c r="C201">
+        <v>278670.7</v>
+      </c>
+      <c r="D201">
+        <v>5188677</v>
+      </c>
+      <c r="E201" t="s">
+        <v>14</v>
+      </c>
+      <c r="F201" t="s">
+        <v>37</v>
+      </c>
+      <c r="G201" t="s">
+        <v>41</v>
+      </c>
+      <c r="H201" t="s">
+        <v>42</v>
+      </c>
+      <c r="I201">
+        <v>3.55</v>
+      </c>
+      <c r="J201">
+        <v>170</v>
+      </c>
+      <c r="K201" t="s">
+        <v>13</v>
+      </c>
+      <c r="L201">
+        <v>3.7</v>
+      </c>
+      <c r="M201" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A202" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B202">
+        <v>26</v>
+      </c>
+      <c r="C202">
+        <v>278670.7</v>
+      </c>
+      <c r="D202">
+        <v>5188677</v>
+      </c>
+      <c r="E202" t="s">
+        <v>14</v>
+      </c>
+      <c r="F202" t="s">
+        <v>83</v>
+      </c>
+      <c r="G202" t="s">
+        <v>19</v>
+      </c>
+      <c r="H202" t="s">
+        <v>20</v>
+      </c>
+      <c r="I202">
+        <v>0.84</v>
+      </c>
+      <c r="J202">
+        <v>186</v>
+      </c>
+      <c r="K202" t="s">
+        <v>13</v>
+      </c>
+      <c r="L202">
+        <v>2.8</v>
+      </c>
+      <c r="M202" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A203" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B203">
+        <v>26</v>
+      </c>
+      <c r="C203">
+        <v>278670.7</v>
+      </c>
+      <c r="D203">
+        <v>5188677</v>
+      </c>
+      <c r="E203" t="s">
+        <v>14</v>
+      </c>
+      <c r="F203" t="s">
+        <v>83</v>
+      </c>
+      <c r="G203" t="s">
+        <v>19</v>
+      </c>
+      <c r="H203" t="s">
+        <v>20</v>
+      </c>
+      <c r="I203">
+        <v>1.95</v>
+      </c>
+      <c r="J203">
+        <v>194</v>
+      </c>
+      <c r="K203" t="s">
+        <v>13</v>
+      </c>
+      <c r="L203">
+        <v>11.5</v>
+      </c>
+      <c r="M203">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A204" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B204">
+        <v>26</v>
+      </c>
+      <c r="C204">
+        <v>278670.7</v>
+      </c>
+      <c r="D204">
+        <v>5188677</v>
+      </c>
+      <c r="E204" t="s">
+        <v>14</v>
+      </c>
+      <c r="F204" t="s">
+        <v>58</v>
+      </c>
+      <c r="G204" t="s">
+        <v>52</v>
+      </c>
+      <c r="H204" t="s">
+        <v>53</v>
+      </c>
+      <c r="I204">
+        <v>1.88</v>
+      </c>
+      <c r="J204">
+        <v>212</v>
+      </c>
+      <c r="K204" t="s">
+        <v>13</v>
+      </c>
+      <c r="L204">
+        <v>2.7</v>
+      </c>
+      <c r="M204" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A205" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B205">
+        <v>26</v>
+      </c>
+      <c r="C205">
+        <v>278670.7</v>
+      </c>
+      <c r="D205">
+        <v>5188677</v>
+      </c>
+      <c r="E205" t="s">
+        <v>14</v>
+      </c>
+      <c r="F205" t="s">
+        <v>83</v>
+      </c>
+      <c r="G205" t="s">
+        <v>19</v>
+      </c>
+      <c r="H205" t="s">
+        <v>20</v>
+      </c>
+      <c r="I205">
+        <v>4.18</v>
+      </c>
+      <c r="J205">
+        <v>212</v>
+      </c>
+      <c r="K205" t="s">
+        <v>13</v>
+      </c>
+      <c r="L205">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="M205">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A206" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B206">
+        <v>26</v>
+      </c>
+      <c r="C206">
+        <v>278670.7</v>
+      </c>
+      <c r="D206">
+        <v>5188677</v>
+      </c>
+      <c r="E206" t="s">
+        <v>14</v>
+      </c>
+      <c r="F206" t="s">
+        <v>83</v>
+      </c>
+      <c r="G206" t="s">
+        <v>19</v>
+      </c>
+      <c r="H206" t="s">
+        <v>20</v>
+      </c>
+      <c r="I206">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="J206">
+        <v>218</v>
+      </c>
+      <c r="K206" t="s">
+        <v>13</v>
+      </c>
+      <c r="L206">
+        <v>15.5</v>
+      </c>
+      <c r="M206">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A207" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B207">
+        <v>26</v>
+      </c>
+      <c r="C207">
+        <v>278670.7</v>
+      </c>
+      <c r="D207">
+        <v>5188677</v>
+      </c>
+      <c r="E207" t="s">
+        <v>14</v>
+      </c>
+      <c r="F207" t="s">
+        <v>83</v>
+      </c>
+      <c r="G207" t="s">
+        <v>19</v>
+      </c>
+      <c r="H207" t="s">
+        <v>20</v>
+      </c>
+      <c r="I207">
+        <v>4.26</v>
+      </c>
+      <c r="J207">
+        <v>288</v>
+      </c>
+      <c r="K207" t="s">
+        <v>13</v>
+      </c>
+      <c r="L207">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="M207">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A208" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B208">
+        <v>26</v>
+      </c>
+      <c r="C208">
+        <v>278670.7</v>
+      </c>
+      <c r="D208">
+        <v>5188677</v>
+      </c>
+      <c r="E208" t="s">
+        <v>14</v>
+      </c>
+      <c r="F208" t="s">
+        <v>83</v>
+      </c>
+      <c r="G208" t="s">
+        <v>19</v>
+      </c>
+      <c r="H208" t="s">
+        <v>20</v>
+      </c>
+      <c r="I208">
+        <v>4.54</v>
+      </c>
+      <c r="J208">
+        <v>290</v>
+      </c>
+      <c r="K208" t="s">
+        <v>13</v>
+      </c>
+      <c r="L208">
+        <v>23</v>
+      </c>
+      <c r="M208">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A209" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B209">
+        <v>26</v>
+      </c>
+      <c r="C209">
+        <v>278670.7</v>
+      </c>
+      <c r="D209">
+        <v>5188677</v>
+      </c>
+      <c r="E209" t="s">
+        <v>14</v>
+      </c>
+      <c r="F209" t="s">
+        <v>40</v>
+      </c>
+      <c r="G209" t="s">
+        <v>46</v>
+      </c>
+      <c r="H209" t="s">
+        <v>47</v>
+      </c>
+      <c r="I209">
+        <v>5</v>
+      </c>
+      <c r="J209">
+        <v>292</v>
+      </c>
+      <c r="K209" t="s">
+        <v>13</v>
+      </c>
+      <c r="L209">
+        <v>5.6</v>
+      </c>
+      <c r="M209">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A210" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B210">
+        <v>26</v>
+      </c>
+      <c r="C210">
+        <v>278670.7</v>
+      </c>
+      <c r="D210">
+        <v>5188677</v>
+      </c>
+      <c r="E210" t="s">
+        <v>14</v>
+      </c>
+      <c r="F210" t="s">
+        <v>83</v>
+      </c>
+      <c r="G210" t="s">
+        <v>19</v>
+      </c>
+      <c r="H210" t="s">
+        <v>20</v>
+      </c>
+      <c r="I210">
+        <v>2.86</v>
+      </c>
+      <c r="J210">
+        <v>308</v>
+      </c>
+      <c r="K210" t="s">
+        <v>13</v>
+      </c>
+      <c r="L210">
+        <v>20.9</v>
+      </c>
+      <c r="M210">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A211" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B211">
+        <v>26</v>
+      </c>
+      <c r="C211">
+        <v>278670.7</v>
+      </c>
+      <c r="D211">
+        <v>5188677</v>
+      </c>
+      <c r="E211" t="s">
+        <v>14</v>
+      </c>
+      <c r="F211" t="s">
+        <v>85</v>
+      </c>
+      <c r="G211" t="s">
+        <v>56</v>
+      </c>
+      <c r="H211" t="s">
+        <v>86</v>
+      </c>
+      <c r="I211">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="J211">
+        <v>324</v>
+      </c>
+      <c r="K211" t="s">
+        <v>13</v>
+      </c>
+      <c r="L211">
+        <v>3.3</v>
+      </c>
+      <c r="M211" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A212" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B212">
+        <v>26</v>
+      </c>
+      <c r="C212">
+        <v>278670.7</v>
+      </c>
+      <c r="D212">
+        <v>5188677</v>
+      </c>
+      <c r="E212" t="s">
+        <v>14</v>
+      </c>
+      <c r="F212" t="s">
+        <v>15</v>
+      </c>
+      <c r="G212" t="s">
+        <v>31</v>
+      </c>
+      <c r="H212" t="s">
+        <v>17</v>
+      </c>
+      <c r="I212">
+        <v>1.18</v>
+      </c>
+      <c r="J212">
+        <v>330</v>
+      </c>
+      <c r="K212" t="s">
+        <v>13</v>
+      </c>
+      <c r="L212">
+        <v>5.6</v>
+      </c>
+      <c r="M212">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A213" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B213">
+        <v>26</v>
+      </c>
+      <c r="C213">
+        <v>278670.7</v>
+      </c>
+      <c r="D213">
+        <v>5188677</v>
+      </c>
+      <c r="E213" t="s">
+        <v>14</v>
+      </c>
+      <c r="F213" t="s">
+        <v>83</v>
+      </c>
+      <c r="G213" t="s">
+        <v>19</v>
+      </c>
+      <c r="H213" t="s">
+        <v>20</v>
+      </c>
+      <c r="I213">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="J213">
+        <v>352</v>
+      </c>
+      <c r="K213" t="s">
+        <v>13</v>
+      </c>
+      <c r="L213">
+        <v>13.1</v>
+      </c>
+      <c r="M213">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A214" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B214">
+        <v>26</v>
+      </c>
+      <c r="C214">
+        <v>278670.7</v>
+      </c>
+      <c r="D214">
+        <v>5188677</v>
+      </c>
+      <c r="E214" t="s">
+        <v>14</v>
+      </c>
+      <c r="F214" t="s">
+        <v>83</v>
+      </c>
+      <c r="G214" t="s">
+        <v>19</v>
+      </c>
+      <c r="H214" t="s">
+        <v>20</v>
+      </c>
+      <c r="I214">
+        <v>5</v>
+      </c>
+      <c r="J214">
+        <v>2</v>
+      </c>
+      <c r="K214" t="s">
+        <v>13</v>
+      </c>
+      <c r="L214">
+        <v>9.1</v>
+      </c>
+      <c r="M214">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A215" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B215">
+        <v>26</v>
+      </c>
+      <c r="C215">
+        <v>278670.7</v>
+      </c>
+      <c r="D215">
+        <v>5188677</v>
+      </c>
+      <c r="E215" t="s">
+        <v>14</v>
+      </c>
+      <c r="F215" t="s">
+        <v>38</v>
+      </c>
+      <c r="G215" t="s">
+        <v>31</v>
+      </c>
+      <c r="H215" t="s">
+        <v>48</v>
+      </c>
+      <c r="I215">
+        <v>4.2</v>
+      </c>
+      <c r="J215">
+        <v>4</v>
+      </c>
+      <c r="K215" t="s">
+        <v>13</v>
+      </c>
+      <c r="L215">
+        <v>30.1</v>
+      </c>
+      <c r="M215">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A216" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B216">
+        <v>26</v>
+      </c>
+      <c r="C216">
+        <v>278670.7</v>
+      </c>
+      <c r="D216">
+        <v>5188677</v>
+      </c>
+      <c r="E216" t="s">
+        <v>21</v>
+      </c>
+      <c r="F216" t="s">
+        <v>58</v>
+      </c>
+      <c r="G216" t="s">
+        <v>52</v>
+      </c>
+      <c r="H216" t="s">
+        <v>53</v>
+      </c>
+      <c r="I216">
+        <v>1.6</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <v>1</v>
+      </c>
+      <c r="L216" t="s">
+        <v>13</v>
+      </c>
+      <c r="M216" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A217" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B217">
+        <v>26</v>
+      </c>
+      <c r="C217">
+        <v>278670.7</v>
+      </c>
+      <c r="D217">
+        <v>5188677</v>
+      </c>
+      <c r="E217" t="s">
+        <v>21</v>
+      </c>
+      <c r="F217" t="s">
+        <v>58</v>
+      </c>
+      <c r="G217" t="s">
+        <v>52</v>
+      </c>
+      <c r="H217" t="s">
+        <v>53</v>
+      </c>
+      <c r="I217">
+        <v>3.16</v>
+      </c>
+      <c r="J217">
+        <v>8</v>
+      </c>
+      <c r="K217">
+        <v>1</v>
+      </c>
+      <c r="L217" t="s">
+        <v>13</v>
+      </c>
+      <c r="M217" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A218" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B218">
+        <v>26</v>
+      </c>
+      <c r="C218">
+        <v>278670.7</v>
+      </c>
+      <c r="D218">
+        <v>5188677</v>
+      </c>
+      <c r="E218" t="s">
+        <v>21</v>
+      </c>
+      <c r="F218" t="s">
+        <v>58</v>
+      </c>
+      <c r="G218" t="s">
+        <v>52</v>
+      </c>
+      <c r="H218" t="s">
+        <v>53</v>
+      </c>
+      <c r="I218">
+        <v>3.66</v>
+      </c>
+      <c r="J218">
+        <v>8</v>
+      </c>
+      <c r="K218">
+        <v>1</v>
+      </c>
+      <c r="L218" t="s">
+        <v>13</v>
+      </c>
+      <c r="M218" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A219" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B219">
+        <v>26</v>
+      </c>
+      <c r="C219">
+        <v>278670.7</v>
+      </c>
+      <c r="D219">
+        <v>5188677</v>
+      </c>
+      <c r="E219" t="s">
+        <v>21</v>
+      </c>
+      <c r="F219" t="s">
+        <v>58</v>
+      </c>
+      <c r="G219" t="s">
+        <v>52</v>
+      </c>
+      <c r="H219" t="s">
+        <v>53</v>
+      </c>
+      <c r="I219">
+        <v>4.03</v>
+      </c>
+      <c r="J219">
+        <v>8</v>
+      </c>
+      <c r="K219">
+        <v>2</v>
+      </c>
+      <c r="L219" t="s">
+        <v>13</v>
+      </c>
+      <c r="M219" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A220" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B220">
+        <v>26</v>
+      </c>
+      <c r="C220">
+        <v>278670.7</v>
+      </c>
+      <c r="D220">
+        <v>5188677</v>
+      </c>
+      <c r="E220" t="s">
+        <v>21</v>
+      </c>
+      <c r="F220" t="s">
+        <v>58</v>
+      </c>
+      <c r="G220" t="s">
+        <v>52</v>
+      </c>
+      <c r="H220" t="s">
+        <v>53</v>
+      </c>
+      <c r="I220">
+        <v>3.31</v>
+      </c>
+      <c r="J220">
+        <v>20</v>
+      </c>
+      <c r="K220">
+        <v>1</v>
+      </c>
+      <c r="L220" t="s">
+        <v>13</v>
+      </c>
+      <c r="M220" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A221" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B221">
+        <v>26</v>
+      </c>
+      <c r="C221">
+        <v>278670.7</v>
+      </c>
+      <c r="D221">
+        <v>5188677</v>
+      </c>
+      <c r="E221" t="s">
+        <v>21</v>
+      </c>
+      <c r="F221" t="s">
+        <v>58</v>
+      </c>
+      <c r="G221" t="s">
+        <v>52</v>
+      </c>
+      <c r="H221" t="s">
+        <v>53</v>
+      </c>
+      <c r="I221">
+        <v>2.29</v>
+      </c>
+      <c r="J221">
+        <v>28</v>
+      </c>
+      <c r="K221">
+        <v>1</v>
+      </c>
+      <c r="L221" t="s">
+        <v>13</v>
+      </c>
+      <c r="M221" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A222" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B222">
+        <v>26</v>
+      </c>
+      <c r="C222">
+        <v>278670.7</v>
+      </c>
+      <c r="D222">
+        <v>5188677</v>
+      </c>
+      <c r="E222" t="s">
+        <v>21</v>
+      </c>
+      <c r="F222" t="s">
+        <v>58</v>
+      </c>
+      <c r="G222" t="s">
+        <v>52</v>
+      </c>
+      <c r="H222" t="s">
+        <v>53</v>
+      </c>
+      <c r="I222">
+        <v>2.56</v>
+      </c>
+      <c r="J222">
+        <v>30</v>
+      </c>
+      <c r="K222">
+        <v>1</v>
+      </c>
+      <c r="L222" t="s">
+        <v>13</v>
+      </c>
+      <c r="M222" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A223" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B223">
+        <v>26</v>
+      </c>
+      <c r="C223">
+        <v>278670.7</v>
+      </c>
+      <c r="D223">
+        <v>5188677</v>
+      </c>
+      <c r="E223" t="s">
+        <v>21</v>
+      </c>
+      <c r="F223" t="s">
+        <v>58</v>
+      </c>
+      <c r="G223" t="s">
+        <v>52</v>
+      </c>
+      <c r="H223" t="s">
+        <v>53</v>
+      </c>
+      <c r="I223">
+        <v>0.68</v>
+      </c>
+      <c r="J223">
+        <v>30</v>
+      </c>
+      <c r="K223">
+        <v>1</v>
+      </c>
+      <c r="L223" t="s">
+        <v>13</v>
+      </c>
+      <c r="M223" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A224" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B224">
+        <v>26</v>
+      </c>
+      <c r="C224">
+        <v>278670.7</v>
+      </c>
+      <c r="D224">
+        <v>5188677</v>
+      </c>
+      <c r="E224" t="s">
+        <v>21</v>
+      </c>
+      <c r="F224" t="s">
+        <v>58</v>
+      </c>
+      <c r="G224" t="s">
+        <v>52</v>
+      </c>
+      <c r="H224" t="s">
+        <v>53</v>
+      </c>
+      <c r="I224">
+        <v>2.4</v>
+      </c>
+      <c r="J224">
+        <v>32</v>
+      </c>
+      <c r="K224">
+        <v>1</v>
+      </c>
+      <c r="L224" t="s">
+        <v>13</v>
+      </c>
+      <c r="M224" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A225" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B225">
+        <v>26</v>
+      </c>
+      <c r="C225">
+        <v>278670.7</v>
+      </c>
+      <c r="D225">
+        <v>5188677</v>
+      </c>
+      <c r="E225" t="s">
+        <v>21</v>
+      </c>
+      <c r="F225" t="s">
+        <v>58</v>
+      </c>
+      <c r="G225" t="s">
+        <v>52</v>
+      </c>
+      <c r="H225" t="s">
+        <v>53</v>
+      </c>
+      <c r="I225">
+        <v>1.49</v>
+      </c>
+      <c r="J225">
+        <v>32</v>
+      </c>
+      <c r="K225">
+        <v>1</v>
+      </c>
+      <c r="L225" t="s">
+        <v>13</v>
+      </c>
+      <c r="M225" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A226" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B226">
+        <v>26</v>
+      </c>
+      <c r="C226">
+        <v>278670.7</v>
+      </c>
+      <c r="D226">
+        <v>5188677</v>
+      </c>
+      <c r="E226" t="s">
+        <v>21</v>
+      </c>
+      <c r="F226" t="s">
+        <v>58</v>
+      </c>
+      <c r="G226" t="s">
+        <v>52</v>
+      </c>
+      <c r="H226" t="s">
+        <v>53</v>
+      </c>
+      <c r="I226">
+        <v>1.87</v>
+      </c>
+      <c r="J226">
+        <v>32</v>
+      </c>
+      <c r="K226">
+        <v>1</v>
+      </c>
+      <c r="L226" t="s">
+        <v>13</v>
+      </c>
+      <c r="M226" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A227" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B227">
+        <v>26</v>
+      </c>
+      <c r="C227">
+        <v>278670.7</v>
+      </c>
+      <c r="D227">
+        <v>5188677</v>
+      </c>
+      <c r="E227" t="s">
+        <v>21</v>
+      </c>
+      <c r="F227" t="s">
+        <v>58</v>
+      </c>
+      <c r="G227" t="s">
+        <v>52</v>
+      </c>
+      <c r="H227" t="s">
+        <v>53</v>
+      </c>
+      <c r="I227">
+        <v>3.26</v>
+      </c>
+      <c r="J227">
+        <v>34</v>
+      </c>
+      <c r="K227">
+        <v>1</v>
+      </c>
+      <c r="L227" t="s">
+        <v>13</v>
+      </c>
+      <c r="M227" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A228" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B228">
+        <v>26</v>
+      </c>
+      <c r="C228">
+        <v>278670.7</v>
+      </c>
+      <c r="D228">
+        <v>5188677</v>
+      </c>
+      <c r="E228" t="s">
+        <v>21</v>
+      </c>
+      <c r="F228" t="s">
+        <v>58</v>
+      </c>
+      <c r="G228" t="s">
+        <v>52</v>
+      </c>
+      <c r="H228" t="s">
+        <v>53</v>
+      </c>
+      <c r="I228">
+        <v>4.7</v>
+      </c>
+      <c r="J228">
+        <v>24</v>
+      </c>
+      <c r="K228">
+        <v>1</v>
+      </c>
+      <c r="L228" t="s">
+        <v>13</v>
+      </c>
+      <c r="M228" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A229" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B229">
+        <v>26</v>
+      </c>
+      <c r="C229">
+        <v>278670.7</v>
+      </c>
+      <c r="D229">
+        <v>5188677</v>
+      </c>
+      <c r="E229" t="s">
+        <v>21</v>
+      </c>
+      <c r="F229" t="s">
+        <v>58</v>
+      </c>
+      <c r="G229" t="s">
+        <v>52</v>
+      </c>
+      <c r="H229" t="s">
+        <v>53</v>
+      </c>
+      <c r="I229">
+        <v>3.27</v>
+      </c>
+      <c r="J229">
+        <v>30</v>
+      </c>
+      <c r="K229">
+        <v>1</v>
+      </c>
+      <c r="L229" t="s">
+        <v>13</v>
+      </c>
+      <c r="M229" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A230" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B230">
+        <v>26</v>
+      </c>
+      <c r="C230">
+        <v>278670.7</v>
+      </c>
+      <c r="D230">
+        <v>5188677</v>
+      </c>
+      <c r="E230" t="s">
+        <v>21</v>
+      </c>
+      <c r="F230" t="s">
+        <v>58</v>
+      </c>
+      <c r="G230" t="s">
+        <v>52</v>
+      </c>
+      <c r="H230" t="s">
+        <v>53</v>
+      </c>
+      <c r="I230">
+        <v>5</v>
+      </c>
+      <c r="J230">
+        <v>30</v>
+      </c>
+      <c r="K230">
+        <v>1</v>
+      </c>
+      <c r="L230" t="s">
+        <v>13</v>
+      </c>
+      <c r="M230" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A231" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B231">
+        <v>26</v>
+      </c>
+      <c r="C231">
+        <v>278670.7</v>
+      </c>
+      <c r="D231">
+        <v>5188677</v>
+      </c>
+      <c r="E231" t="s">
+        <v>21</v>
+      </c>
+      <c r="F231" t="s">
+        <v>58</v>
+      </c>
+      <c r="G231" t="s">
+        <v>52</v>
+      </c>
+      <c r="H231" t="s">
+        <v>53</v>
+      </c>
+      <c r="I231">
+        <v>4.09</v>
+      </c>
+      <c r="J231">
+        <v>32</v>
+      </c>
+      <c r="K231">
+        <v>1</v>
+      </c>
+      <c r="L231" t="s">
+        <v>13</v>
+      </c>
+      <c r="M231" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A232" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B232">
+        <v>26</v>
+      </c>
+      <c r="C232">
+        <v>278670.7</v>
+      </c>
+      <c r="D232">
+        <v>5188677</v>
+      </c>
+      <c r="E232" t="s">
+        <v>21</v>
+      </c>
+      <c r="F232" t="s">
+        <v>58</v>
+      </c>
+      <c r="G232" t="s">
+        <v>52</v>
+      </c>
+      <c r="H232" t="s">
+        <v>53</v>
+      </c>
+      <c r="I232">
+        <v>4.83</v>
+      </c>
+      <c r="J232">
+        <v>36</v>
+      </c>
+      <c r="K232">
+        <v>1</v>
+      </c>
+      <c r="L232" t="s">
+        <v>13</v>
+      </c>
+      <c r="M232" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A233" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B233">
+        <v>26</v>
+      </c>
+      <c r="C233">
+        <v>278670.7</v>
+      </c>
+      <c r="D233">
+        <v>5188677</v>
+      </c>
+      <c r="E233" t="s">
+        <v>21</v>
+      </c>
+      <c r="F233" t="s">
+        <v>58</v>
+      </c>
+      <c r="G233" t="s">
+        <v>52</v>
+      </c>
+      <c r="H233" t="s">
+        <v>53</v>
+      </c>
+      <c r="I233">
+        <v>4.76</v>
+      </c>
+      <c r="J233">
+        <v>48</v>
+      </c>
+      <c r="K233">
+        <v>1</v>
+      </c>
+      <c r="L233" t="s">
+        <v>13</v>
+      </c>
+      <c r="M233" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A234" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B234">
+        <v>26</v>
+      </c>
+      <c r="C234">
+        <v>278670.7</v>
+      </c>
+      <c r="D234">
+        <v>5188677</v>
+      </c>
+      <c r="E234" t="s">
+        <v>21</v>
+      </c>
+      <c r="F234" t="s">
+        <v>58</v>
+      </c>
+      <c r="G234" t="s">
+        <v>52</v>
+      </c>
+      <c r="H234" t="s">
+        <v>53</v>
+      </c>
+      <c r="I234">
+        <v>4.82</v>
+      </c>
+      <c r="J234">
+        <v>50</v>
+      </c>
+      <c r="K234">
+        <v>1</v>
+      </c>
+      <c r="L234" t="s">
+        <v>13</v>
+      </c>
+      <c r="M234" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A235" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B235">
+        <v>26</v>
+      </c>
+      <c r="C235">
+        <v>278670.7</v>
+      </c>
+      <c r="D235">
+        <v>5188677</v>
+      </c>
+      <c r="E235" t="s">
+        <v>21</v>
+      </c>
+      <c r="F235" t="s">
+        <v>58</v>
+      </c>
+      <c r="G235" t="s">
+        <v>52</v>
+      </c>
+      <c r="H235" t="s">
+        <v>53</v>
+      </c>
+      <c r="I235">
+        <v>4.93</v>
+      </c>
+      <c r="J235">
+        <v>50</v>
+      </c>
+      <c r="K235">
+        <v>1</v>
+      </c>
+      <c r="L235" t="s">
+        <v>13</v>
+      </c>
+      <c r="M235" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A236" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B236">
+        <v>26</v>
+      </c>
+      <c r="C236">
+        <v>278670.7</v>
+      </c>
+      <c r="D236">
+        <v>5188677</v>
+      </c>
+      <c r="E236" t="s">
+        <v>21</v>
+      </c>
+      <c r="F236" t="s">
+        <v>58</v>
+      </c>
+      <c r="G236" t="s">
+        <v>52</v>
+      </c>
+      <c r="H236" t="s">
+        <v>53</v>
+      </c>
+      <c r="I236">
+        <v>3.43</v>
+      </c>
+      <c r="J236">
+        <v>54</v>
+      </c>
+      <c r="K236">
+        <v>1</v>
+      </c>
+      <c r="L236" t="s">
+        <v>13</v>
+      </c>
+      <c r="M236" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A237" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B237">
+        <v>26</v>
+      </c>
+      <c r="C237">
+        <v>278670.7</v>
+      </c>
+      <c r="D237">
+        <v>5188677</v>
+      </c>
+      <c r="E237" t="s">
+        <v>21</v>
+      </c>
+      <c r="F237" t="s">
+        <v>58</v>
+      </c>
+      <c r="G237" t="s">
+        <v>52</v>
+      </c>
+      <c r="H237" t="s">
+        <v>53</v>
+      </c>
+      <c r="I237">
+        <v>2.79</v>
+      </c>
+      <c r="J237">
+        <v>54</v>
+      </c>
+      <c r="K237">
+        <v>1</v>
+      </c>
+      <c r="L237" t="s">
+        <v>13</v>
+      </c>
+      <c r="M237" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A238" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B238">
+        <v>26</v>
+      </c>
+      <c r="C238">
+        <v>278670.7</v>
+      </c>
+      <c r="D238">
+        <v>5188677</v>
+      </c>
+      <c r="E238" t="s">
+        <v>21</v>
+      </c>
+      <c r="F238" t="s">
+        <v>58</v>
+      </c>
+      <c r="G238" t="s">
+        <v>52</v>
+      </c>
+      <c r="H238" t="s">
+        <v>53</v>
+      </c>
+      <c r="I238">
+        <v>2.15</v>
+      </c>
+      <c r="J238">
+        <v>54</v>
+      </c>
+      <c r="K238">
+        <v>1</v>
+      </c>
+      <c r="L238" t="s">
+        <v>13</v>
+      </c>
+      <c r="M238" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A239" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B239">
+        <v>26</v>
+      </c>
+      <c r="C239">
+        <v>278670.7</v>
+      </c>
+      <c r="D239">
+        <v>5188677</v>
+      </c>
+      <c r="E239" t="s">
+        <v>21</v>
+      </c>
+      <c r="F239" t="s">
+        <v>58</v>
+      </c>
+      <c r="G239" t="s">
+        <v>52</v>
+      </c>
+      <c r="H239" t="s">
+        <v>53</v>
+      </c>
+      <c r="I239">
+        <v>1.67</v>
+      </c>
+      <c r="J239">
+        <v>60</v>
+      </c>
+      <c r="K239">
+        <v>1</v>
+      </c>
+      <c r="L239" t="s">
+        <v>13</v>
+      </c>
+      <c r="M239" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A240" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B240">
+        <v>26</v>
+      </c>
+      <c r="C240">
+        <v>278670.7</v>
+      </c>
+      <c r="D240">
+        <v>5188677</v>
+      </c>
+      <c r="E240" t="s">
+        <v>21</v>
+      </c>
+      <c r="F240" t="s">
+        <v>58</v>
+      </c>
+      <c r="G240" t="s">
+        <v>52</v>
+      </c>
+      <c r="H240" t="s">
+        <v>53</v>
+      </c>
+      <c r="I240">
+        <v>1.7</v>
+      </c>
+      <c r="J240">
+        <v>62</v>
+      </c>
+      <c r="K240">
+        <v>1</v>
+      </c>
+      <c r="L240" t="s">
+        <v>13</v>
+      </c>
+      <c r="M240" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A241" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B241">
+        <v>26</v>
+      </c>
+      <c r="C241">
+        <v>278670.7</v>
+      </c>
+      <c r="D241">
+        <v>5188677</v>
+      </c>
+      <c r="E241" t="s">
+        <v>21</v>
+      </c>
+      <c r="F241" t="s">
+        <v>58</v>
+      </c>
+      <c r="G241" t="s">
+        <v>52</v>
+      </c>
+      <c r="H241" t="s">
+        <v>53</v>
+      </c>
+      <c r="I241">
+        <v>3.62</v>
+      </c>
+      <c r="J241">
+        <v>62</v>
+      </c>
+      <c r="K241">
+        <v>1</v>
+      </c>
+      <c r="L241" t="s">
+        <v>13</v>
+      </c>
+      <c r="M241" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A242" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B242">
+        <v>26</v>
+      </c>
+      <c r="C242">
+        <v>278670.7</v>
+      </c>
+      <c r="D242">
+        <v>5188677</v>
+      </c>
+      <c r="E242" t="s">
+        <v>21</v>
+      </c>
+      <c r="F242" t="s">
+        <v>32</v>
+      </c>
+      <c r="G242" t="s">
+        <v>33</v>
+      </c>
+      <c r="H242" t="s">
+        <v>34</v>
+      </c>
+      <c r="I242">
+        <v>4.74</v>
+      </c>
+      <c r="J242">
+        <v>68</v>
+      </c>
+      <c r="K242">
+        <v>4</v>
+      </c>
+      <c r="L242" t="s">
+        <v>13</v>
+      </c>
+      <c r="M242" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A243" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B243">
+        <v>26</v>
+      </c>
+      <c r="C243">
+        <v>278670.7</v>
+      </c>
+      <c r="D243">
+        <v>5188677</v>
+      </c>
+      <c r="E243" t="s">
+        <v>21</v>
+      </c>
+      <c r="F243" t="s">
+        <v>58</v>
+      </c>
+      <c r="G243" t="s">
+        <v>52</v>
+      </c>
+      <c r="H243" t="s">
+        <v>53</v>
+      </c>
+      <c r="I243">
+        <v>0.25</v>
+      </c>
+      <c r="J243">
+        <v>82</v>
+      </c>
+      <c r="K243">
+        <v>1</v>
+      </c>
+      <c r="L243" t="s">
+        <v>13</v>
+      </c>
+      <c r="M243" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A244" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B244">
+        <v>26</v>
+      </c>
+      <c r="C244">
+        <v>278670.7</v>
+      </c>
+      <c r="D244">
+        <v>5188677</v>
+      </c>
+      <c r="E244" t="s">
+        <v>21</v>
+      </c>
+      <c r="F244" t="s">
+        <v>58</v>
+      </c>
+      <c r="G244" t="s">
+        <v>52</v>
+      </c>
+      <c r="H244" t="s">
+        <v>53</v>
+      </c>
+      <c r="I244">
+        <v>1.9</v>
+      </c>
+      <c r="J244">
+        <v>80</v>
+      </c>
+      <c r="K244">
+        <v>1</v>
+      </c>
+      <c r="L244" t="s">
+        <v>13</v>
+      </c>
+      <c r="M244" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A245" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B245">
+        <v>26</v>
+      </c>
+      <c r="C245">
+        <v>278670.7</v>
+      </c>
+      <c r="D245">
+        <v>5188677</v>
+      </c>
+      <c r="E245" t="s">
+        <v>21</v>
+      </c>
+      <c r="F245" t="s">
+        <v>58</v>
+      </c>
+      <c r="G245" t="s">
+        <v>52</v>
+      </c>
+      <c r="H245" t="s">
+        <v>53</v>
+      </c>
+      <c r="I245">
+        <v>2.72</v>
+      </c>
+      <c r="J245">
+        <v>80</v>
+      </c>
+      <c r="K245">
+        <v>1</v>
+      </c>
+      <c r="L245" t="s">
+        <v>13</v>
+      </c>
+      <c r="M245" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A246" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B246">
+        <v>26</v>
+      </c>
+      <c r="C246">
+        <v>278670.7</v>
+      </c>
+      <c r="D246">
+        <v>5188677</v>
+      </c>
+      <c r="E246" t="s">
+        <v>21</v>
+      </c>
+      <c r="F246" t="s">
+        <v>58</v>
+      </c>
+      <c r="G246" t="s">
+        <v>52</v>
+      </c>
+      <c r="H246" t="s">
+        <v>53</v>
+      </c>
+      <c r="I246">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="J246">
+        <v>80</v>
+      </c>
+      <c r="K246">
+        <v>1</v>
+      </c>
+      <c r="L246" t="s">
+        <v>13</v>
+      </c>
+      <c r="M246" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A247" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B247">
+        <v>26</v>
+      </c>
+      <c r="C247">
+        <v>278670.7</v>
+      </c>
+      <c r="D247">
+        <v>5188677</v>
+      </c>
+      <c r="E247" t="s">
+        <v>21</v>
+      </c>
+      <c r="F247" t="s">
+        <v>58</v>
+      </c>
+      <c r="G247" t="s">
+        <v>52</v>
+      </c>
+      <c r="H247" t="s">
+        <v>53</v>
+      </c>
+      <c r="I247">
+        <v>1.85</v>
+      </c>
+      <c r="J247">
+        <v>82</v>
+      </c>
+      <c r="K247">
+        <v>1</v>
+      </c>
+      <c r="L247" t="s">
+        <v>13</v>
+      </c>
+      <c r="M247" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A248" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B248">
+        <v>26</v>
+      </c>
+      <c r="C248">
+        <v>278670.7</v>
+      </c>
+      <c r="D248">
+        <v>5188677</v>
+      </c>
+      <c r="E248" t="s">
+        <v>21</v>
+      </c>
+      <c r="F248" t="s">
+        <v>58</v>
+      </c>
+      <c r="G248" t="s">
+        <v>52</v>
+      </c>
+      <c r="H248" t="s">
+        <v>53</v>
+      </c>
+      <c r="I248">
+        <v>4.84</v>
+      </c>
+      <c r="J248">
+        <v>82</v>
+      </c>
+      <c r="K248">
+        <v>1</v>
+      </c>
+      <c r="L248" t="s">
+        <v>13</v>
+      </c>
+      <c r="M248" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A249" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B249">
+        <v>26</v>
+      </c>
+      <c r="C249">
+        <v>278670.7</v>
+      </c>
+      <c r="D249">
+        <v>5188677</v>
+      </c>
+      <c r="E249" t="s">
+        <v>21</v>
+      </c>
+      <c r="F249" t="s">
+        <v>58</v>
+      </c>
+      <c r="G249" t="s">
+        <v>52</v>
+      </c>
+      <c r="H249" t="s">
+        <v>53</v>
+      </c>
+      <c r="I249">
+        <v>1.19</v>
+      </c>
+      <c r="J249">
+        <v>82</v>
+      </c>
+      <c r="K249">
+        <v>1</v>
+      </c>
+      <c r="L249" t="s">
+        <v>13</v>
+      </c>
+      <c r="M249" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A250" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B250">
+        <v>26</v>
+      </c>
+      <c r="C250">
+        <v>278670.7</v>
+      </c>
+      <c r="D250">
+        <v>5188677</v>
+      </c>
+      <c r="E250" t="s">
+        <v>21</v>
+      </c>
+      <c r="F250" t="s">
+        <v>58</v>
+      </c>
+      <c r="G250" t="s">
+        <v>52</v>
+      </c>
+      <c r="H250" t="s">
+        <v>53</v>
+      </c>
+      <c r="I250">
+        <v>4.24</v>
+      </c>
+      <c r="J250">
+        <v>86</v>
+      </c>
+      <c r="K250">
+        <v>1</v>
+      </c>
+      <c r="L250" t="s">
+        <v>13</v>
+      </c>
+      <c r="M250" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A251" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B251">
+        <v>26</v>
+      </c>
+      <c r="C251">
+        <v>278670.7</v>
+      </c>
+      <c r="D251">
+        <v>5188677</v>
+      </c>
+      <c r="E251" t="s">
+        <v>21</v>
+      </c>
+      <c r="F251" t="s">
+        <v>58</v>
+      </c>
+      <c r="G251" t="s">
+        <v>52</v>
+      </c>
+      <c r="H251" t="s">
+        <v>53</v>
+      </c>
+      <c r="I251">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="J251">
+        <v>94</v>
+      </c>
+      <c r="K251">
+        <v>1</v>
+      </c>
+      <c r="L251" t="s">
+        <v>13</v>
+      </c>
+      <c r="M251" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A252" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B252">
+        <v>26</v>
+      </c>
+      <c r="C252">
+        <v>278670.7</v>
+      </c>
+      <c r="D252">
+        <v>5188677</v>
+      </c>
+      <c r="E252" t="s">
+        <v>21</v>
+      </c>
+      <c r="F252" t="s">
+        <v>58</v>
+      </c>
+      <c r="G252" t="s">
+        <v>52</v>
+      </c>
+      <c r="H252" t="s">
+        <v>53</v>
+      </c>
+      <c r="I252">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J252">
+        <v>94</v>
+      </c>
+      <c r="K252">
+        <v>1</v>
+      </c>
+      <c r="L252" t="s">
+        <v>13</v>
+      </c>
+      <c r="M252" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A253" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B253">
+        <v>26</v>
+      </c>
+      <c r="C253">
+        <v>278670.7</v>
+      </c>
+      <c r="D253">
+        <v>5188677</v>
+      </c>
+      <c r="E253" t="s">
+        <v>21</v>
+      </c>
+      <c r="F253" t="s">
+        <v>58</v>
+      </c>
+      <c r="G253" t="s">
+        <v>52</v>
+      </c>
+      <c r="H253" t="s">
+        <v>53</v>
+      </c>
+      <c r="I253">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="J253">
+        <v>102</v>
+      </c>
+      <c r="K253">
+        <v>1</v>
+      </c>
+      <c r="L253" t="s">
+        <v>13</v>
+      </c>
+      <c r="M253" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A254" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B254">
+        <v>26</v>
+      </c>
+      <c r="C254">
+        <v>278670.7</v>
+      </c>
+      <c r="D254">
+        <v>5188677</v>
+      </c>
+      <c r="E254" t="s">
+        <v>21</v>
+      </c>
+      <c r="F254" t="s">
+        <v>58</v>
+      </c>
+      <c r="G254" t="s">
+        <v>52</v>
+      </c>
+      <c r="H254" t="s">
+        <v>53</v>
+      </c>
+      <c r="I254">
+        <v>4.03</v>
+      </c>
+      <c r="J254">
+        <v>112</v>
+      </c>
+      <c r="K254">
+        <v>2</v>
+      </c>
+      <c r="L254" t="s">
+        <v>13</v>
+      </c>
+      <c r="M254" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A255" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B255">
+        <v>26</v>
+      </c>
+      <c r="C255">
+        <v>278670.7</v>
+      </c>
+      <c r="D255">
+        <v>5188677</v>
+      </c>
+      <c r="E255" t="s">
+        <v>21</v>
+      </c>
+      <c r="F255" t="s">
+        <v>58</v>
+      </c>
+      <c r="G255" t="s">
+        <v>52</v>
+      </c>
+      <c r="H255" t="s">
+        <v>53</v>
+      </c>
+      <c r="I255">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="J255">
+        <v>116</v>
+      </c>
+      <c r="K255">
+        <v>1</v>
+      </c>
+      <c r="L255" t="s">
+        <v>13</v>
+      </c>
+      <c r="M255" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A256" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B256">
+        <v>26</v>
+      </c>
+      <c r="C256">
+        <v>278670.7</v>
+      </c>
+      <c r="D256">
+        <v>5188677</v>
+      </c>
+      <c r="E256" t="s">
+        <v>21</v>
+      </c>
+      <c r="F256" t="s">
+        <v>58</v>
+      </c>
+      <c r="G256" t="s">
+        <v>52</v>
+      </c>
+      <c r="H256" t="s">
+        <v>53</v>
+      </c>
+      <c r="I256">
+        <v>3.45</v>
+      </c>
+      <c r="J256">
+        <v>120</v>
+      </c>
+      <c r="K256">
+        <v>1</v>
+      </c>
+      <c r="L256" t="s">
+        <v>13</v>
+      </c>
+      <c r="M256" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A257" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B257">
+        <v>26</v>
+      </c>
+      <c r="C257">
+        <v>278670.7</v>
+      </c>
+      <c r="D257">
+        <v>5188677</v>
+      </c>
+      <c r="E257" t="s">
+        <v>21</v>
+      </c>
+      <c r="F257" t="s">
+        <v>58</v>
+      </c>
+      <c r="G257" t="s">
+        <v>52</v>
+      </c>
+      <c r="H257" t="s">
+        <v>53</v>
+      </c>
+      <c r="I257">
+        <v>2.71</v>
+      </c>
+      <c r="J257">
+        <v>120</v>
+      </c>
+      <c r="K257">
+        <v>1</v>
+      </c>
+      <c r="L257" t="s">
+        <v>13</v>
+      </c>
+      <c r="M257" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A258" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B258">
+        <v>26</v>
+      </c>
+      <c r="C258">
+        <v>278670.7</v>
+      </c>
+      <c r="D258">
+        <v>5188677</v>
+      </c>
+      <c r="E258" t="s">
+        <v>21</v>
+      </c>
+      <c r="F258" t="s">
+        <v>58</v>
+      </c>
+      <c r="G258" t="s">
+        <v>52</v>
+      </c>
+      <c r="H258" t="s">
+        <v>53</v>
+      </c>
+      <c r="I258">
+        <v>3.14</v>
+      </c>
+      <c r="J258">
+        <v>120</v>
+      </c>
+      <c r="K258">
+        <v>1</v>
+      </c>
+      <c r="L258" t="s">
+        <v>13</v>
+      </c>
+      <c r="M258" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A259" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B259">
+        <v>26</v>
+      </c>
+      <c r="C259">
+        <v>278670.7</v>
+      </c>
+      <c r="D259">
+        <v>5188677</v>
+      </c>
+      <c r="E259" t="s">
+        <v>21</v>
+      </c>
+      <c r="F259" t="s">
+        <v>58</v>
+      </c>
+      <c r="G259" t="s">
+        <v>52</v>
+      </c>
+      <c r="H259" t="s">
+        <v>53</v>
+      </c>
+      <c r="I259">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="J259">
+        <v>120</v>
+      </c>
+      <c r="K259">
+        <v>1</v>
+      </c>
+      <c r="L259" t="s">
+        <v>13</v>
+      </c>
+      <c r="M259" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A260" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B260">
+        <v>26</v>
+      </c>
+      <c r="C260">
+        <v>278670.7</v>
+      </c>
+      <c r="D260">
+        <v>5188677</v>
+      </c>
+      <c r="E260" t="s">
+        <v>21</v>
+      </c>
+      <c r="F260" t="s">
+        <v>58</v>
+      </c>
+      <c r="G260" t="s">
+        <v>52</v>
+      </c>
+      <c r="H260" t="s">
+        <v>53</v>
+      </c>
+      <c r="I260">
+        <v>4</v>
+      </c>
+      <c r="J260">
+        <v>130</v>
+      </c>
+      <c r="K260">
+        <v>1</v>
+      </c>
+      <c r="L260" t="s">
+        <v>13</v>
+      </c>
+      <c r="M260" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A261" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B261">
+        <v>26</v>
+      </c>
+      <c r="C261">
+        <v>278670.7</v>
+      </c>
+      <c r="D261">
+        <v>5188677</v>
+      </c>
+      <c r="E261" t="s">
+        <v>21</v>
+      </c>
+      <c r="F261" t="s">
+        <v>58</v>
+      </c>
+      <c r="G261" t="s">
+        <v>52</v>
+      </c>
+      <c r="H261" t="s">
+        <v>53</v>
+      </c>
+      <c r="I261">
+        <v>2.35</v>
+      </c>
+      <c r="J261">
+        <v>130</v>
+      </c>
+      <c r="K261">
+        <v>1</v>
+      </c>
+      <c r="L261" t="s">
+        <v>13</v>
+      </c>
+      <c r="M261" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A262" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B262">
+        <v>26</v>
+      </c>
+      <c r="C262">
+        <v>278670.7</v>
+      </c>
+      <c r="D262">
+        <v>5188677</v>
+      </c>
+      <c r="E262" t="s">
+        <v>21</v>
+      </c>
+      <c r="F262" t="s">
+        <v>58</v>
+      </c>
+      <c r="G262" t="s">
+        <v>52</v>
+      </c>
+      <c r="H262" t="s">
+        <v>53</v>
+      </c>
+      <c r="I262">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J262">
+        <v>140</v>
+      </c>
+      <c r="K262">
+        <v>1</v>
+      </c>
+      <c r="L262" t="s">
+        <v>13</v>
+      </c>
+      <c r="M262" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A263" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B263">
+        <v>26</v>
+      </c>
+      <c r="C263">
+        <v>278670.7</v>
+      </c>
+      <c r="D263">
+        <v>5188677</v>
+      </c>
+      <c r="E263" t="s">
+        <v>21</v>
+      </c>
+      <c r="F263" t="s">
+        <v>58</v>
+      </c>
+      <c r="G263" t="s">
+        <v>52</v>
+      </c>
+      <c r="H263" t="s">
+        <v>53</v>
+      </c>
+      <c r="I263">
+        <v>3.05</v>
+      </c>
+      <c r="J263">
+        <v>158</v>
+      </c>
+      <c r="K263">
+        <v>1</v>
+      </c>
+      <c r="L263" t="s">
+        <v>13</v>
+      </c>
+      <c r="M263" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A264" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B264">
+        <v>26</v>
+      </c>
+      <c r="C264">
+        <v>278670.7</v>
+      </c>
+      <c r="D264">
+        <v>5188677</v>
+      </c>
+      <c r="E264" t="s">
+        <v>21</v>
+      </c>
+      <c r="F264" t="s">
+        <v>58</v>
+      </c>
+      <c r="G264" t="s">
+        <v>52</v>
+      </c>
+      <c r="H264" t="s">
+        <v>53</v>
+      </c>
+      <c r="I264">
+        <v>0.47</v>
+      </c>
+      <c r="J264">
+        <v>158</v>
+      </c>
+      <c r="K264">
+        <v>1</v>
+      </c>
+      <c r="L264" t="s">
+        <v>13</v>
+      </c>
+      <c r="M264" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A265" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B265">
+        <v>26</v>
+      </c>
+      <c r="C265">
+        <v>278670.7</v>
+      </c>
+      <c r="D265">
+        <v>5188677</v>
+      </c>
+      <c r="E265" t="s">
+        <v>21</v>
+      </c>
+      <c r="F265" t="s">
+        <v>58</v>
+      </c>
+      <c r="G265" t="s">
+        <v>52</v>
+      </c>
+      <c r="H265" t="s">
+        <v>53</v>
+      </c>
+      <c r="I265">
+        <v>0.83</v>
+      </c>
+      <c r="J265">
+        <v>158</v>
+      </c>
+      <c r="K265">
+        <v>1</v>
+      </c>
+      <c r="L265" t="s">
+        <v>13</v>
+      </c>
+      <c r="M265" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A266" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B266">
+        <v>26</v>
+      </c>
+      <c r="C266">
+        <v>278670.7</v>
+      </c>
+      <c r="D266">
+        <v>5188677</v>
+      </c>
+      <c r="E266" t="s">
+        <v>21</v>
+      </c>
+      <c r="F266" t="s">
+        <v>58</v>
+      </c>
+      <c r="G266" t="s">
+        <v>52</v>
+      </c>
+      <c r="H266" t="s">
+        <v>53</v>
+      </c>
+      <c r="I266">
+        <v>2.69</v>
+      </c>
+      <c r="J266">
+        <v>164</v>
+      </c>
+      <c r="K266">
+        <v>1</v>
+      </c>
+      <c r="L266" t="s">
+        <v>13</v>
+      </c>
+      <c r="M266" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A267" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B267">
+        <v>26</v>
+      </c>
+      <c r="C267">
+        <v>278670.7</v>
+      </c>
+      <c r="D267">
+        <v>5188677</v>
+      </c>
+      <c r="E267" t="s">
+        <v>21</v>
+      </c>
+      <c r="F267" t="s">
+        <v>58</v>
+      </c>
+      <c r="G267" t="s">
+        <v>52</v>
+      </c>
+      <c r="H267" t="s">
+        <v>53</v>
+      </c>
+      <c r="I267">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="J267">
+        <v>164</v>
+      </c>
+      <c r="K267">
+        <v>1</v>
+      </c>
+      <c r="L267" t="s">
+        <v>13</v>
+      </c>
+      <c r="M267" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A268" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B268">
+        <v>26</v>
+      </c>
+      <c r="C268">
+        <v>278670.7</v>
+      </c>
+      <c r="D268">
+        <v>5188677</v>
+      </c>
+      <c r="E268" t="s">
+        <v>21</v>
+      </c>
+      <c r="F268" t="s">
+        <v>58</v>
+      </c>
+      <c r="G268" t="s">
+        <v>52</v>
+      </c>
+      <c r="H268" t="s">
+        <v>53</v>
+      </c>
+      <c r="I268">
+        <v>3.89</v>
+      </c>
+      <c r="J268">
+        <v>180</v>
+      </c>
+      <c r="K268">
+        <v>1</v>
+      </c>
+      <c r="L268" t="s">
+        <v>13</v>
+      </c>
+      <c r="M268" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A269" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B269">
+        <v>26</v>
+      </c>
+      <c r="C269">
+        <v>278670.7</v>
+      </c>
+      <c r="D269">
+        <v>5188677</v>
+      </c>
+      <c r="E269" t="s">
+        <v>21</v>
+      </c>
+      <c r="F269" t="s">
+        <v>58</v>
+      </c>
+      <c r="G269" t="s">
+        <v>52</v>
+      </c>
+      <c r="H269" t="s">
+        <v>53</v>
+      </c>
+      <c r="I269">
+        <v>3.98</v>
+      </c>
+      <c r="J269">
+        <v>180</v>
+      </c>
+      <c r="K269">
+        <v>1</v>
+      </c>
+      <c r="L269" t="s">
+        <v>13</v>
+      </c>
+      <c r="M269" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A270" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B270">
+        <v>26</v>
+      </c>
+      <c r="C270">
+        <v>278670.7</v>
+      </c>
+      <c r="D270">
+        <v>5188677</v>
+      </c>
+      <c r="E270" t="s">
+        <v>21</v>
+      </c>
+      <c r="F270" t="s">
+        <v>58</v>
+      </c>
+      <c r="G270" t="s">
+        <v>52</v>
+      </c>
+      <c r="H270" t="s">
+        <v>53</v>
+      </c>
+      <c r="I270">
+        <v>4.7</v>
+      </c>
+      <c r="J270">
+        <v>180</v>
+      </c>
+      <c r="K270">
+        <v>3</v>
+      </c>
+      <c r="L270" t="s">
+        <v>13</v>
+      </c>
+      <c r="M270" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A271" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B271">
+        <v>26</v>
+      </c>
+      <c r="C271">
+        <v>278670.7</v>
+      </c>
+      <c r="D271">
+        <v>5188677</v>
+      </c>
+      <c r="E271" t="s">
+        <v>21</v>
+      </c>
+      <c r="F271" t="s">
+        <v>58</v>
+      </c>
+      <c r="G271" t="s">
+        <v>52</v>
+      </c>
+      <c r="H271" t="s">
+        <v>53</v>
+      </c>
+      <c r="I271">
+        <v>2.63</v>
+      </c>
+      <c r="J271">
+        <v>180</v>
+      </c>
+      <c r="K271">
+        <v>3</v>
+      </c>
+      <c r="L271" t="s">
+        <v>13</v>
+      </c>
+      <c r="M271" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A272" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B272">
+        <v>26</v>
+      </c>
+      <c r="C272">
+        <v>278670.7</v>
+      </c>
+      <c r="D272">
+        <v>5188677</v>
+      </c>
+      <c r="E272" t="s">
+        <v>21</v>
+      </c>
+      <c r="F272" t="s">
+        <v>58</v>
+      </c>
+      <c r="G272" t="s">
+        <v>52</v>
+      </c>
+      <c r="H272" t="s">
+        <v>53</v>
+      </c>
+      <c r="I272">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="J272">
+        <v>186</v>
+      </c>
+      <c r="K272">
+        <v>1</v>
+      </c>
+      <c r="L272" t="s">
+        <v>13</v>
+      </c>
+      <c r="M272" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A273" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B273">
+        <v>26</v>
+      </c>
+      <c r="C273">
+        <v>278670.7</v>
+      </c>
+      <c r="D273">
+        <v>5188677</v>
+      </c>
+      <c r="E273" t="s">
+        <v>21</v>
+      </c>
+      <c r="F273" t="s">
+        <v>58</v>
+      </c>
+      <c r="G273" t="s">
+        <v>52</v>
+      </c>
+      <c r="H273" t="s">
+        <v>53</v>
+      </c>
+      <c r="I273">
+        <v>3.5</v>
+      </c>
+      <c r="J273">
+        <v>186</v>
+      </c>
+      <c r="K273">
+        <v>1</v>
+      </c>
+      <c r="L273" t="s">
+        <v>13</v>
+      </c>
+      <c r="M273" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A274" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B274">
+        <v>26</v>
+      </c>
+      <c r="C274">
+        <v>278670.7</v>
+      </c>
+      <c r="D274">
+        <v>5188677</v>
+      </c>
+      <c r="E274" t="s">
+        <v>21</v>
+      </c>
+      <c r="F274" t="s">
+        <v>58</v>
+      </c>
+      <c r="G274" t="s">
+        <v>52</v>
+      </c>
+      <c r="H274" t="s">
+        <v>53</v>
+      </c>
+      <c r="I274">
+        <v>4.28</v>
+      </c>
+      <c r="J274">
+        <v>186</v>
+      </c>
+      <c r="K274">
+        <v>1</v>
+      </c>
+      <c r="L274" t="s">
+        <v>13</v>
+      </c>
+      <c r="M274" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A275" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B275">
+        <v>26</v>
+      </c>
+      <c r="C275">
+        <v>278670.7</v>
+      </c>
+      <c r="D275">
+        <v>5188677</v>
+      </c>
+      <c r="E275" t="s">
+        <v>21</v>
+      </c>
+      <c r="F275" t="s">
+        <v>58</v>
+      </c>
+      <c r="G275" t="s">
+        <v>52</v>
+      </c>
+      <c r="H275" t="s">
+        <v>53</v>
+      </c>
+      <c r="I275">
+        <v>3.9</v>
+      </c>
+      <c r="J275">
+        <v>186</v>
+      </c>
+      <c r="K275">
+        <v>1</v>
+      </c>
+      <c r="L275" t="s">
+        <v>13</v>
+      </c>
+      <c r="M275" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A276" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B276">
+        <v>26</v>
+      </c>
+      <c r="C276">
+        <v>278670.7</v>
+      </c>
+      <c r="D276">
+        <v>5188677</v>
+      </c>
+      <c r="E276" t="s">
+        <v>21</v>
+      </c>
+      <c r="F276" t="s">
+        <v>58</v>
+      </c>
+      <c r="G276" t="s">
+        <v>52</v>
+      </c>
+      <c r="H276" t="s">
+        <v>53</v>
+      </c>
+      <c r="I276">
+        <v>2.09</v>
+      </c>
+      <c r="J276">
+        <v>194</v>
+      </c>
+      <c r="K276">
+        <v>1</v>
+      </c>
+      <c r="L276" t="s">
+        <v>13</v>
+      </c>
+      <c r="M276" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A277" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B277">
+        <v>26</v>
+      </c>
+      <c r="C277">
+        <v>278670.7</v>
+      </c>
+      <c r="D277">
+        <v>5188677</v>
+      </c>
+      <c r="E277" t="s">
+        <v>21</v>
+      </c>
+      <c r="F277" t="s">
+        <v>58</v>
+      </c>
+      <c r="G277" t="s">
+        <v>52</v>
+      </c>
+      <c r="H277" t="s">
+        <v>53</v>
+      </c>
+      <c r="I277">
+        <v>1</v>
+      </c>
+      <c r="J277">
+        <v>194</v>
+      </c>
+      <c r="K277">
+        <v>1</v>
+      </c>
+      <c r="L277" t="s">
+        <v>13</v>
+      </c>
+      <c r="M277" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A278" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B278">
+        <v>26</v>
+      </c>
+      <c r="C278">
+        <v>278670.7</v>
+      </c>
+      <c r="D278">
+        <v>5188677</v>
+      </c>
+      <c r="E278" t="s">
+        <v>21</v>
+      </c>
+      <c r="F278" t="s">
+        <v>38</v>
+      </c>
+      <c r="G278" t="s">
+        <v>31</v>
+      </c>
+      <c r="H278" t="s">
+        <v>48</v>
+      </c>
+      <c r="I278">
+        <v>3.33</v>
+      </c>
+      <c r="J278">
+        <v>194</v>
+      </c>
+      <c r="K278">
+        <v>1</v>
+      </c>
+      <c r="L278" t="s">
+        <v>13</v>
+      </c>
+      <c r="M278" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A279" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B279">
+        <v>26</v>
+      </c>
+      <c r="C279">
+        <v>278670.7</v>
+      </c>
+      <c r="D279">
+        <v>5188677</v>
+      </c>
+      <c r="E279" t="s">
+        <v>21</v>
+      </c>
+      <c r="F279" t="s">
+        <v>83</v>
+      </c>
+      <c r="G279" t="s">
+        <v>19</v>
+      </c>
+      <c r="H279" t="s">
+        <v>20</v>
+      </c>
+      <c r="I279">
+        <v>1.63</v>
+      </c>
+      <c r="J279">
+        <v>204</v>
+      </c>
+      <c r="K279">
+        <v>1</v>
+      </c>
+      <c r="L279" t="s">
+        <v>13</v>
+      </c>
+      <c r="M279" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A280" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B280">
+        <v>26</v>
+      </c>
+      <c r="C280">
+        <v>278670.7</v>
+      </c>
+      <c r="D280">
+        <v>5188677</v>
+      </c>
+      <c r="E280" t="s">
+        <v>21</v>
+      </c>
+      <c r="F280" t="s">
+        <v>83</v>
+      </c>
+      <c r="G280" t="s">
+        <v>19</v>
+      </c>
+      <c r="H280" t="s">
+        <v>20</v>
+      </c>
+      <c r="I280">
+        <v>1.49</v>
+      </c>
+      <c r="J280">
+        <v>204</v>
+      </c>
+      <c r="K280">
+        <v>1</v>
+      </c>
+      <c r="L280" t="s">
+        <v>13</v>
+      </c>
+      <c r="M280" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A281" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B281">
+        <v>26</v>
+      </c>
+      <c r="C281">
+        <v>278670.7</v>
+      </c>
+      <c r="D281">
+        <v>5188677</v>
+      </c>
+      <c r="E281" t="s">
+        <v>21</v>
+      </c>
+      <c r="F281" t="s">
+        <v>58</v>
+      </c>
+      <c r="G281" t="s">
+        <v>52</v>
+      </c>
+      <c r="H281" t="s">
+        <v>53</v>
+      </c>
+      <c r="I281">
+        <v>3.43</v>
+      </c>
+      <c r="J281">
+        <v>212</v>
+      </c>
+      <c r="K281">
+        <v>1</v>
+      </c>
+      <c r="L281" t="s">
+        <v>13</v>
+      </c>
+      <c r="M281" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A282" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B282">
+        <v>26</v>
+      </c>
+      <c r="C282">
+        <v>278670.7</v>
+      </c>
+      <c r="D282">
+        <v>5188677</v>
+      </c>
+      <c r="E282" t="s">
+        <v>21</v>
+      </c>
+      <c r="F282" t="s">
+        <v>58</v>
+      </c>
+      <c r="G282" t="s">
+        <v>52</v>
+      </c>
+      <c r="H282" t="s">
+        <v>53</v>
+      </c>
+      <c r="I282">
+        <v>4.7</v>
+      </c>
+      <c r="J282">
+        <v>212</v>
+      </c>
+      <c r="K282">
+        <v>1</v>
+      </c>
+      <c r="L282" t="s">
+        <v>13</v>
+      </c>
+      <c r="M282" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A283" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B283">
+        <v>26</v>
+      </c>
+      <c r="C283">
+        <v>278670.7</v>
+      </c>
+      <c r="D283">
+        <v>5188677</v>
+      </c>
+      <c r="E283" t="s">
+        <v>21</v>
+      </c>
+      <c r="F283" t="s">
+        <v>58</v>
+      </c>
+      <c r="G283" t="s">
+        <v>52</v>
+      </c>
+      <c r="H283" t="s">
+        <v>53</v>
+      </c>
+      <c r="I283">
+        <v>3.99</v>
+      </c>
+      <c r="J283">
+        <v>212</v>
+      </c>
+      <c r="K283">
+        <v>1</v>
+      </c>
+      <c r="L283" t="s">
+        <v>13</v>
+      </c>
+      <c r="M283" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A284" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B284">
+        <v>26</v>
+      </c>
+      <c r="C284">
+        <v>278670.7</v>
+      </c>
+      <c r="D284">
+        <v>5188677</v>
+      </c>
+      <c r="E284" t="s">
+        <v>21</v>
+      </c>
+      <c r="F284" t="s">
+        <v>83</v>
+      </c>
+      <c r="G284" t="s">
+        <v>19</v>
+      </c>
+      <c r="H284" t="s">
+        <v>20</v>
+      </c>
+      <c r="I284">
+        <v>3.85</v>
+      </c>
+      <c r="J284">
+        <v>218</v>
+      </c>
+      <c r="K284">
+        <v>1</v>
+      </c>
+      <c r="L284" t="s">
+        <v>13</v>
+      </c>
+      <c r="M284" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A285" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B285">
+        <v>26</v>
+      </c>
+      <c r="C285">
+        <v>278670.7</v>
+      </c>
+      <c r="D285">
+        <v>5188677</v>
+      </c>
+      <c r="E285" t="s">
+        <v>21</v>
+      </c>
+      <c r="F285" t="s">
+        <v>58</v>
+      </c>
+      <c r="G285" t="s">
+        <v>52</v>
+      </c>
+      <c r="H285" t="s">
+        <v>53</v>
+      </c>
+      <c r="I285">
+        <v>1.75</v>
+      </c>
+      <c r="J285">
+        <v>220</v>
+      </c>
+      <c r="K285">
+        <v>3</v>
+      </c>
+      <c r="L285" t="s">
+        <v>13</v>
+      </c>
+      <c r="M285" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A286" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B286">
+        <v>26</v>
+      </c>
+      <c r="C286">
+        <v>278670.7</v>
+      </c>
+      <c r="D286">
+        <v>5188677</v>
+      </c>
+      <c r="E286" t="s">
+        <v>21</v>
+      </c>
+      <c r="F286" t="s">
+        <v>58</v>
+      </c>
+      <c r="G286" t="s">
+        <v>52</v>
+      </c>
+      <c r="H286" t="s">
+        <v>53</v>
+      </c>
+      <c r="I286">
+        <v>0.6</v>
+      </c>
+      <c r="J286">
+        <v>224</v>
+      </c>
+      <c r="K286">
+        <v>3</v>
+      </c>
+      <c r="L286" t="s">
+        <v>13</v>
+      </c>
+      <c r="M286" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A287" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B287">
+        <v>26</v>
+      </c>
+      <c r="C287">
+        <v>278670.7</v>
+      </c>
+      <c r="D287">
+        <v>5188677</v>
+      </c>
+      <c r="E287" t="s">
+        <v>21</v>
+      </c>
+      <c r="F287" t="s">
+        <v>58</v>
+      </c>
+      <c r="G287" t="s">
+        <v>52</v>
+      </c>
+      <c r="H287" t="s">
+        <v>53</v>
+      </c>
+      <c r="I287">
+        <v>3.39</v>
+      </c>
+      <c r="J287">
+        <v>224</v>
+      </c>
+      <c r="K287">
+        <v>3</v>
+      </c>
+      <c r="L287" t="s">
+        <v>13</v>
+      </c>
+      <c r="M287" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A288" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B288">
+        <v>26</v>
+      </c>
+      <c r="C288">
+        <v>278670.7</v>
+      </c>
+      <c r="D288">
+        <v>5188677</v>
+      </c>
+      <c r="E288" t="s">
+        <v>21</v>
+      </c>
+      <c r="F288" t="s">
+        <v>83</v>
+      </c>
+      <c r="G288" t="s">
+        <v>19</v>
+      </c>
+      <c r="H288" t="s">
+        <v>20</v>
+      </c>
+      <c r="I288">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="J288">
+        <v>224</v>
+      </c>
+      <c r="K288">
+        <v>1</v>
+      </c>
+      <c r="L288" t="s">
+        <v>13</v>
+      </c>
+      <c r="M288" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A289" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B289">
+        <v>26</v>
+      </c>
+      <c r="C289">
+        <v>278670.7</v>
+      </c>
+      <c r="D289">
+        <v>5188677</v>
+      </c>
+      <c r="E289" t="s">
+        <v>21</v>
+      </c>
+      <c r="F289" t="s">
+        <v>58</v>
+      </c>
+      <c r="G289" t="s">
+        <v>52</v>
+      </c>
+      <c r="H289" t="s">
+        <v>53</v>
+      </c>
+      <c r="I289">
+        <v>3.95</v>
+      </c>
+      <c r="J289">
+        <v>238</v>
+      </c>
+      <c r="K289">
+        <v>1</v>
+      </c>
+      <c r="L289" t="s">
+        <v>13</v>
+      </c>
+      <c r="M289" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A290" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B290">
+        <v>26</v>
+      </c>
+      <c r="C290">
+        <v>278670.7</v>
+      </c>
+      <c r="D290">
+        <v>5188677</v>
+      </c>
+      <c r="E290" t="s">
+        <v>21</v>
+      </c>
+      <c r="F290" t="s">
+        <v>58</v>
+      </c>
+      <c r="G290" t="s">
+        <v>52</v>
+      </c>
+      <c r="H290" t="s">
+        <v>53</v>
+      </c>
+      <c r="I290">
+        <v>4.74</v>
+      </c>
+      <c r="J290">
+        <v>238</v>
+      </c>
+      <c r="K290">
+        <v>1</v>
+      </c>
+      <c r="L290" t="s">
+        <v>13</v>
+      </c>
+      <c r="M290" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A291" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B291">
+        <v>26</v>
+      </c>
+      <c r="C291">
+        <v>278670.7</v>
+      </c>
+      <c r="D291">
+        <v>5188677</v>
+      </c>
+      <c r="E291" t="s">
+        <v>21</v>
+      </c>
+      <c r="F291" t="s">
+        <v>58</v>
+      </c>
+      <c r="G291" t="s">
+        <v>52</v>
+      </c>
+      <c r="H291" t="s">
+        <v>53</v>
+      </c>
+      <c r="I291">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="J291">
+        <v>242</v>
+      </c>
+      <c r="K291">
+        <v>1</v>
+      </c>
+      <c r="L291" t="s">
+        <v>13</v>
+      </c>
+      <c r="M291" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A292" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B292">
+        <v>26</v>
+      </c>
+      <c r="C292">
+        <v>278670.7</v>
+      </c>
+      <c r="D292">
+        <v>5188677</v>
+      </c>
+      <c r="E292" t="s">
+        <v>21</v>
+      </c>
+      <c r="F292" t="s">
+        <v>58</v>
+      </c>
+      <c r="G292" t="s">
+        <v>52</v>
+      </c>
+      <c r="H292" t="s">
+        <v>53</v>
+      </c>
+      <c r="I292">
+        <v>4.84</v>
+      </c>
+      <c r="J292">
+        <v>242</v>
+      </c>
+      <c r="K292">
+        <v>1</v>
+      </c>
+      <c r="L292" t="s">
+        <v>13</v>
+      </c>
+      <c r="M292" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A293" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B293">
+        <v>26</v>
+      </c>
+      <c r="C293">
+        <v>278670.7</v>
+      </c>
+      <c r="D293">
+        <v>5188677</v>
+      </c>
+      <c r="E293" t="s">
+        <v>21</v>
+      </c>
+      <c r="F293" t="s">
+        <v>58</v>
+      </c>
+      <c r="G293" t="s">
+        <v>52</v>
+      </c>
+      <c r="H293" t="s">
+        <v>53</v>
+      </c>
+      <c r="I293">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="J293">
+        <v>254</v>
+      </c>
+      <c r="K293">
+        <v>1</v>
+      </c>
+      <c r="L293" t="s">
+        <v>13</v>
+      </c>
+      <c r="M293" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A294" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B294">
+        <v>26</v>
+      </c>
+      <c r="C294">
+        <v>278670.7</v>
+      </c>
+      <c r="D294">
+        <v>5188677</v>
+      </c>
+      <c r="E294" t="s">
+        <v>21</v>
+      </c>
+      <c r="F294" t="s">
+        <v>58</v>
+      </c>
+      <c r="G294" t="s">
+        <v>52</v>
+      </c>
+      <c r="H294" t="s">
+        <v>53</v>
+      </c>
+      <c r="I294">
+        <v>3.28</v>
+      </c>
+      <c r="J294">
+        <v>268</v>
+      </c>
+      <c r="K294">
+        <v>3</v>
+      </c>
+      <c r="L294" t="s">
+        <v>13</v>
+      </c>
+      <c r="M294" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A295" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B295">
+        <v>26</v>
+      </c>
+      <c r="C295">
+        <v>278670.7</v>
+      </c>
+      <c r="D295">
+        <v>5188677</v>
+      </c>
+      <c r="E295" t="s">
+        <v>21</v>
+      </c>
+      <c r="F295" t="s">
+        <v>58</v>
+      </c>
+      <c r="G295" t="s">
+        <v>52</v>
+      </c>
+      <c r="H295" t="s">
+        <v>53</v>
+      </c>
+      <c r="I295">
+        <v>3.84</v>
+      </c>
+      <c r="J295">
+        <v>278</v>
+      </c>
+      <c r="K295">
+        <v>1</v>
+      </c>
+      <c r="L295" t="s">
+        <v>13</v>
+      </c>
+      <c r="M295" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A296" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B296">
+        <v>26</v>
+      </c>
+      <c r="C296">
+        <v>278670.7</v>
+      </c>
+      <c r="D296">
+        <v>5188677</v>
+      </c>
+      <c r="E296" t="s">
+        <v>21</v>
+      </c>
+      <c r="F296" t="s">
+        <v>58</v>
+      </c>
+      <c r="G296" t="s">
+        <v>52</v>
+      </c>
+      <c r="H296" t="s">
+        <v>53</v>
+      </c>
+      <c r="I296">
+        <v>3.41</v>
+      </c>
+      <c r="J296">
+        <v>284</v>
+      </c>
+      <c r="K296">
+        <v>1</v>
+      </c>
+      <c r="L296" t="s">
+        <v>13</v>
+      </c>
+      <c r="M296" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A297" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B297">
+        <v>26</v>
+      </c>
+      <c r="C297">
+        <v>278670.7</v>
+      </c>
+      <c r="D297">
+        <v>5188677</v>
+      </c>
+      <c r="E297" t="s">
+        <v>21</v>
+      </c>
+      <c r="F297" t="s">
+        <v>58</v>
+      </c>
+      <c r="G297" t="s">
+        <v>52</v>
+      </c>
+      <c r="H297" t="s">
+        <v>53</v>
+      </c>
+      <c r="I297">
+        <v>1.02</v>
+      </c>
+      <c r="J297">
+        <v>280</v>
+      </c>
+      <c r="K297">
+        <v>1</v>
+      </c>
+      <c r="L297" t="s">
+        <v>13</v>
+      </c>
+      <c r="M297" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A298" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B298">
+        <v>26</v>
+      </c>
+      <c r="C298">
+        <v>278670.7</v>
+      </c>
+      <c r="D298">
+        <v>5188677</v>
+      </c>
+      <c r="E298" t="s">
+        <v>21</v>
+      </c>
+      <c r="F298" t="s">
+        <v>58</v>
+      </c>
+      <c r="G298" t="s">
+        <v>52</v>
+      </c>
+      <c r="H298" t="s">
+        <v>53</v>
+      </c>
+      <c r="I298">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="J298">
+        <v>290</v>
+      </c>
+      <c r="K298">
+        <v>1</v>
+      </c>
+      <c r="L298" t="s">
+        <v>13</v>
+      </c>
+      <c r="M298" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A299" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B299">
+        <v>26</v>
+      </c>
+      <c r="C299">
+        <v>278670.7</v>
+      </c>
+      <c r="D299">
+        <v>5188677</v>
+      </c>
+      <c r="E299" t="s">
+        <v>21</v>
+      </c>
+      <c r="F299" t="s">
+        <v>58</v>
+      </c>
+      <c r="G299" t="s">
+        <v>52</v>
+      </c>
+      <c r="H299" t="s">
+        <v>53</v>
+      </c>
+      <c r="I299">
+        <v>4.33</v>
+      </c>
+      <c r="J299">
+        <v>294</v>
+      </c>
+      <c r="K299">
+        <v>1</v>
+      </c>
+      <c r="L299" t="s">
+        <v>13</v>
+      </c>
+      <c r="M299" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A300" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B300">
+        <v>26</v>
+      </c>
+      <c r="C300">
+        <v>278670.7</v>
+      </c>
+      <c r="D300">
+        <v>5188677</v>
+      </c>
+      <c r="E300" t="s">
+        <v>21</v>
+      </c>
+      <c r="F300" t="s">
+        <v>58</v>
+      </c>
+      <c r="G300" t="s">
+        <v>52</v>
+      </c>
+      <c r="H300" t="s">
+        <v>53</v>
+      </c>
+      <c r="I300">
+        <v>4.7</v>
+      </c>
+      <c r="J300">
+        <v>294</v>
+      </c>
+      <c r="K300">
+        <v>1</v>
+      </c>
+      <c r="L300" t="s">
+        <v>13</v>
+      </c>
+      <c r="M300" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A301" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B301">
+        <v>26</v>
+      </c>
+      <c r="C301">
+        <v>278670.7</v>
+      </c>
+      <c r="D301">
+        <v>5188677</v>
+      </c>
+      <c r="E301" t="s">
+        <v>21</v>
+      </c>
+      <c r="F301" t="s">
+        <v>58</v>
+      </c>
+      <c r="G301" t="s">
+        <v>52</v>
+      </c>
+      <c r="H301" t="s">
+        <v>53</v>
+      </c>
+      <c r="I301">
+        <v>1.85</v>
+      </c>
+      <c r="J301">
+        <v>318</v>
+      </c>
+      <c r="K301">
+        <v>1</v>
+      </c>
+      <c r="L301" t="s">
+        <v>13</v>
+      </c>
+      <c r="M301" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A302" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B302">
+        <v>26</v>
+      </c>
+      <c r="C302">
+        <v>278670.7</v>
+      </c>
+      <c r="D302">
+        <v>5188677</v>
+      </c>
+      <c r="E302" t="s">
+        <v>21</v>
+      </c>
+      <c r="F302" t="s">
+        <v>58</v>
+      </c>
+      <c r="G302" t="s">
+        <v>52</v>
+      </c>
+      <c r="H302" t="s">
+        <v>53</v>
+      </c>
+      <c r="I302">
+        <v>1.99</v>
+      </c>
+      <c r="J302">
+        <v>320</v>
+      </c>
+      <c r="K302">
+        <v>1</v>
+      </c>
+      <c r="L302" t="s">
+        <v>13</v>
+      </c>
+      <c r="M302" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A303" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B303">
+        <v>26</v>
+      </c>
+      <c r="C303">
+        <v>278670.7</v>
+      </c>
+      <c r="D303">
+        <v>5188677</v>
+      </c>
+      <c r="E303" t="s">
+        <v>21</v>
+      </c>
+      <c r="F303" t="s">
+        <v>58</v>
+      </c>
+      <c r="G303" t="s">
+        <v>52</v>
+      </c>
+      <c r="H303" t="s">
+        <v>53</v>
+      </c>
+      <c r="I303">
+        <v>2.34</v>
+      </c>
+      <c r="J303">
+        <v>324</v>
+      </c>
+      <c r="K303">
+        <v>1</v>
+      </c>
+      <c r="L303" t="s">
+        <v>13</v>
+      </c>
+      <c r="M303" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A304" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B304">
+        <v>26</v>
+      </c>
+      <c r="C304">
+        <v>278670.7</v>
+      </c>
+      <c r="D304">
+        <v>5188677</v>
+      </c>
+      <c r="E304" t="s">
+        <v>21</v>
+      </c>
+      <c r="F304" t="s">
+        <v>58</v>
+      </c>
+      <c r="G304" t="s">
+        <v>52</v>
+      </c>
+      <c r="H304" t="s">
+        <v>53</v>
+      </c>
+      <c r="I304">
+        <v>3.9</v>
+      </c>
+      <c r="J304">
+        <v>330</v>
+      </c>
+      <c r="K304">
+        <v>1</v>
+      </c>
+      <c r="L304" t="s">
+        <v>13</v>
+      </c>
+      <c r="M304" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A305" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B305">
+        <v>26</v>
+      </c>
+      <c r="C305">
+        <v>278670.7</v>
+      </c>
+      <c r="D305">
+        <v>5188677</v>
+      </c>
+      <c r="E305" t="s">
+        <v>21</v>
+      </c>
+      <c r="F305" t="s">
+        <v>58</v>
+      </c>
+      <c r="G305" t="s">
+        <v>52</v>
+      </c>
+      <c r="H305" t="s">
+        <v>53</v>
+      </c>
+      <c r="I305">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="J305">
+        <v>330</v>
+      </c>
+      <c r="K305">
+        <v>1</v>
+      </c>
+      <c r="L305" t="s">
+        <v>13</v>
+      </c>
+      <c r="M305" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A306" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B306">
+        <v>26</v>
+      </c>
+      <c r="C306">
+        <v>278670.7</v>
+      </c>
+      <c r="D306">
+        <v>5188677</v>
+      </c>
+      <c r="E306" t="s">
+        <v>21</v>
+      </c>
+      <c r="F306" t="s">
+        <v>58</v>
+      </c>
+      <c r="G306" t="s">
+        <v>52</v>
+      </c>
+      <c r="H306" t="s">
+        <v>53</v>
+      </c>
+      <c r="I306">
+        <v>2.34</v>
+      </c>
+      <c r="J306">
+        <v>330</v>
+      </c>
+      <c r="K306">
+        <v>1</v>
+      </c>
+      <c r="L306" t="s">
+        <v>13</v>
+      </c>
+      <c r="M306" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A307" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B307">
+        <v>26</v>
+      </c>
+      <c r="C307">
+        <v>278670.7</v>
+      </c>
+      <c r="D307">
+        <v>5188677</v>
+      </c>
+      <c r="E307" t="s">
+        <v>21</v>
+      </c>
+      <c r="F307" t="s">
+        <v>58</v>
+      </c>
+      <c r="G307" t="s">
+        <v>52</v>
+      </c>
+      <c r="H307" t="s">
+        <v>53</v>
+      </c>
+      <c r="I307">
+        <v>2.5</v>
+      </c>
+      <c r="J307">
+        <v>330</v>
+      </c>
+      <c r="K307">
+        <v>1</v>
+      </c>
+      <c r="L307" t="s">
+        <v>13</v>
+      </c>
+      <c r="M307" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A308" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B308">
+        <v>26</v>
+      </c>
+      <c r="C308">
+        <v>278670.7</v>
+      </c>
+      <c r="D308">
+        <v>5188677</v>
+      </c>
+      <c r="E308" t="s">
+        <v>21</v>
+      </c>
+      <c r="F308" t="s">
+        <v>58</v>
+      </c>
+      <c r="G308" t="s">
+        <v>52</v>
+      </c>
+      <c r="H308" t="s">
+        <v>53</v>
+      </c>
+      <c r="I308">
+        <v>3.1</v>
+      </c>
+      <c r="J308">
+        <v>330</v>
+      </c>
+      <c r="K308">
+        <v>1</v>
+      </c>
+      <c r="L308" t="s">
+        <v>13</v>
+      </c>
+      <c r="M308" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A309" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B309">
+        <v>26</v>
+      </c>
+      <c r="C309">
+        <v>278670.7</v>
+      </c>
+      <c r="D309">
+        <v>5188677</v>
+      </c>
+      <c r="E309" t="s">
+        <v>21</v>
+      </c>
+      <c r="F309" t="s">
+        <v>58</v>
+      </c>
+      <c r="G309" t="s">
+        <v>52</v>
+      </c>
+      <c r="H309" t="s">
+        <v>53</v>
+      </c>
+      <c r="I309">
+        <v>2.9</v>
+      </c>
+      <c r="J309">
+        <v>344</v>
+      </c>
+      <c r="K309">
+        <v>1</v>
+      </c>
+      <c r="L309" t="s">
+        <v>13</v>
+      </c>
+      <c r="M309" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A310" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B310">
+        <v>26</v>
+      </c>
+      <c r="C310">
+        <v>278670.7</v>
+      </c>
+      <c r="D310">
+        <v>5188677</v>
+      </c>
+      <c r="E310" t="s">
+        <v>21</v>
+      </c>
+      <c r="F310" t="s">
+        <v>58</v>
+      </c>
+      <c r="G310" t="s">
+        <v>52</v>
+      </c>
+      <c r="H310" t="s">
+        <v>53</v>
+      </c>
+      <c r="I310">
+        <v>3.12</v>
+      </c>
+      <c r="J310">
+        <v>344</v>
+      </c>
+      <c r="K310">
+        <v>1</v>
+      </c>
+      <c r="L310" t="s">
+        <v>13</v>
+      </c>
+      <c r="M310" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A311" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B311">
+        <v>26</v>
+      </c>
+      <c r="C311">
+        <v>278670.7</v>
+      </c>
+      <c r="D311">
+        <v>5188677</v>
+      </c>
+      <c r="E311" t="s">
+        <v>21</v>
+      </c>
+      <c r="F311" t="s">
+        <v>58</v>
+      </c>
+      <c r="G311" t="s">
+        <v>52</v>
+      </c>
+      <c r="H311" t="s">
+        <v>53</v>
+      </c>
+      <c r="I311">
+        <v>4.01</v>
+      </c>
+      <c r="J311">
+        <v>344</v>
+      </c>
+      <c r="K311">
+        <v>1</v>
+      </c>
+      <c r="L311" t="s">
+        <v>13</v>
+      </c>
+      <c r="M311" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A312" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B312">
+        <v>26</v>
+      </c>
+      <c r="C312">
+        <v>278670.7</v>
+      </c>
+      <c r="D312">
+        <v>5188677</v>
+      </c>
+      <c r="E312" t="s">
+        <v>21</v>
+      </c>
+      <c r="F312" t="s">
+        <v>58</v>
+      </c>
+      <c r="G312" t="s">
+        <v>52</v>
+      </c>
+      <c r="H312" t="s">
+        <v>53</v>
+      </c>
+      <c r="I312">
+        <v>0.4</v>
+      </c>
+      <c r="J312">
+        <v>358</v>
+      </c>
+      <c r="K312">
+        <v>1</v>
+      </c>
+      <c r="L312" t="s">
+        <v>13</v>
+      </c>
+      <c r="M312" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A313" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B313">
+        <v>26</v>
+      </c>
+      <c r="C313">
+        <v>278670.7</v>
+      </c>
+      <c r="D313">
+        <v>5188677</v>
+      </c>
+      <c r="E313" t="s">
+        <v>21</v>
+      </c>
+      <c r="F313" t="s">
+        <v>58</v>
+      </c>
+      <c r="G313" t="s">
+        <v>52</v>
+      </c>
+      <c r="H313" t="s">
+        <v>53</v>
+      </c>
+      <c r="I313">
+        <v>2.97</v>
+      </c>
+      <c r="J313">
+        <v>358</v>
+      </c>
+      <c r="K313">
+        <v>1</v>
+      </c>
+      <c r="L313" t="s">
+        <v>13</v>
+      </c>
+      <c r="M313" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A314" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B314">
+        <v>26</v>
+      </c>
+      <c r="C314">
+        <v>278670.7</v>
+      </c>
+      <c r="D314">
+        <v>5188677</v>
+      </c>
+      <c r="E314" t="s">
+        <v>21</v>
+      </c>
+      <c r="F314" t="s">
+        <v>58</v>
+      </c>
+      <c r="G314" t="s">
+        <v>52</v>
+      </c>
+      <c r="H314" t="s">
+        <v>53</v>
+      </c>
+      <c r="I314">
+        <v>3.61</v>
+      </c>
+      <c r="J314">
+        <v>0</v>
+      </c>
+      <c r="K314">
+        <v>1</v>
+      </c>
+      <c r="L314" t="s">
+        <v>13</v>
+      </c>
+      <c r="M314" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A315" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B315">
+        <v>26</v>
+      </c>
+      <c r="C315">
+        <v>278670.7</v>
+      </c>
+      <c r="D315">
+        <v>5188677</v>
+      </c>
+      <c r="E315" t="s">
+        <v>21</v>
+      </c>
+      <c r="F315" t="s">
+        <v>58</v>
+      </c>
+      <c r="G315" t="s">
+        <v>52</v>
+      </c>
+      <c r="H315" t="s">
+        <v>53</v>
+      </c>
+      <c r="I315">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="J315">
+        <v>0</v>
+      </c>
+      <c r="K315">
+        <v>1</v>
+      </c>
+      <c r="L315" t="s">
+        <v>13</v>
+      </c>
+      <c r="M315" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A316" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B316">
+        <v>26</v>
+      </c>
+      <c r="C316">
+        <v>278670.7</v>
+      </c>
+      <c r="D316">
+        <v>5188677</v>
+      </c>
+      <c r="E316" t="s">
+        <v>21</v>
+      </c>
+      <c r="F316" t="s">
+        <v>58</v>
+      </c>
+      <c r="G316" t="s">
+        <v>52</v>
+      </c>
+      <c r="H316" t="s">
+        <v>53</v>
+      </c>
+      <c r="I316">
+        <v>4.62</v>
+      </c>
+      <c r="J316">
+        <v>0</v>
+      </c>
+      <c r="K316">
+        <v>1</v>
+      </c>
+      <c r="L316" t="s">
+        <v>13</v>
+      </c>
+      <c r="M316" t="s">
         <v>13</v>
       </c>
     </row>
